--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-54.54545454545454</v>
+      </c>
       <c r="L12" t="n">
         <v>820.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>23</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-52.38095238095239</v>
+      </c>
       <c r="L13" t="n">
         <v>819.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>23</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-52.38095238095239</v>
+      </c>
       <c r="L14" t="n">
         <v>818.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>23</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-52.38095238095239</v>
+      </c>
       <c r="L15" t="n">
         <v>817.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-60</v>
+      </c>
       <c r="L16" t="n">
         <v>816.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>23</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-57.89473684210527</v>
+      </c>
       <c r="L17" t="n">
         <v>815</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>25</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>813.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>25</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>812</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>26</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>811.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>26</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>811</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>28</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-100</v>
+      </c>
       <c r="L22" t="n">
         <v>810.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="K23" t="n">
-        <v>-29.41176470588236</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>810.7</v>
@@ -1466,7 +1488,7 @@
         <v>37</v>
       </c>
       <c r="K24" t="n">
-        <v>-31.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>810.7</v>
@@ -1515,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="K25" t="n">
-        <v>-38.46153846153847</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L25" t="n">
         <v>810.3</v>
@@ -1564,7 +1586,7 @@
         <v>44</v>
       </c>
       <c r="K26" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>809.6</v>
@@ -1613,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="K27" t="n">
-        <v>-50</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L27" t="n">
         <v>808.6</v>
@@ -1662,7 +1684,7 @@
         <v>47</v>
       </c>
       <c r="K28" t="n">
-        <v>-48.83720930232558</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L28" t="n">
         <v>807.8</v>
@@ -1711,7 +1733,7 @@
         <v>47</v>
       </c>
       <c r="K29" t="n">
-        <v>-64.1025641025641</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>807</v>
@@ -1760,7 +1782,7 @@
         <v>51</v>
       </c>
       <c r="K30" t="n">
-        <v>-29.03225806451613</v>
+        <v>-12</v>
       </c>
       <c r="L30" t="n">
         <v>806.7</v>
@@ -1809,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="K31" t="n">
-        <v>-26.66666666666667</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L31" t="n">
         <v>806.3</v>
@@ -1860,7 +1882,7 @@
         <v>55</v>
       </c>
       <c r="K32" t="n">
-        <v>-31.25</v>
+        <v>-60</v>
       </c>
       <c r="L32" t="n">
         <v>805.8</v>
@@ -1911,7 +1933,7 @@
         <v>59</v>
       </c>
       <c r="K33" t="n">
-        <v>-16.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L33" t="n">
         <v>805</v>
@@ -1962,7 +1984,7 @@
         <v>62</v>
       </c>
       <c r="K34" t="n">
-        <v>-23.07692307692308</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L34" t="n">
         <v>804.1</v>
@@ -2013,7 +2035,7 @@
         <v>63</v>
       </c>
       <c r="K35" t="n">
-        <v>-25</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L35" t="n">
         <v>803.5</v>
@@ -2064,7 +2086,7 @@
         <v>66</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.27906976744186</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L36" t="n">
         <v>803.5</v>
@@ -2115,7 +2137,7 @@
         <v>68</v>
       </c>
       <c r="K37" t="n">
-        <v>-20</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L37" t="n">
         <v>803.6</v>
@@ -2166,7 +2188,7 @@
         <v>72</v>
       </c>
       <c r="K38" t="n">
-        <v>-23.40425531914894</v>
+        <v>-12</v>
       </c>
       <c r="L38" t="n">
         <v>803.3</v>
@@ -2217,7 +2239,7 @@
         <v>73</v>
       </c>
       <c r="K39" t="n">
-        <v>-20.83333333333334</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L39" t="n">
         <v>803.1</v>
@@ -2268,7 +2290,7 @@
         <v>79</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.660377358490567</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L40" t="n">
         <v>803.1</v>
@@ -2319,7 +2341,7 @@
         <v>79</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.660377358490567</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L41" t="n">
         <v>803.2</v>
@@ -2370,7 +2392,7 @@
         <v>88</v>
       </c>
       <c r="K42" t="n">
-        <v>13.33333333333333</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L42" t="n">
         <v>804.5</v>
@@ -2421,7 +2443,7 @@
         <v>97</v>
       </c>
       <c r="K43" t="n">
-        <v>16.12903225806452</v>
+        <v>60</v>
       </c>
       <c r="L43" t="n">
         <v>806.3</v>
@@ -2472,7 +2494,7 @@
         <v>120</v>
       </c>
       <c r="K44" t="n">
-        <v>-13.25301204819277</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L44" t="n">
         <v>806.1</v>
@@ -2523,7 +2545,7 @@
         <v>128</v>
       </c>
       <c r="K45" t="n">
-        <v>1.149425287356322</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L45" t="n">
         <v>806.8</v>
@@ -2574,7 +2596,7 @@
         <v>135</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.296703296703297</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L46" t="n">
         <v>806.5</v>
@@ -2625,7 +2647,7 @@
         <v>136</v>
       </c>
       <c r="K47" t="n">
-        <v>1.123595505617978</v>
+        <v>6.25</v>
       </c>
       <c r="L47" t="n">
         <v>806.5</v>
@@ -2676,7 +2698,7 @@
         <v>136</v>
       </c>
       <c r="K48" t="n">
-        <v>1.123595505617978</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L48" t="n">
         <v>806.9</v>
@@ -2727,7 +2749,7 @@
         <v>144</v>
       </c>
       <c r="K49" t="n">
-        <v>9.278350515463918</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L49" t="n">
         <v>808</v>
@@ -2778,7 +2800,7 @@
         <v>144</v>
       </c>
       <c r="K50" t="n">
-        <v>5.376344086021505</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L50" t="n">
         <v>808.5</v>
@@ -2829,7 +2851,7 @@
         <v>145</v>
       </c>
       <c r="K51" t="n">
-        <v>7.526881720430108</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L51" t="n">
         <v>809.1</v>
@@ -2880,7 +2902,7 @@
         <v>146</v>
       </c>
       <c r="K52" t="n">
-        <v>12.08791208791209</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L52" t="n">
         <v>808.9</v>
@@ -2931,7 +2953,7 @@
         <v>149</v>
       </c>
       <c r="K53" t="n">
-        <v>4.444444444444445</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L53" t="n">
         <v>807.5</v>
@@ -2982,7 +3004,7 @@
         <v>151</v>
       </c>
       <c r="K54" t="n">
-        <v>10.1123595505618</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L54" t="n">
         <v>808.6</v>
@@ -3033,7 +3055,7 @@
         <v>151</v>
       </c>
       <c r="K55" t="n">
-        <v>11.36363636363636</v>
+        <v>62.5</v>
       </c>
       <c r="L55" t="n">
         <v>808.9</v>
@@ -3084,7 +3106,7 @@
         <v>153</v>
       </c>
       <c r="K56" t="n">
-        <v>10.3448275862069</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L56" t="n">
         <v>810.1</v>
@@ -3135,7 +3157,7 @@
         <v>158</v>
       </c>
       <c r="K57" t="n">
-        <v>6.666666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L57" t="n">
         <v>810.7</v>
@@ -3186,7 +3208,7 @@
         <v>159</v>
       </c>
       <c r="K58" t="n">
-        <v>10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>811.2</v>
@@ -3237,7 +3259,7 @@
         <v>160</v>
       </c>
       <c r="K59" t="n">
-        <v>8.045977011494253</v>
+        <v>-25</v>
       </c>
       <c r="L59" t="n">
         <v>810.8</v>
@@ -3288,7 +3310,7 @@
         <v>161</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="L60" t="n">
         <v>810.3</v>
@@ -3339,7 +3361,7 @@
         <v>166</v>
       </c>
       <c r="K61" t="n">
-        <v>5.747126436781609</v>
+        <v>-10</v>
       </c>
       <c r="L61" t="n">
         <v>810.2</v>
@@ -3390,7 +3412,7 @@
         <v>166</v>
       </c>
       <c r="K62" t="n">
-        <v>-5.128205128205128</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L62" t="n">
         <v>810</v>
@@ -3441,7 +3463,7 @@
         <v>172</v>
       </c>
       <c r="K63" t="n">
-        <v>-25.33333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>809.5</v>
@@ -3492,7 +3514,7 @@
         <v>175</v>
       </c>
       <c r="K64" t="n">
-        <v>1.818181818181818</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L64" t="n">
         <v>808.5</v>
@@ -3543,7 +3565,7 @@
         <v>175</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.8936170212766</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L65" t="n">
         <v>807.5</v>
@@ -3594,7 +3616,7 @@
         <v>181</v>
       </c>
       <c r="K66" t="n">
-        <v>13.04347826086956</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L66" t="n">
         <v>806.9</v>
@@ -3645,7 +3667,7 @@
         <v>186</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L67" t="n">
         <v>806.3</v>
@@ -3696,7 +3718,7 @@
         <v>187</v>
       </c>
       <c r="K68" t="n">
-        <v>1.96078431372549</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>805.9</v>
@@ -3747,7 +3769,7 @@
         <v>187</v>
       </c>
       <c r="K69" t="n">
-        <v>-16.27906976744186</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L69" t="n">
         <v>805.6</v>
@@ -3798,7 +3820,7 @@
         <v>190</v>
       </c>
       <c r="K70" t="n">
-        <v>-8.695652173913043</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L70" t="n">
         <v>805.7</v>
@@ -3849,7 +3871,7 @@
         <v>193</v>
       </c>
       <c r="K71" t="n">
-        <v>-4.166666666666666</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L71" t="n">
         <v>805.6</v>
@@ -3900,7 +3922,7 @@
         <v>193</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.382978723404255</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L72" t="n">
         <v>805.5</v>
@@ -3951,7 +3973,7 @@
         <v>193</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L73" t="n">
         <v>806</v>
@@ -4002,7 +4024,7 @@
         <v>195</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909092</v>
+        <v>30</v>
       </c>
       <c r="L74" t="n">
         <v>806.6</v>
@@ -4053,7 +4075,7 @@
         <v>197</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956522</v>
+        <v>12.5</v>
       </c>
       <c r="L75" t="n">
         <v>807.4</v>
@@ -4104,7 +4126,7 @@
         <v>199</v>
       </c>
       <c r="K76" t="n">
-        <v>-4.347826086956522</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L76" t="n">
         <v>807.8</v>
@@ -4155,7 +4177,7 @@
         <v>202</v>
       </c>
       <c r="K77" t="n">
-        <v>13.63636363636363</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>809</v>
@@ -4206,7 +4228,7 @@
         <v>212</v>
       </c>
       <c r="K78" t="n">
-        <v>32.0754716981132</v>
+        <v>84</v>
       </c>
       <c r="L78" t="n">
         <v>811.1</v>
@@ -4257,7 +4279,7 @@
         <v>212</v>
       </c>
       <c r="K79" t="n">
-        <v>34.61538461538461</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L79" t="n">
         <v>813.2</v>
@@ -4308,7 +4330,7 @@
         <v>221</v>
       </c>
       <c r="K80" t="n">
-        <v>46.66666666666666</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L80" t="n">
         <v>815.9</v>
@@ -4359,7 +4381,7 @@
         <v>227</v>
       </c>
       <c r="K81" t="n">
-        <v>47.54098360655738</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L81" t="n">
         <v>818.9</v>
@@ -4410,7 +4432,7 @@
         <v>232</v>
       </c>
       <c r="K82" t="n">
-        <v>51.51515151515152</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L82" t="n">
         <v>822.4</v>
@@ -4461,7 +4483,7 @@
         <v>254</v>
       </c>
       <c r="K83" t="n">
-        <v>75.60975609756098</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>828.1</v>
@@ -4512,7 +4534,7 @@
         <v>261</v>
       </c>
       <c r="K84" t="n">
-        <v>67.44186046511628</v>
+        <v>78.125</v>
       </c>
       <c r="L84" t="n">
         <v>833.3</v>
@@ -4563,7 +4585,7 @@
         <v>268</v>
       </c>
       <c r="K85" t="n">
-        <v>69.89247311827957</v>
+        <v>79.71014492753623</v>
       </c>
       <c r="L85" t="n">
         <v>839</v>
@@ -4614,7 +4636,7 @@
         <v>270</v>
       </c>
       <c r="K86" t="n">
-        <v>64.04494382022472</v>
+        <v>73.52941176470588</v>
       </c>
       <c r="L86" t="n">
         <v>844.3</v>
@@ -4665,7 +4687,7 @@
         <v>270</v>
       </c>
       <c r="K87" t="n">
-        <v>73.80952380952381</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="L87" t="n">
         <v>849.3</v>
@@ -4716,7 +4738,7 @@
         <v>272</v>
       </c>
       <c r="K88" t="n">
-        <v>74.11764705882354</v>
+        <v>70</v>
       </c>
       <c r="L88" t="n">
         <v>853.5</v>
@@ -4767,7 +4789,7 @@
         <v>276</v>
       </c>
       <c r="K89" t="n">
-        <v>66.29213483146067</v>
+        <v>52.72727272727272</v>
       </c>
       <c r="L89" t="n">
         <v>857.3</v>
@@ -4818,7 +4840,7 @@
         <v>279</v>
       </c>
       <c r="K90" t="n">
-        <v>66.29213483146067</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>860.5</v>
@@ -4869,7 +4891,7 @@
         <v>281</v>
       </c>
       <c r="K91" t="n">
-        <v>61.36363636363637</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="L91" t="n">
         <v>862.9</v>
@@ -4920,7 +4942,7 @@
         <v>284</v>
       </c>
       <c r="K92" t="n">
-        <v>62.63736263736264</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>865.1</v>
@@ -4971,7 +4993,7 @@
         <v>287</v>
       </c>
       <c r="K93" t="n">
-        <v>63.82978723404256</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L93" t="n">
         <v>865.4</v>
@@ -5022,7 +5044,7 @@
         <v>287</v>
       </c>
       <c r="K94" t="n">
-        <v>67.39130434782609</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L94" t="n">
         <v>866.4</v>
@@ -5073,7 +5095,7 @@
         <v>287</v>
       </c>
       <c r="K95" t="n">
-        <v>66.66666666666666</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L95" t="n">
         <v>866.7</v>
@@ -5124,7 +5146,7 @@
         <v>288</v>
       </c>
       <c r="K96" t="n">
-        <v>64.04494382022472</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L96" t="n">
         <v>867.1</v>
@@ -5175,7 +5197,7 @@
         <v>293</v>
       </c>
       <c r="K97" t="n">
-        <v>64.83516483516483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>868</v>
@@ -5226,7 +5248,7 @@
         <v>295</v>
       </c>
       <c r="K98" t="n">
-        <v>61.44578313253012</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L98" t="n">
         <v>868.9</v>
@@ -5277,7 +5299,7 @@
         <v>295</v>
       </c>
       <c r="K99" t="n">
-        <v>61.44578313253012</v>
+        <v>62.5</v>
       </c>
       <c r="L99" t="n">
         <v>870.2</v>
@@ -5328,7 +5350,7 @@
         <v>303</v>
       </c>
       <c r="K100" t="n">
-        <v>60.97560975609756</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L100" t="n">
         <v>872</v>
@@ -5379,7 +5401,7 @@
         <v>309</v>
       </c>
       <c r="K101" t="n">
-        <v>60.97560975609756</v>
+        <v>92</v>
       </c>
       <c r="L101" t="n">
         <v>874.6</v>
@@ -5430,7 +5452,7 @@
         <v>321</v>
       </c>
       <c r="K102" t="n">
-        <v>37.07865168539326</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L102" t="n">
         <v>875.7</v>
@@ -5481,7 +5503,7 @@
         <v>323</v>
       </c>
       <c r="K103" t="n">
-        <v>18.84057971014493</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L103" t="n">
         <v>876.7</v>
@@ -5532,7 +5554,7 @@
         <v>325</v>
       </c>
       <c r="K104" t="n">
-        <v>28.125</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L104" t="n">
         <v>877.5</v>
@@ -5583,7 +5605,7 @@
         <v>325</v>
       </c>
       <c r="K105" t="n">
-        <v>19.29824561403509</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L105" t="n">
         <v>878.3</v>
@@ -5634,7 +5656,7 @@
         <v>325</v>
       </c>
       <c r="K106" t="n">
-        <v>23.63636363636364</v>
+        <v>12.5</v>
       </c>
       <c r="L106" t="n">
         <v>879.2</v>
@@ -5685,7 +5707,7 @@
         <v>326</v>
       </c>
       <c r="K107" t="n">
-        <v>21.42857142857143</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L107" t="n">
         <v>879.5</v>
@@ -5736,7 +5758,7 @@
         <v>333</v>
       </c>
       <c r="K108" t="n">
-        <v>4.918032786885246</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L108" t="n">
         <v>878.9</v>
@@ -5787,7 +5809,7 @@
         <v>338</v>
       </c>
       <c r="K109" t="n">
-        <v>19.35483870967742</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L109" t="n">
         <v>878.8</v>
@@ -5838,7 +5860,7 @@
         <v>341</v>
       </c>
       <c r="K110" t="n">
-        <v>19.35483870967742</v>
+        <v>-37.5</v>
       </c>
       <c r="L110" t="n">
         <v>878.2</v>
@@ -5889,7 +5911,7 @@
         <v>350</v>
       </c>
       <c r="K111" t="n">
-        <v>33.33333333333333</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L111" t="n">
         <v>877.9</v>
@@ -5991,7 +6013,7 @@
         <v>355</v>
       </c>
       <c r="K113" t="n">
-        <v>32.35294117647059</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L113" t="n">
         <v>880.3</v>
@@ -6042,7 +6064,7 @@
         <v>358</v>
       </c>
       <c r="K114" t="n">
-        <v>26.76056338028169</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>881.4</v>
@@ -6093,7 +6115,7 @@
         <v>363</v>
       </c>
       <c r="K115" t="n">
-        <v>31.57894736842105</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L115" t="n">
         <v>883</v>
@@ -6144,7 +6166,7 @@
         <v>369</v>
       </c>
       <c r="K116" t="n">
-        <v>38.2716049382716</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L116" t="n">
         <v>885.2</v>
@@ -6195,7 +6217,7 @@
         <v>377</v>
       </c>
       <c r="K117" t="n">
-        <v>40.47619047619047</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="L117" t="n">
         <v>888.3</v>
@@ -6246,7 +6268,7 @@
         <v>391</v>
       </c>
       <c r="K118" t="n">
-        <v>47.91666666666667</v>
+        <v>88.67924528301887</v>
       </c>
       <c r="L118" t="n">
         <v>893.5</v>
@@ -6297,7 +6319,7 @@
         <v>424</v>
       </c>
       <c r="K119" t="n">
-        <v>61.24031007751937</v>
+        <v>92.77108433734939</v>
       </c>
       <c r="L119" t="n">
         <v>901.5</v>
@@ -6348,7 +6370,7 @@
         <v>429</v>
       </c>
       <c r="K120" t="n">
-        <v>60.31746031746032</v>
+        <v>92.40506329113924</v>
       </c>
       <c r="L120" t="n">
         <v>909.7</v>
@@ -6399,7 +6421,7 @@
         <v>436</v>
       </c>
       <c r="K121" t="n">
-        <v>60.62992125984253</v>
+        <v>92.77108433734939</v>
       </c>
       <c r="L121" t="n">
         <v>917.7</v>
@@ -6450,7 +6472,7 @@
         <v>436</v>
       </c>
       <c r="K122" t="n">
-        <v>77.39130434782608</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="L122" t="n">
         <v>925.4</v>
@@ -6501,7 +6523,7 @@
         <v>438</v>
       </c>
       <c r="K123" t="n">
-        <v>77.39130434782608</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
         <v>933.1</v>
@@ -6552,7 +6574,7 @@
         <v>442</v>
       </c>
       <c r="K124" t="n">
-        <v>74.35897435897436</v>
+        <v>89.87341772151899</v>
       </c>
       <c r="L124" t="n">
         <v>940.7</v>
@@ -6603,7 +6625,7 @@
         <v>472</v>
       </c>
       <c r="K125" t="n">
-        <v>38.77551020408163</v>
+        <v>33.98058252427185</v>
       </c>
       <c r="L125" t="n">
         <v>944.8</v>
@@ -6654,7 +6676,7 @@
         <v>474</v>
       </c>
       <c r="K126" t="n">
-        <v>39.59731543624161</v>
+        <v>29.89690721649485</v>
       </c>
       <c r="L126" t="n">
         <v>948.5</v>
@@ -6705,7 +6727,7 @@
         <v>484</v>
       </c>
       <c r="K127" t="n">
-        <v>31.64556962025317</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="L127" t="n">
         <v>950.4</v>
@@ -6756,7 +6778,7 @@
         <v>484</v>
       </c>
       <c r="K128" t="n">
-        <v>37.74834437086093</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L128" t="n">
         <v>950.9</v>
@@ -6807,7 +6829,7 @@
         <v>486</v>
       </c>
       <c r="K129" t="n">
-        <v>33.78378378378378</v>
+        <v>-61.40350877192983</v>
       </c>
       <c r="L129" t="n">
         <v>947.9</v>
@@ -6858,7 +6880,7 @@
         <v>491</v>
       </c>
       <c r="K130" t="n">
-        <v>34.66666666666667</v>
+        <v>-67.27272727272727</v>
       </c>
       <c r="L130" t="n">
         <v>944.9</v>
@@ -6909,7 +6931,7 @@
         <v>496</v>
       </c>
       <c r="K131" t="n">
-        <v>26.02739726027397</v>
+        <v>-70</v>
       </c>
       <c r="L131" t="n">
         <v>940.7</v>
@@ -6960,7 +6982,7 @@
         <v>507</v>
       </c>
       <c r="K132" t="n">
-        <v>15.58441558441558</v>
+        <v>-79.71014492753623</v>
       </c>
       <c r="L132" t="n">
         <v>935.4</v>
@@ -7011,7 +7033,7 @@
         <v>507</v>
       </c>
       <c r="K133" t="n">
-        <v>14.47368421052632</v>
+        <v>-78.46153846153847</v>
       </c>
       <c r="L133" t="n">
         <v>929.9</v>
@@ -7062,7 +7084,7 @@
         <v>508</v>
       </c>
       <c r="K134" t="n">
-        <v>16</v>
+        <v>-61.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>924.7</v>
@@ -7113,7 +7135,7 @@
         <v>511</v>
       </c>
       <c r="K135" t="n">
-        <v>14.86486486486486</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L135" t="n">
         <v>922.8</v>
@@ -7164,7 +7186,7 @@
         <v>524</v>
       </c>
       <c r="K136" t="n">
-        <v>1.935483870967742</v>
+        <v>-60</v>
       </c>
       <c r="L136" t="n">
         <v>919.4</v>
@@ -7215,7 +7237,7 @@
         <v>566</v>
       </c>
       <c r="K137" t="n">
-        <v>19.57671957671958</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L137" t="n">
         <v>921.2</v>
@@ -7266,7 +7288,7 @@
         <v>584</v>
       </c>
       <c r="K138" t="n">
-        <v>2.590673575129534</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L138" t="n">
         <v>921.2</v>
@@ -7317,7 +7339,7 @@
         <v>584</v>
       </c>
       <c r="K139" t="n">
-        <v>-17.5</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L139" t="n">
         <v>921.4</v>
@@ -7368,7 +7390,7 @@
         <v>586</v>
       </c>
       <c r="K140" t="n">
-        <v>-22.29299363057325</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>920.9</v>
@@ -7419,7 +7441,7 @@
         <v>589</v>
       </c>
       <c r="K141" t="n">
-        <v>-25.49019607843137</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L141" t="n">
         <v>921.2</v>
@@ -7470,7 +7492,7 @@
         <v>590</v>
       </c>
       <c r="K142" t="n">
-        <v>-24.67532467532467</v>
+        <v>18.07228915662651</v>
       </c>
       <c r="L142" t="n">
         <v>922.7</v>
@@ -7521,7 +7543,7 @@
         <v>596</v>
       </c>
       <c r="K143" t="n">
-        <v>-29.11392405063291</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="L143" t="n">
         <v>923.6</v>
@@ -7572,7 +7594,7 @@
         <v>596</v>
       </c>
       <c r="K144" t="n">
-        <v>-27.27272727272727</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="L144" t="n">
         <v>924.6</v>
@@ -7623,7 +7645,7 @@
         <v>598</v>
       </c>
       <c r="K145" t="n">
-        <v>-11.11111111111111</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L145" t="n">
         <v>925.1</v>
@@ -7674,7 +7696,7 @@
         <v>614</v>
       </c>
       <c r="K146" t="n">
-        <v>-22.85714285714286</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L146" t="n">
         <v>925.3</v>
@@ -7725,7 +7747,7 @@
         <v>627</v>
       </c>
       <c r="K147" t="n">
-        <v>-6.293706293706294</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L147" t="n">
         <v>922.6</v>
@@ -7776,7 +7798,7 @@
         <v>632</v>
       </c>
       <c r="K148" t="n">
-        <v>-9.45945945945946</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L148" t="n">
         <v>921.2</v>
@@ -7827,7 +7849,7 @@
         <v>634</v>
       </c>
       <c r="K149" t="n">
-        <v>-9.45945945945946</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L149" t="n">
         <v>919.6</v>
@@ -7878,7 +7900,7 @@
         <v>645</v>
       </c>
       <c r="K150" t="n">
-        <v>-19.48051948051948</v>
+        <v>-50</v>
       </c>
       <c r="L150" t="n">
         <v>917.1</v>
@@ -7929,7 +7951,7 @@
         <v>650</v>
       </c>
       <c r="K151" t="n">
-        <v>-12.98701298701299</v>
+        <v>-40</v>
       </c>
       <c r="L151" t="n">
         <v>914.8</v>
@@ -7980,7 +8002,7 @@
         <v>653</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.10958904109589</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L152" t="n">
         <v>912.7</v>
@@ -8031,7 +8053,7 @@
         <v>656</v>
       </c>
       <c r="K153" t="n">
-        <v>-2.013422818791946</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>911.5</v>
@@ -8082,7 +8104,7 @@
         <v>658</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>910.5</v>
@@ -8133,7 +8155,7 @@
         <v>659</v>
       </c>
       <c r="K155" t="n">
-        <v>-1.351351351351351</v>
+        <v>20</v>
       </c>
       <c r="L155" t="n">
         <v>909.8</v>
@@ -8184,7 +8206,7 @@
         <v>663</v>
       </c>
       <c r="K156" t="n">
-        <v>10.79136690647482</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>911.1</v>
@@ -8235,7 +8257,7 @@
         <v>673</v>
       </c>
       <c r="K157" t="n">
-        <v>-34.57943925233645</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L157" t="n">
         <v>910.1</v>
@@ -8286,7 +8308,7 @@
         <v>681</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.34020618556701</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L158" t="n">
         <v>910.4</v>
@@ -8337,7 +8359,7 @@
         <v>690</v>
       </c>
       <c r="K159" t="n">
-        <v>-1.886792452830189</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L159" t="n">
         <v>911.8</v>
@@ -8388,7 +8410,7 @@
         <v>708</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.75409836065574</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L160" t="n">
         <v>912.5</v>
@@ -8439,7 +8461,7 @@
         <v>718</v>
       </c>
       <c r="K161" t="n">
-        <v>-8.527131782945736</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="L161" t="n">
         <v>913.7</v>
@@ -8490,7 +8512,7 @@
         <v>720</v>
       </c>
       <c r="K162" t="n">
-        <v>-10.76923076923077</v>
+        <v>6.25</v>
       </c>
       <c r="L162" t="n">
         <v>914.4</v>
@@ -8541,7 +8563,7 @@
         <v>725</v>
       </c>
       <c r="K163" t="n">
-        <v>-2.325581395348837</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="L163" t="n">
         <v>915.3</v>
@@ -8592,7 +8614,7 @@
         <v>726</v>
       </c>
       <c r="K164" t="n">
-        <v>-3.076923076923077</v>
+        <v>7.462686567164178</v>
       </c>
       <c r="L164" t="n">
         <v>915.9</v>
@@ -8643,7 +8665,7 @@
         <v>731</v>
       </c>
       <c r="K165" t="n">
-        <v>-5.263157894736842</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L165" t="n">
         <v>915.9</v>
@@ -8694,7 +8716,7 @@
         <v>732</v>
       </c>
       <c r="K166" t="n">
-        <v>6.779661016949152</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L166" t="n">
         <v>915.4</v>
@@ -8745,7 +8767,7 @@
         <v>738</v>
       </c>
       <c r="K167" t="n">
-        <v>-9.90990990990991</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L167" t="n">
         <v>915.3</v>
@@ -8796,7 +8818,7 @@
         <v>739</v>
       </c>
       <c r="K168" t="n">
-        <v>-6.542056074766355</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L168" t="n">
         <v>914.3</v>
@@ -8847,7 +8869,7 @@
         <v>745</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.90990990990991</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L169" t="n">
         <v>911.8</v>
@@ -8898,7 +8920,7 @@
         <v>745</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L170" t="n">
         <v>911.1</v>
@@ -8949,7 +8971,7 @@
         <v>748</v>
       </c>
       <c r="K171" t="n">
-        <v>-8.163265306122449</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L171" t="n">
         <v>909.1</v>
@@ -9000,7 +9022,7 @@
         <v>750</v>
       </c>
       <c r="K172" t="n">
-        <v>-13.4020618556701</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>907.1</v>
@@ -9051,7 +9073,7 @@
         <v>750</v>
       </c>
       <c r="K173" t="n">
-        <v>-17.02127659574468</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>904.6</v>
@@ -9102,7 +9124,7 @@
         <v>751</v>
       </c>
       <c r="K174" t="n">
-        <v>-20.43010752688172</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>902.1</v>
@@ -9153,7 +9175,7 @@
         <v>775</v>
       </c>
       <c r="K175" t="n">
-        <v>3.448275862068965</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L175" t="n">
         <v>902.5</v>
@@ -9204,7 +9226,7 @@
         <v>790</v>
       </c>
       <c r="K176" t="n">
-        <v>-11.81102362204724</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L176" t="n">
         <v>901.5</v>
@@ -9255,7 +9277,7 @@
         <v>791</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.389830508474576</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L177" t="n">
         <v>901.2</v>
@@ -9306,7 +9328,7 @@
         <v>792</v>
       </c>
       <c r="K178" t="n">
-        <v>-11.71171171171171</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L178" t="n">
         <v>900.9</v>
@@ -9357,7 +9379,7 @@
         <v>795</v>
       </c>
       <c r="K179" t="n">
-        <v>-18.09523809523809</v>
+        <v>12</v>
       </c>
       <c r="L179" t="n">
         <v>901.5</v>
@@ -9408,7 +9430,7 @@
         <v>805</v>
       </c>
       <c r="K180" t="n">
-        <v>-11.34020618556701</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L180" t="n">
         <v>901.1</v>
@@ -9459,7 +9481,7 @@
         <v>807</v>
       </c>
       <c r="K181" t="n">
-        <v>-21.34831460674157</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L181" t="n">
         <v>901.2</v>
@@ -9510,7 +9532,7 @@
         <v>814</v>
       </c>
       <c r="K182" t="n">
-        <v>-10.63829787234043</v>
+        <v>15.625</v>
       </c>
       <c r="L182" t="n">
         <v>902.2</v>
@@ -9561,7 +9583,7 @@
         <v>823</v>
       </c>
       <c r="K183" t="n">
-        <v>-24.48979591836735</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="L183" t="n">
         <v>902.3</v>
@@ -9612,7 +9634,7 @@
         <v>824</v>
       </c>
       <c r="K184" t="n">
-        <v>-24.48979591836735</v>
+        <v>-46.93877551020408</v>
       </c>
       <c r="L184" t="n">
         <v>902.4</v>
@@ -9663,7 +9685,7 @@
         <v>829</v>
       </c>
       <c r="K185" t="n">
-        <v>-24.48979591836735</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>899.6</v>
@@ -9714,7 +9736,7 @@
         <v>840</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.11111111111111</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L186" t="n">
         <v>899.4</v>
@@ -9765,7 +9787,7 @@
         <v>855</v>
       </c>
       <c r="K187" t="n">
-        <v>-17.94871794871795</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L187" t="n">
         <v>897.6</v>
@@ -9816,7 +9838,7 @@
         <v>856</v>
       </c>
       <c r="K188" t="n">
-        <v>-17.94871794871795</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L188" t="n">
         <v>895.8</v>
@@ -9867,7 +9889,7 @@
         <v>861</v>
       </c>
       <c r="K189" t="n">
-        <v>-8.620689655172415</v>
+        <v>-10.71428571428571</v>
       </c>
       <c r="L189" t="n">
         <v>894.2</v>
@@ -9918,7 +9940,7 @@
         <v>863</v>
       </c>
       <c r="K190" t="n">
-        <v>-10.16949152542373</v>
+        <v>-17.85714285714286</v>
       </c>
       <c r="L190" t="n">
         <v>893.4</v>
@@ -9969,7 +9991,7 @@
         <v>865</v>
       </c>
       <c r="K191" t="n">
-        <v>-9.401709401709402</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L191" t="n">
         <v>892.2</v>
@@ -10020,7 +10042,7 @@
         <v>868</v>
       </c>
       <c r="K192" t="n">
-        <v>-10.16949152542373</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L192" t="n">
         <v>890</v>
@@ -10071,7 +10093,7 @@
         <v>875</v>
       </c>
       <c r="K193" t="n">
-        <v>-15.2</v>
+        <v>-37.25490196078432</v>
       </c>
       <c r="L193" t="n">
         <v>888</v>
@@ -10122,7 +10144,7 @@
         <v>884</v>
       </c>
       <c r="K194" t="n">
-        <v>-6.766917293233083</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L194" t="n">
         <v>887</v>
@@ -10173,7 +10195,7 @@
         <v>888</v>
       </c>
       <c r="K195" t="n">
-        <v>-32.74336283185841</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L195" t="n">
         <v>886.1</v>
@@ -10224,7 +10246,7 @@
         <v>889</v>
       </c>
       <c r="K196" t="n">
-        <v>-21.21212121212121</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L196" t="n">
         <v>884.2</v>
@@ -10275,7 +10297,7 @@
         <v>892</v>
       </c>
       <c r="K197" t="n">
-        <v>-18.81188118811881</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>884.1</v>
@@ -10326,7 +10348,7 @@
         <v>895</v>
       </c>
       <c r="K198" t="n">
-        <v>-20.38834951456311</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L198" t="n">
         <v>883.8</v>
@@ -10377,7 +10399,7 @@
         <v>903</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.81481481481481</v>
+        <v>5</v>
       </c>
       <c r="L199" t="n">
         <v>883.8</v>
@@ -10428,7 +10450,7 @@
         <v>903</v>
       </c>
       <c r="K200" t="n">
-        <v>-6.122448979591836</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L200" t="n">
         <v>884</v>
@@ -10479,7 +10501,7 @@
         <v>903</v>
       </c>
       <c r="K201" t="n">
-        <v>-8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>884.4</v>
@@ -10530,7 +10552,7 @@
         <v>909</v>
       </c>
       <c r="K202" t="n">
-        <v>-22.10526315789474</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L202" t="n">
         <v>884.5</v>
@@ -10581,7 +10603,7 @@
         <v>922</v>
       </c>
       <c r="K203" t="n">
-        <v>1.01010101010101</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L203" t="n">
         <v>886.6</v>
@@ -10632,7 +10654,7 @@
         <v>922</v>
       </c>
       <c r="K204" t="n">
-        <v>2.040816326530612</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L204" t="n">
         <v>887.8</v>
@@ -10683,7 +10705,7 @@
         <v>929</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L205" t="n">
         <v>888.7</v>
@@ -10734,7 +10756,7 @@
         <v>930</v>
       </c>
       <c r="K206" t="n">
-        <v>-13.33333333333333</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L206" t="n">
         <v>889.4</v>
@@ -10785,7 +10807,7 @@
         <v>931</v>
       </c>
       <c r="K207" t="n">
-        <v>5.263157894736842</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L207" t="n">
         <v>889.9</v>
@@ -10836,7 +10858,7 @@
         <v>931</v>
       </c>
       <c r="K208" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>890.7</v>
@@ -10887,7 +10909,7 @@
         <v>933</v>
       </c>
       <c r="K209" t="n">
-        <v>-2.777777777777778</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L209" t="n">
         <v>890.5</v>
@@ -10938,7 +10960,7 @@
         <v>940</v>
       </c>
       <c r="K210" t="n">
-        <v>-9.090909090909092</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L210" t="n">
         <v>889.6</v>
@@ -10989,7 +11011,7 @@
         <v>942</v>
       </c>
       <c r="K211" t="n">
-        <v>-3.896103896103896</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L211" t="n">
         <v>888.9</v>
@@ -11040,7 +11062,7 @@
         <v>947</v>
       </c>
       <c r="K212" t="n">
-        <v>6.329113924050633</v>
+        <v>-36</v>
       </c>
       <c r="L212" t="n">
         <v>889.3</v>
@@ -11091,7 +11113,7 @@
         <v>954</v>
       </c>
       <c r="K213" t="n">
-        <v>24.05063291139241</v>
+        <v>-6.25</v>
       </c>
       <c r="L213" t="n">
         <v>889.1</v>
@@ -11142,7 +11164,7 @@
         <v>954</v>
       </c>
       <c r="K214" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L214" t="n">
         <v>888.9</v>
@@ -11193,7 +11215,7 @@
         <v>956</v>
       </c>
       <c r="K215" t="n">
-        <v>17.64705882352941</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L215" t="n">
         <v>889.2</v>
@@ -11244,7 +11266,7 @@
         <v>966</v>
       </c>
       <c r="K216" t="n">
-        <v>1.298701298701299</v>
+        <v>-20</v>
       </c>
       <c r="L216" t="n">
         <v>888.6</v>

--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>821.8</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L12" t="n">
-        <v>820.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-52.38095238095239</v>
-      </c>
-      <c r="L13" t="n">
-        <v>819.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-52.38095238095239</v>
-      </c>
-      <c r="L14" t="n">
-        <v>818.4</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-52.38095238095239</v>
-      </c>
-      <c r="L15" t="n">
-        <v>817.3</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L16" t="n">
-        <v>816.2</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L17" t="n">
-        <v>815</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L18" t="n">
-        <v>813.7</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L19" t="n">
-        <v>812</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>26</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>811.4</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>26</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L21" t="n">
-        <v>811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>816.4</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1151,19 @@
         <v>822.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>28</v>
+        <v>807</v>
       </c>
       <c r="K22" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L22" t="n">
-        <v>810.5</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>815.6</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1193,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L23" t="n">
-        <v>810.7</v>
+        <v>807</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>815.1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1231,23 @@
         <v>821.7666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>37</v>
+        <v>812</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>810.7</v>
+        <v>807</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>814.55</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1274,23 @@
         <v>821.25</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41</v>
+        <v>810</v>
       </c>
       <c r="K25" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L25" t="n">
-        <v>810.3</v>
+        <v>807</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>813.8</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1317,23 @@
         <v>820.6833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>44</v>
+        <v>809</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>809.6</v>
+        <v>807</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>812.9</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1360,23 @@
         <v>820.05</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="K27" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L27" t="n">
-        <v>808.6</v>
+        <v>807</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>811.8</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1403,23 @@
         <v>819.4333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47</v>
+        <v>802</v>
       </c>
       <c r="K28" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L28" t="n">
-        <v>807.8</v>
+        <v>807</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>810.75</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1446,23 @@
         <v>818.7666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>47</v>
+        <v>802</v>
       </c>
       <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>807</v>
+        <v>807</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>809.5</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1489,23 @@
         <v>818.1833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51</v>
+        <v>806</v>
       </c>
       <c r="K30" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L30" t="n">
-        <v>806.7</v>
+        <v>807</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>809.05</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1532,23 @@
         <v>817.85</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52</v>
+        <v>805</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L31" t="n">
-        <v>806.3</v>
+        <v>807</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>808.65</v>
-      </c>
-      <c r="N31" t="n">
-        <v>813.0333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1575,23 @@
         <v>817.4</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55</v>
+        <v>802</v>
       </c>
       <c r="K32" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L32" t="n">
-        <v>805.8</v>
+        <v>807</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>808.15</v>
-      </c>
-      <c r="N32" t="n">
-        <v>812.3333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1618,23 @@
         <v>816.9666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>59</v>
+        <v>806</v>
       </c>
       <c r="K33" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L33" t="n">
-        <v>805</v>
+        <v>807</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>807.85</v>
-      </c>
-      <c r="N33" t="n">
-        <v>811.7333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1661,23 @@
         <v>816.5833333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62</v>
+        <v>803</v>
       </c>
       <c r="K34" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L34" t="n">
-        <v>804.1</v>
+        <v>807</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>807.4</v>
-      </c>
-      <c r="N34" t="n">
-        <v>811.0666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1704,23 @@
         <v>816.2166666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>63</v>
+        <v>802</v>
       </c>
       <c r="K35" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L35" t="n">
-        <v>803.5</v>
+        <v>807</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>806.9</v>
-      </c>
-      <c r="N35" t="n">
-        <v>810.3666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1747,23 @@
         <v>815.85</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>66</v>
+        <v>805</v>
       </c>
       <c r="K36" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L36" t="n">
-        <v>803.5</v>
+        <v>807</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>806.55</v>
-      </c>
-      <c r="N36" t="n">
-        <v>809.7666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1790,23 @@
         <v>815.55</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68</v>
+        <v>803</v>
       </c>
       <c r="K37" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L37" t="n">
-        <v>803.6</v>
+        <v>807</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>806.1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>809.0666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1833,23 @@
         <v>815.1833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72</v>
+        <v>803</v>
       </c>
       <c r="K38" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L38" t="n">
-        <v>803.3</v>
+        <v>807</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>805.55</v>
-      </c>
-      <c r="N38" t="n">
-        <v>808.2666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1876,23 @@
         <v>814.8666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>73</v>
+        <v>801</v>
       </c>
       <c r="K39" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L39" t="n">
-        <v>803.1</v>
+        <v>807</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>805.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>807.3666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1919,23 @@
         <v>814.6333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79</v>
+        <v>804</v>
       </c>
       <c r="K40" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="L40" t="n">
-        <v>803.1</v>
+        <v>807</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>804.9</v>
-      </c>
-      <c r="N40" t="n">
-        <v>807.0666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +1962,23 @@
         <v>814.3333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>79</v>
+        <v>806</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L41" t="n">
-        <v>803.2</v>
+        <v>807</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>804.75</v>
-      </c>
-      <c r="N41" t="n">
-        <v>806.8333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2005,23 @@
         <v>814.1833333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88</v>
+        <v>803</v>
       </c>
       <c r="K42" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L42" t="n">
-        <v>804.5</v>
+        <v>807</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>805.15</v>
-      </c>
-      <c r="N42" t="n">
-        <v>806.9333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2048,23 @@
         <v>814.3</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="K43" t="n">
-        <v>60</v>
-      </c>
-      <c r="L43" t="n">
-        <v>806.3</v>
+        <v>807</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>805.65</v>
-      </c>
-      <c r="N43" t="n">
-        <v>807.3333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2091,23 @@
         <v>813.9333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>120</v>
+        <v>802</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.754385964912281</v>
-      </c>
-      <c r="L44" t="n">
-        <v>806.1</v>
+        <v>807</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>805.1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>806.9666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2134,23 @@
         <v>813.8166666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>128</v>
+        <v>809</v>
       </c>
       <c r="K45" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="L45" t="n">
-        <v>806.8</v>
+        <v>807</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>805.15</v>
-      </c>
-      <c r="N45" t="n">
-        <v>806.8666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2177,23 @@
         <v>813.45</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>135</v>
+        <v>803</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.492537313432836</v>
-      </c>
-      <c r="L46" t="n">
-        <v>806.5</v>
+        <v>807</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>805</v>
-      </c>
-      <c r="N46" t="n">
-        <v>806.5333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2220,23 @@
         <v>813.1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>136</v>
+        <v>803</v>
       </c>
       <c r="K47" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>806.5</v>
+        <v>807</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>805.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>806.2333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2263,23 @@
         <v>812.75</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>136</v>
+        <v>803</v>
       </c>
       <c r="K48" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L48" t="n">
-        <v>806.9</v>
+        <v>807</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>805.1</v>
-      </c>
-      <c r="N48" t="n">
-        <v>806</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2306,23 @@
         <v>812.5833333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>144</v>
+        <v>811</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L49" t="n">
-        <v>808</v>
+        <v>807</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>805.55</v>
-      </c>
-      <c r="N49" t="n">
-        <v>806.0333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2349,23 @@
         <v>812.3666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>144</v>
+        <v>811</v>
       </c>
       <c r="K50" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L50" t="n">
-        <v>808.5</v>
+        <v>807</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>805.8</v>
-      </c>
-      <c r="N50" t="n">
-        <v>806.1</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2392,23 @@
         <v>812.2166666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>145</v>
+        <v>811</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L51" t="n">
-        <v>809.1</v>
+        <v>807</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>806.15</v>
-      </c>
-      <c r="N51" t="n">
-        <v>806.2</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2435,23 @@
         <v>812.1333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>146</v>
+        <v>814</v>
       </c>
       <c r="K52" t="n">
-        <v>-22.44897959183674</v>
-      </c>
-      <c r="L52" t="n">
-        <v>808.9</v>
+        <v>807</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>806.7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>806.4</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2478,23 @@
         <v>811.95</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>149</v>
+        <v>810</v>
       </c>
       <c r="K53" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L53" t="n">
-        <v>807.5</v>
+        <v>807</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>806.9</v>
-      </c>
-      <c r="N53" t="n">
-        <v>806.2666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2521,23 @@
         <v>811.8</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>151</v>
+        <v>812</v>
       </c>
       <c r="K54" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L54" t="n">
-        <v>808.6</v>
+        <v>807</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>807.35</v>
-      </c>
-      <c r="N54" t="n">
-        <v>806.2666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2564,23 @@
         <v>811.65</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>151</v>
+        <v>808</v>
       </c>
       <c r="K55" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L55" t="n">
-        <v>808.9</v>
+        <v>807</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>807.85</v>
-      </c>
-      <c r="N55" t="n">
-        <v>806.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,31 +2607,23 @@
         <v>811.4666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>153</v>
+        <v>814</v>
       </c>
       <c r="K56" t="n">
-        <v>64.70588235294117</v>
-      </c>
-      <c r="L56" t="n">
-        <v>810.1</v>
+        <v>807</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>808.3</v>
-      </c>
-      <c r="N56" t="n">
-        <v>806.7</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,31 +2650,23 @@
         <v>811.2166666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>158</v>
+        <v>809</v>
       </c>
       <c r="K57" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L57" t="n">
-        <v>810.7</v>
+        <v>807</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>808.6</v>
-      </c>
-      <c r="N57" t="n">
-        <v>806.9333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2693,23 @@
         <v>810.9666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>159</v>
+        <v>808</v>
       </c>
       <c r="K58" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L58" t="n">
-        <v>811.2</v>
+        <v>807</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>809.05</v>
-      </c>
-      <c r="N58" t="n">
-        <v>807.1333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2736,23 @@
         <v>810.6666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>160</v>
+        <v>812</v>
       </c>
       <c r="K59" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L59" t="n">
-        <v>810.8</v>
+        <v>807</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>809.4</v>
-      </c>
-      <c r="N59" t="n">
-        <v>807.3</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2779,23 @@
         <v>810.4166666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>161</v>
+        <v>808</v>
       </c>
       <c r="K60" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L60" t="n">
-        <v>810.3</v>
+        <v>807</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>809.4</v>
-      </c>
-      <c r="N60" t="n">
-        <v>807.3</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2822,23 @@
         <v>810.2666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>166</v>
+        <v>811</v>
       </c>
       <c r="K61" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L61" t="n">
-        <v>810.2</v>
+        <v>807</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>809.65</v>
-      </c>
-      <c r="N61" t="n">
-        <v>807.5</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2865,23 @@
         <v>810.0666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>166</v>
+        <v>811</v>
       </c>
       <c r="K62" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L62" t="n">
-        <v>810</v>
+        <v>807</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>809.45</v>
-      </c>
-      <c r="N62" t="n">
-        <v>807.8</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2908,23 @@
         <v>809.75</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>172</v>
+        <v>805</v>
       </c>
       <c r="K63" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>809.5</v>
+        <v>807</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>808.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>807.7666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2951,23 @@
         <v>809.4</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>175</v>
+        <v>802</v>
       </c>
       <c r="K64" t="n">
-        <v>-41.66666666666667</v>
-      </c>
-      <c r="L64" t="n">
-        <v>808.5</v>
+        <v>807</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>808.55</v>
-      </c>
-      <c r="N64" t="n">
-        <v>807.7333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2994,23 @@
         <v>809.05</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>175</v>
+        <v>802</v>
       </c>
       <c r="K65" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L65" t="n">
-        <v>807.5</v>
+        <v>807</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>808.2</v>
-      </c>
-      <c r="N65" t="n">
-        <v>807.7333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +3037,23 @@
         <v>808.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>181</v>
+        <v>808</v>
       </c>
       <c r="K66" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L66" t="n">
-        <v>806.9</v>
+        <v>807</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>808.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>807.8333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +3080,23 @@
         <v>808.45</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>186</v>
+        <v>804</v>
       </c>
       <c r="K67" t="n">
-        <v>-18.51851851851852</v>
-      </c>
-      <c r="L67" t="n">
-        <v>806.3</v>
+        <v>807</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>808.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>807.8333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +3123,23 @@
         <v>808.1333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>187</v>
+        <v>804</v>
       </c>
       <c r="K68" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L68" t="n">
-        <v>805.9</v>
+        <v>807</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>808.55</v>
-      </c>
-      <c r="N68" t="n">
-        <v>808</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +3166,23 @@
         <v>807.75</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>187</v>
+        <v>804</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L69" t="n">
-        <v>805.6</v>
+        <v>807</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>808.2</v>
-      </c>
-      <c r="N69" t="n">
-        <v>808.1333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +3209,23 @@
         <v>807.6166666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>190</v>
+        <v>806</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L70" t="n">
-        <v>805.7</v>
+        <v>807</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>808</v>
-      </c>
-      <c r="N70" t="n">
-        <v>808.1666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +3252,23 @@
         <v>807.5666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>193</v>
+        <v>810</v>
       </c>
       <c r="K71" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L71" t="n">
-        <v>805.6</v>
+        <v>807</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>807.9</v>
-      </c>
-      <c r="N71" t="n">
-        <v>808.3</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3295,23 @@
         <v>807.5333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>193</v>
+        <v>810</v>
       </c>
       <c r="K72" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L72" t="n">
-        <v>805.5</v>
+        <v>807</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>807.75</v>
-      </c>
-      <c r="N72" t="n">
-        <v>808.1333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3338,23 @@
         <v>807.5</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>193</v>
+        <v>810</v>
       </c>
       <c r="K73" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="L73" t="n">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>807.75</v>
-      </c>
-      <c r="N73" t="n">
-        <v>807.6666666666666</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3381,23 @@
         <v>807.4333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>195</v>
+        <v>808</v>
       </c>
       <c r="K74" t="n">
-        <v>30</v>
-      </c>
-      <c r="L74" t="n">
-        <v>806.6</v>
+        <v>807</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>807.55</v>
-      </c>
-      <c r="N74" t="n">
-        <v>807.9</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3424,23 @@
         <v>807.4</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>197</v>
+        <v>810</v>
       </c>
       <c r="K75" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L75" t="n">
-        <v>807.4</v>
+        <v>807</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>807.45</v>
-      </c>
-      <c r="N75" t="n">
-        <v>807.9333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3467,23 @@
         <v>807.4</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>199</v>
+        <v>812</v>
       </c>
       <c r="K76" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L76" t="n">
-        <v>807.8</v>
+        <v>807</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>807.35</v>
-      </c>
-      <c r="N76" t="n">
-        <v>808.2666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3510,23 @@
         <v>807.45</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>202</v>
+        <v>815</v>
       </c>
       <c r="K77" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>809</v>
+        <v>807</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>807.65</v>
-      </c>
-      <c r="N77" t="n">
-        <v>808.6666666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3553,23 @@
         <v>807.7</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>212</v>
+        <v>818</v>
       </c>
       <c r="K78" t="n">
-        <v>84</v>
-      </c>
-      <c r="L78" t="n">
-        <v>811.1</v>
+        <v>807</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>808.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>809.4</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3596,23 @@
         <v>807.95</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>212</v>
+        <v>825</v>
       </c>
       <c r="K79" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L79" t="n">
-        <v>813.2</v>
+        <v>807</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>809.4</v>
-      </c>
-      <c r="N79" t="n">
-        <v>809.8666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3639,23 @@
         <v>808.3666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>221</v>
+        <v>830</v>
       </c>
       <c r="K80" t="n">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="L80" t="n">
-        <v>815.9</v>
+        <v>807</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>810.8</v>
-      </c>
-      <c r="N80" t="n">
-        <v>810.6333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3682,23 @@
         <v>808.8833333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>227</v>
+        <v>835</v>
       </c>
       <c r="K81" t="n">
-        <v>88.23529411764706</v>
-      </c>
-      <c r="L81" t="n">
-        <v>818.9</v>
+        <v>807</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>812.25</v>
-      </c>
-      <c r="N81" t="n">
-        <v>811.5666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3725,23 @@
         <v>809.5166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>232</v>
+        <v>840</v>
       </c>
       <c r="K82" t="n">
-        <v>89.74358974358975</v>
-      </c>
-      <c r="L82" t="n">
-        <v>822.4</v>
+        <v>807</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>813.95</v>
-      </c>
-      <c r="N82" t="n">
-        <v>812.6333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3771,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>44</v>
-      </c>
-      <c r="J83" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>100</v>
-      </c>
-      <c r="L83" t="n">
-        <v>828.1</v>
+        <v>807</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>817.05</v>
-      </c>
-      <c r="N83" t="n">
-        <v>814.5333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3812,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>37</v>
-      </c>
-      <c r="J84" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>78.125</v>
-      </c>
-      <c r="L84" t="n">
-        <v>833.3</v>
+        <v>807</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>819.95</v>
-      </c>
-      <c r="N84" t="n">
-        <v>816.1333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3853,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>44</v>
-      </c>
-      <c r="J85" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>79.71014492753623</v>
-      </c>
-      <c r="L85" t="n">
-        <v>839</v>
+        <v>807</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>823.2</v>
-      </c>
-      <c r="N85" t="n">
-        <v>817.9666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3894,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>42</v>
-      </c>
-      <c r="J86" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>73.52941176470588</v>
-      </c>
-      <c r="L86" t="n">
-        <v>844.3</v>
+        <v>807</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>826.05</v>
-      </c>
-      <c r="N86" t="n">
-        <v>819.6666666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3935,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>42</v>
-      </c>
-      <c r="J87" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>68.96551724137932</v>
-      </c>
-      <c r="L87" t="n">
-        <v>849.3</v>
+        <v>807</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>829.15</v>
-      </c>
-      <c r="N87" t="n">
-        <v>821.5333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3976,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>44</v>
-      </c>
-      <c r="J88" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>70</v>
-      </c>
-      <c r="L88" t="n">
-        <v>853.5</v>
+        <v>807</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>832.3</v>
-      </c>
-      <c r="N88" t="n">
-        <v>823.5</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +4017,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>40</v>
-      </c>
-      <c r="J89" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>52.72727272727272</v>
-      </c>
-      <c r="L89" t="n">
-        <v>857.3</v>
+        <v>807</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>835.25</v>
-      </c>
-      <c r="N89" t="n">
-        <v>825.3666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4058,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>43</v>
-      </c>
-      <c r="J90" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>50</v>
-      </c>
-      <c r="L90" t="n">
-        <v>860.5</v>
+        <v>807</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>838.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>827.3666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4099,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>41</v>
-      </c>
-      <c r="J91" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>38.77551020408163</v>
-      </c>
-      <c r="L91" t="n">
-        <v>862.9</v>
+        <v>807</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>840.9</v>
-      </c>
-      <c r="N91" t="n">
-        <v>829.1333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4140,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>44</v>
-      </c>
-      <c r="J92" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>865.1</v>
+        <v>807</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>843.75</v>
-      </c>
-      <c r="N92" t="n">
-        <v>831</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4181,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>47</v>
-      </c>
-      <c r="J93" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L93" t="n">
-        <v>865.4</v>
+        <v>807</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>846.75</v>
-      </c>
-      <c r="N93" t="n">
-        <v>833.1666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4222,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>47</v>
-      </c>
-      <c r="J94" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L94" t="n">
-        <v>866.4</v>
+        <v>807</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>849.85</v>
-      </c>
-      <c r="N94" t="n">
-        <v>835.4333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4263,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L95" t="n">
-        <v>866.7</v>
+        <v>807</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>852.85</v>
-      </c>
-      <c r="N95" t="n">
-        <v>837.7</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4304,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>46</v>
-      </c>
-      <c r="J96" t="n">
-        <v>288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L96" t="n">
-        <v>867.1</v>
+        <v>807</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>855.7</v>
-      </c>
-      <c r="N96" t="n">
-        <v>839.7333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4345,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>51</v>
-      </c>
-      <c r="J97" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>868</v>
+        <v>807</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>858.65</v>
-      </c>
-      <c r="N97" t="n">
-        <v>842.1</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4386,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>53</v>
-      </c>
-      <c r="J98" t="n">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>68.42105263157895</v>
-      </c>
-      <c r="L98" t="n">
-        <v>868.9</v>
+        <v>807</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>861.2</v>
-      </c>
-      <c r="N98" t="n">
-        <v>844.5</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4427,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>53</v>
-      </c>
-      <c r="J99" t="n">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L99" t="n">
-        <v>870.2</v>
+        <v>807</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>863.75</v>
-      </c>
-      <c r="N99" t="n">
-        <v>846.9</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4468,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="L100" t="n">
-        <v>872</v>
+        <v>807</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>866.25</v>
-      </c>
-      <c r="N100" t="n">
-        <v>849.4666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4509,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>67</v>
-      </c>
-      <c r="J101" t="n">
-        <v>309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>92</v>
-      </c>
-      <c r="L101" t="n">
-        <v>874.6</v>
+        <v>807</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>868.75</v>
-      </c>
-      <c r="N101" t="n">
-        <v>852.1333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4550,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>55</v>
-      </c>
-      <c r="J102" t="n">
-        <v>321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L102" t="n">
-        <v>875.7</v>
+        <v>807</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>870.4</v>
-      </c>
-      <c r="N102" t="n">
-        <v>854.4</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4591,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>57</v>
-      </c>
-      <c r="J103" t="n">
-        <v>323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="L103" t="n">
-        <v>876.7</v>
+        <v>807</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>871.05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>856.7333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4632,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>55</v>
-      </c>
-      <c r="J104" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="L104" t="n">
-        <v>877.5</v>
+        <v>807</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>871.95</v>
-      </c>
-      <c r="N104" t="n">
-        <v>859.0666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4673,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>55</v>
-      </c>
-      <c r="J105" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>24.32432432432433</v>
-      </c>
-      <c r="L105" t="n">
-        <v>878.3</v>
+        <v>807</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>872.5</v>
-      </c>
-      <c r="N105" t="n">
-        <v>861.3333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4714,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>55</v>
-      </c>
-      <c r="J106" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L106" t="n">
-        <v>879.2</v>
+        <v>807</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>873.15</v>
-      </c>
-      <c r="N106" t="n">
-        <v>863.5333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4755,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>54</v>
-      </c>
-      <c r="J107" t="n">
-        <v>326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L107" t="n">
-        <v>879.5</v>
+        <v>807</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>873.75</v>
-      </c>
-      <c r="N107" t="n">
-        <v>865.6</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4796,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>47</v>
-      </c>
-      <c r="J108" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L108" t="n">
-        <v>878.9</v>
+        <v>807</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>873.9</v>
-      </c>
-      <c r="N108" t="n">
-        <v>867.1</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4837,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>52</v>
-      </c>
-      <c r="J109" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>-25.71428571428571</v>
-      </c>
-      <c r="L109" t="n">
-        <v>878.8</v>
+        <v>807</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>874.5</v>
-      </c>
-      <c r="N109" t="n">
-        <v>868.7666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4878,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>55</v>
-      </c>
-      <c r="J110" t="n">
-        <v>341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L110" t="n">
-        <v>878.2</v>
+        <v>807</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>875.1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>870.2333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4919,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>64</v>
-      </c>
-      <c r="J111" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L111" t="n">
-        <v>877.9</v>
+        <v>807</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>876.25</v>
-      </c>
-      <c r="N111" t="n">
-        <v>871.8</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4960,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>67</v>
-      </c>
-      <c r="J112" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L112" t="n">
-        <v>879.1</v>
+        <v>807</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>877.4</v>
-      </c>
-      <c r="N112" t="n">
-        <v>873.3</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +5001,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>69</v>
-      </c>
-      <c r="J113" t="n">
-        <v>355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L113" t="n">
-        <v>880.3</v>
+        <v>807</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>878.5</v>
-      </c>
-      <c r="N113" t="n">
-        <v>874.1333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +5042,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>66</v>
-      </c>
-      <c r="J114" t="n">
-        <v>358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L114" t="n">
-        <v>881.4</v>
+        <v>807</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>879.45</v>
-      </c>
-      <c r="N114" t="n">
-        <v>875.1</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +5083,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>71</v>
-      </c>
-      <c r="J115" t="n">
-        <v>363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="L115" t="n">
-        <v>883</v>
+        <v>807</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>880.65</v>
-      </c>
-      <c r="N115" t="n">
-        <v>876</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +5124,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>77</v>
-      </c>
-      <c r="J116" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>53.48837209302325</v>
-      </c>
-      <c r="L116" t="n">
-        <v>885.2</v>
+        <v>807</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>882.2</v>
-      </c>
-      <c r="N116" t="n">
-        <v>877.1666666666666</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +5165,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>85</v>
-      </c>
-      <c r="J117" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>86.36363636363636</v>
-      </c>
-      <c r="L117" t="n">
-        <v>888.3</v>
+        <v>807</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>883.9</v>
-      </c>
-      <c r="N117" t="n">
-        <v>878.6</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +5206,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>99</v>
-      </c>
-      <c r="J118" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>88.67924528301887</v>
-      </c>
-      <c r="L118" t="n">
-        <v>893.5</v>
+        <v>807</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>886.2</v>
-      </c>
-      <c r="N118" t="n">
-        <v>880.4333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5247,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>132</v>
-      </c>
-      <c r="J119" t="n">
-        <v>424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>92.77108433734939</v>
-      </c>
-      <c r="L119" t="n">
-        <v>901.5</v>
+        <v>807</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>890.15</v>
-      </c>
-      <c r="N119" t="n">
-        <v>883.5</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5288,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>137</v>
-      </c>
-      <c r="J120" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>92.40506329113924</v>
-      </c>
-      <c r="L120" t="n">
-        <v>909.7</v>
+        <v>807</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>893.95</v>
-      </c>
-      <c r="N120" t="n">
-        <v>886.6333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5329,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>144</v>
-      </c>
-      <c r="J121" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>92.77108433734939</v>
-      </c>
-      <c r="L121" t="n">
-        <v>917.7</v>
+        <v>807</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>897.8</v>
-      </c>
-      <c r="N121" t="n">
-        <v>890.0666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5370,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>144</v>
-      </c>
-      <c r="J122" t="n">
-        <v>436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>92.5925925925926</v>
-      </c>
-      <c r="L122" t="n">
-        <v>925.4</v>
+        <v>807</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>902.25</v>
-      </c>
-      <c r="N122" t="n">
-        <v>893.4</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,29 +5411,19 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>146</v>
-      </c>
-      <c r="J123" t="n">
-        <v>438</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>100</v>
-      </c>
-      <c r="L123" t="n">
-        <v>933.1</v>
+        <v>807</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>906.7</v>
-      </c>
-      <c r="N123" t="n">
-        <v>896.7</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
+        <v>1.195743494423792</v>
       </c>
     </row>
     <row r="124">
@@ -6568,28 +5452,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>142</v>
-      </c>
-      <c r="J124" t="n">
-        <v>442</v>
-      </c>
-      <c r="K124" t="n">
-        <v>89.87341772151899</v>
-      </c>
-      <c r="L124" t="n">
-        <v>940.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>911.05</v>
-      </c>
-      <c r="N124" t="n">
-        <v>899.8666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5487,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>112</v>
-      </c>
-      <c r="J125" t="n">
-        <v>472</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.98058252427185</v>
-      </c>
-      <c r="L125" t="n">
-        <v>944.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="N125" t="n">
-        <v>902.0333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5522,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>114</v>
-      </c>
-      <c r="J126" t="n">
-        <v>474</v>
-      </c>
-      <c r="K126" t="n">
-        <v>29.89690721649485</v>
-      </c>
-      <c r="L126" t="n">
-        <v>948.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>916.85</v>
-      </c>
-      <c r="N126" t="n">
-        <v>904.3</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5557,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>104</v>
-      </c>
-      <c r="J127" t="n">
-        <v>484</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5.376344086021505</v>
-      </c>
-      <c r="L127" t="n">
-        <v>950.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>919.35</v>
-      </c>
-      <c r="N127" t="n">
-        <v>906.0666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5592,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>104</v>
-      </c>
-      <c r="J128" t="n">
-        <v>484</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L128" t="n">
-        <v>950.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>922.2</v>
-      </c>
-      <c r="N128" t="n">
-        <v>907.7666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5627,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>102</v>
-      </c>
-      <c r="J129" t="n">
-        <v>486</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-61.40350877192983</v>
-      </c>
-      <c r="L129" t="n">
-        <v>947.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>924.7</v>
-      </c>
-      <c r="N129" t="n">
-        <v>909.4</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5662,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>107</v>
-      </c>
-      <c r="J130" t="n">
-        <v>491</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-67.27272727272727</v>
-      </c>
-      <c r="L130" t="n">
-        <v>944.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>927.3</v>
-      </c>
-      <c r="N130" t="n">
-        <v>910.9333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5697,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>102</v>
-      </c>
-      <c r="J131" t="n">
-        <v>496</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-70</v>
-      </c>
-      <c r="L131" t="n">
-        <v>940.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>929.2</v>
-      </c>
-      <c r="N131" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5732,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>91</v>
-      </c>
-      <c r="J132" t="n">
-        <v>507</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-79.71014492753623</v>
-      </c>
-      <c r="L132" t="n">
-        <v>935.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>930.4</v>
-      </c>
-      <c r="N132" t="n">
-        <v>913.3</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5767,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>91</v>
-      </c>
-      <c r="J133" t="n">
-        <v>507</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-78.46153846153847</v>
-      </c>
-      <c r="L133" t="n">
-        <v>929.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>931.5</v>
-      </c>
-      <c r="N133" t="n">
-        <v>914.4333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5802,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>90</v>
-      </c>
-      <c r="J134" t="n">
-        <v>508</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-61.11111111111111</v>
-      </c>
-      <c r="L134" t="n">
-        <v>924.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>932.7</v>
-      </c>
-      <c r="N134" t="n">
-        <v>915.6</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5837,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>93</v>
-      </c>
-      <c r="J135" t="n">
-        <v>511</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-56.75675675675676</v>
-      </c>
-      <c r="L135" t="n">
-        <v>922.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>933.8</v>
-      </c>
-      <c r="N135" t="n">
-        <v>916.8666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5872,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>80</v>
-      </c>
-      <c r="J136" t="n">
-        <v>524</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L136" t="n">
-        <v>919.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>933.95</v>
-      </c>
-      <c r="N136" t="n">
-        <v>917.7</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5907,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>122</v>
-      </c>
-      <c r="J137" t="n">
-        <v>566</v>
-      </c>
-      <c r="K137" t="n">
-        <v>21.95121951219512</v>
-      </c>
-      <c r="L137" t="n">
-        <v>921.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>935.8</v>
-      </c>
-      <c r="N137" t="n">
-        <v>919.9666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5942,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>104</v>
-      </c>
-      <c r="J138" t="n">
-        <v>584</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="L138" t="n">
-        <v>921.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>936.05</v>
-      </c>
-      <c r="N138" t="n">
-        <v>921.8666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5977,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>104</v>
-      </c>
-      <c r="J139" t="n">
-        <v>584</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L139" t="n">
-        <v>921.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>934.65</v>
-      </c>
-      <c r="N139" t="n">
-        <v>923.6</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +6012,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>102</v>
-      </c>
-      <c r="J140" t="n">
-        <v>586</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>920.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>932.9</v>
-      </c>
-      <c r="N140" t="n">
-        <v>925.1666666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +6047,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>105</v>
-      </c>
-      <c r="J141" t="n">
-        <v>589</v>
-      </c>
-      <c r="K141" t="n">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="L141" t="n">
-        <v>921.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>930.95</v>
-      </c>
-      <c r="N141" t="n">
-        <v>926.5333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +6082,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>106</v>
-      </c>
-      <c r="J142" t="n">
-        <v>590</v>
-      </c>
-      <c r="K142" t="n">
-        <v>18.07228915662651</v>
-      </c>
-      <c r="L142" t="n">
-        <v>922.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>929.05</v>
-      </c>
-      <c r="N142" t="n">
-        <v>927.8333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +6117,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>100</v>
-      </c>
-      <c r="J143" t="n">
-        <v>596</v>
-      </c>
-      <c r="K143" t="n">
-        <v>11.36363636363636</v>
-      </c>
-      <c r="L143" t="n">
-        <v>923.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>926.75</v>
-      </c>
-      <c r="N143" t="n">
-        <v>928.8666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +6152,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>100</v>
-      </c>
-      <c r="J144" t="n">
-        <v>596</v>
-      </c>
-      <c r="K144" t="n">
-        <v>8.235294117647058</v>
-      </c>
-      <c r="L144" t="n">
-        <v>924.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>924.65</v>
-      </c>
-      <c r="N144" t="n">
-        <v>930</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +6187,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>98</v>
-      </c>
-      <c r="J145" t="n">
-        <v>598</v>
-      </c>
-      <c r="K145" t="n">
-        <v>24.32432432432433</v>
-      </c>
-      <c r="L145" t="n">
-        <v>925.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>923.95</v>
-      </c>
-      <c r="N145" t="n">
-        <v>930.9</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +6222,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>82</v>
-      </c>
-      <c r="J146" t="n">
-        <v>614</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L146" t="n">
-        <v>925.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>922.35</v>
-      </c>
-      <c r="N146" t="n">
-        <v>931.0666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +6257,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>95</v>
-      </c>
-      <c r="J147" t="n">
-        <v>627</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-20.93023255813954</v>
-      </c>
-      <c r="L147" t="n">
-        <v>922.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>921.9</v>
-      </c>
-      <c r="N147" t="n">
-        <v>931.4</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +6292,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>90</v>
-      </c>
-      <c r="J148" t="n">
-        <v>632</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-29.16666666666667</v>
-      </c>
-      <c r="L148" t="n">
-        <v>921.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>921.2</v>
-      </c>
-      <c r="N148" t="n">
-        <v>931.1</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +6327,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>88</v>
-      </c>
-      <c r="J149" t="n">
-        <v>634</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-29.16666666666667</v>
-      </c>
-      <c r="L149" t="n">
-        <v>919.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>920.5</v>
-      </c>
-      <c r="N149" t="n">
-        <v>929.6333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +6362,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>77</v>
-      </c>
-      <c r="J150" t="n">
-        <v>645</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L150" t="n">
-        <v>917.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>919</v>
-      </c>
-      <c r="N150" t="n">
-        <v>927.6333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6397,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>82</v>
-      </c>
-      <c r="J151" t="n">
-        <v>650</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L151" t="n">
-        <v>914.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>918</v>
-      </c>
-      <c r="N151" t="n">
-        <v>925.5666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6432,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>85</v>
-      </c>
-      <c r="J152" t="n">
-        <v>653</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L152" t="n">
-        <v>912.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>917.7</v>
-      </c>
-      <c r="N152" t="n">
-        <v>923.6</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6467,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>88</v>
-      </c>
-      <c r="J153" t="n">
-        <v>656</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>911.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>917.55</v>
-      </c>
-      <c r="N153" t="n">
-        <v>921.6666666666666</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6502,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>90</v>
-      </c>
-      <c r="J154" t="n">
-        <v>658</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-13.33333333333333</v>
-      </c>
-      <c r="L154" t="n">
-        <v>910.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>917.55</v>
-      </c>
-      <c r="N154" t="n">
-        <v>919.9333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6537,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>91</v>
-      </c>
-      <c r="J155" t="n">
-        <v>659</v>
-      </c>
-      <c r="K155" t="n">
-        <v>20</v>
-      </c>
-      <c r="L155" t="n">
-        <v>909.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>917.45</v>
-      </c>
-      <c r="N155" t="n">
-        <v>919.2333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6572,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>95</v>
-      </c>
-      <c r="J156" t="n">
-        <v>663</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>911.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>918.2</v>
-      </c>
-      <c r="N156" t="n">
-        <v>918.6</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6607,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>85</v>
-      </c>
-      <c r="J157" t="n">
-        <v>673</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-12.19512195121951</v>
-      </c>
-      <c r="L157" t="n">
-        <v>910.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>916.35</v>
-      </c>
-      <c r="N157" t="n">
-        <v>917.9666666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6642,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>93</v>
-      </c>
-      <c r="J158" t="n">
-        <v>681</v>
-      </c>
-      <c r="K158" t="n">
-        <v>10.63829787234043</v>
-      </c>
-      <c r="L158" t="n">
-        <v>910.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>915.8</v>
-      </c>
-      <c r="N158" t="n">
-        <v>917.6</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6677,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>102</v>
-      </c>
-      <c r="J159" t="n">
-        <v>690</v>
-      </c>
-      <c r="K159" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L159" t="n">
-        <v>911.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>915.7</v>
-      </c>
-      <c r="N159" t="n">
-        <v>917.6</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6712,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>84</v>
-      </c>
-      <c r="J160" t="n">
-        <v>708</v>
-      </c>
-      <c r="K160" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="L160" t="n">
-        <v>912.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>914.8</v>
-      </c>
-      <c r="N160" t="n">
-        <v>916.8333333333334</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6747,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>94</v>
-      </c>
-      <c r="J161" t="n">
-        <v>718</v>
-      </c>
-      <c r="K161" t="n">
-        <v>13.84615384615385</v>
-      </c>
-      <c r="L161" t="n">
-        <v>913.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>914.25</v>
-      </c>
-      <c r="N161" t="n">
-        <v>916.5666666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6782,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>92</v>
-      </c>
-      <c r="J162" t="n">
-        <v>720</v>
-      </c>
-      <c r="K162" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L162" t="n">
-        <v>914.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>913.55</v>
-      </c>
-      <c r="N162" t="n">
-        <v>916.6</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6817,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>97</v>
-      </c>
-      <c r="J163" t="n">
-        <v>725</v>
-      </c>
-      <c r="K163" t="n">
-        <v>10.44776119402985</v>
-      </c>
-      <c r="L163" t="n">
-        <v>915.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="N163" t="n">
-        <v>916.8</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6852,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>96</v>
-      </c>
-      <c r="J164" t="n">
-        <v>726</v>
-      </c>
-      <c r="K164" t="n">
-        <v>7.462686567164178</v>
-      </c>
-      <c r="L164" t="n">
-        <v>915.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>913.2</v>
-      </c>
-      <c r="N164" t="n">
-        <v>917</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6887,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>91</v>
-      </c>
-      <c r="J165" t="n">
-        <v>731</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L165" t="n">
-        <v>915.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>912.85</v>
-      </c>
-      <c r="N165" t="n">
-        <v>916.9333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6922,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>90</v>
-      </c>
-      <c r="J166" t="n">
-        <v>732</v>
-      </c>
-      <c r="K166" t="n">
-        <v>8.474576271186439</v>
-      </c>
-      <c r="L166" t="n">
-        <v>915.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>913.25</v>
-      </c>
-      <c r="N166" t="n">
-        <v>917.2666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6957,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>84</v>
-      </c>
-      <c r="J167" t="n">
-        <v>738</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L167" t="n">
-        <v>915.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>912.7</v>
-      </c>
-      <c r="N167" t="n">
-        <v>916</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6992,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>83</v>
-      </c>
-      <c r="J168" t="n">
-        <v>739</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-38.77551020408163</v>
-      </c>
-      <c r="L168" t="n">
-        <v>914.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>912.35</v>
-      </c>
-      <c r="N168" t="n">
-        <v>915.3</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +7027,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>77</v>
-      </c>
-      <c r="J169" t="n">
-        <v>745</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L169" t="n">
-        <v>911.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>911.8</v>
-      </c>
-      <c r="N169" t="n">
-        <v>914.4</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +7062,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>77</v>
-      </c>
-      <c r="J170" t="n">
-        <v>745</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-62.96296296296296</v>
-      </c>
-      <c r="L170" t="n">
-        <v>911.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>911.8</v>
-      </c>
-      <c r="N170" t="n">
-        <v>913.5666666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +7097,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>74</v>
-      </c>
-      <c r="J171" t="n">
-        <v>748</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-64.28571428571429</v>
-      </c>
-      <c r="L171" t="n">
-        <v>909.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>911.4</v>
-      </c>
-      <c r="N171" t="n">
-        <v>912.5333333333333</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +7132,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>72</v>
-      </c>
-      <c r="J172" t="n">
-        <v>750</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L172" t="n">
-        <v>907.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>910.75</v>
-      </c>
-      <c r="N172" t="n">
-        <v>911.4</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +7167,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>72</v>
-      </c>
-      <c r="J173" t="n">
-        <v>750</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L173" t="n">
-        <v>904.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>909.95</v>
-      </c>
-      <c r="N173" t="n">
-        <v>910.4666666666667</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +7202,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>71</v>
-      </c>
-      <c r="J174" t="n">
-        <v>751</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L174" t="n">
-        <v>902.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>909</v>
-      </c>
-      <c r="N174" t="n">
-        <v>909.5</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +7237,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>95</v>
-      </c>
-      <c r="J175" t="n">
-        <v>775</v>
-      </c>
-      <c r="K175" t="n">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="L175" t="n">
-        <v>902.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>909.2</v>
-      </c>
-      <c r="N175" t="n">
-        <v>909.4</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +7272,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>80</v>
-      </c>
-      <c r="J176" t="n">
-        <v>790</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L176" t="n">
-        <v>901.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>908.45</v>
-      </c>
-      <c r="N176" t="n">
-        <v>909.3333333333334</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +7307,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>81</v>
-      </c>
-      <c r="J177" t="n">
-        <v>791</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-3.846153846153846</v>
-      </c>
-      <c r="L177" t="n">
-        <v>901.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>908.25</v>
-      </c>
-      <c r="N177" t="n">
-        <v>908.8666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +7342,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>80</v>
-      </c>
-      <c r="J178" t="n">
-        <v>792</v>
-      </c>
-      <c r="K178" t="n">
-        <v>6.382978723404255</v>
-      </c>
-      <c r="L178" t="n">
-        <v>900.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>907.6</v>
-      </c>
-      <c r="N178" t="n">
-        <v>908.5333333333333</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +7377,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>83</v>
-      </c>
-      <c r="J179" t="n">
-        <v>795</v>
-      </c>
-      <c r="K179" t="n">
-        <v>12</v>
-      </c>
-      <c r="L179" t="n">
-        <v>901.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>906.65</v>
-      </c>
-      <c r="N179" t="n">
-        <v>908.3666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +7412,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>73</v>
-      </c>
-      <c r="J180" t="n">
-        <v>805</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-1.754385964912281</v>
-      </c>
-      <c r="L180" t="n">
-        <v>901.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>906.1</v>
-      </c>
-      <c r="N180" t="n">
-        <v>908.2333333333333</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +7447,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>75</v>
-      </c>
-      <c r="J181" t="n">
-        <v>807</v>
-      </c>
-      <c r="K181" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L181" t="n">
-        <v>901.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>905.15</v>
-      </c>
-      <c r="N181" t="n">
-        <v>908</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +7482,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>82</v>
-      </c>
-      <c r="J182" t="n">
-        <v>814</v>
-      </c>
-      <c r="K182" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="L182" t="n">
-        <v>902.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>904.65</v>
-      </c>
-      <c r="N182" t="n">
-        <v>907.9</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +7517,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>73</v>
-      </c>
-      <c r="J183" t="n">
-        <v>823</v>
-      </c>
-      <c r="K183" t="n">
-        <v>2.777777777777778</v>
-      </c>
-      <c r="L183" t="n">
-        <v>902.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>903.45</v>
-      </c>
-      <c r="N183" t="n">
-        <v>907.4</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +7552,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>72</v>
-      </c>
-      <c r="J184" t="n">
-        <v>824</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-46.93877551020408</v>
-      </c>
-      <c r="L184" t="n">
-        <v>902.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>902.25</v>
-      </c>
-      <c r="N184" t="n">
-        <v>906.8</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +7587,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>67</v>
-      </c>
-      <c r="J185" t="n">
-        <v>829</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L185" t="n">
-        <v>899.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>901.05</v>
-      </c>
-      <c r="N185" t="n">
-        <v>906</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +7622,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>78</v>
-      </c>
-      <c r="J186" t="n">
-        <v>840</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-6.122448979591836</v>
-      </c>
-      <c r="L186" t="n">
-        <v>899.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>900.45</v>
-      </c>
-      <c r="N186" t="n">
-        <v>905.4333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +7657,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>63</v>
-      </c>
-      <c r="J187" t="n">
-        <v>855</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-26.98412698412698</v>
-      </c>
-      <c r="L187" t="n">
-        <v>897.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>899.4</v>
-      </c>
-      <c r="N187" t="n">
-        <v>904.7</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +7692,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>62</v>
-      </c>
-      <c r="J188" t="n">
-        <v>856</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-34.42622950819672</v>
-      </c>
-      <c r="L188" t="n">
-        <v>895.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>898.35</v>
-      </c>
-      <c r="N188" t="n">
-        <v>903.6666666666666</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +7727,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>67</v>
-      </c>
-      <c r="J189" t="n">
-        <v>861</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-10.71428571428571</v>
-      </c>
-      <c r="L189" t="n">
-        <v>894.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>897.85</v>
-      </c>
-      <c r="N189" t="n">
-        <v>902.5</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +7762,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>65</v>
-      </c>
-      <c r="J190" t="n">
-        <v>863</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-17.85714285714286</v>
-      </c>
-      <c r="L190" t="n">
-        <v>893.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>897.25</v>
-      </c>
-      <c r="N190" t="n">
-        <v>901.8666666666667</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +7797,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>63</v>
-      </c>
-      <c r="J191" t="n">
-        <v>865</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-37.25490196078432</v>
-      </c>
-      <c r="L191" t="n">
-        <v>892.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>896.7</v>
-      </c>
-      <c r="N191" t="n">
-        <v>900.8333333333334</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +7832,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>60</v>
-      </c>
-      <c r="J192" t="n">
-        <v>868</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-28.88888888888889</v>
-      </c>
-      <c r="L192" t="n">
-        <v>890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>896.1</v>
-      </c>
-      <c r="N192" t="n">
-        <v>899.7666666666667</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +7867,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>53</v>
-      </c>
-      <c r="J193" t="n">
-        <v>875</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-37.25490196078432</v>
-      </c>
-      <c r="L193" t="n">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>895.15</v>
-      </c>
-      <c r="N193" t="n">
-        <v>898.3</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +7902,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>62</v>
-      </c>
-      <c r="J194" t="n">
-        <v>884</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L194" t="n">
-        <v>887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>894.7</v>
-      </c>
-      <c r="N194" t="n">
-        <v>897.1666666666666</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,1099 +7937,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>58</v>
-      </c>
-      <c r="J195" t="n">
-        <v>888</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-41.66666666666667</v>
-      </c>
-      <c r="L195" t="n">
-        <v>886.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>892.85</v>
-      </c>
-      <c r="N195" t="n">
-        <v>896.0666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>878</v>
-      </c>
-      <c r="C196" t="n">
-        <v>882</v>
-      </c>
-      <c r="D196" t="n">
-        <v>882</v>
-      </c>
-      <c r="E196" t="n">
-        <v>878</v>
-      </c>
-      <c r="F196" t="n">
-        <v>815.8371</v>
-      </c>
-      <c r="G196" t="n">
-        <v>906.15</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>59</v>
-      </c>
-      <c r="J196" t="n">
-        <v>889</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L196" t="n">
-        <v>884.2</v>
-      </c>
-      <c r="M196" t="n">
-        <v>891.8</v>
-      </c>
-      <c r="N196" t="n">
-        <v>895.0333333333333</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>884</v>
-      </c>
-      <c r="C197" t="n">
-        <v>885</v>
-      </c>
-      <c r="D197" t="n">
-        <v>885</v>
-      </c>
-      <c r="E197" t="n">
-        <v>884</v>
-      </c>
-      <c r="F197" t="n">
-        <v>482.6921</v>
-      </c>
-      <c r="G197" t="n">
-        <v>905.15</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>62</v>
-      </c>
-      <c r="J197" t="n">
-        <v>892</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>884.1</v>
-      </c>
-      <c r="M197" t="n">
-        <v>890.85</v>
-      </c>
-      <c r="N197" t="n">
-        <v>894.3</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>885</v>
-      </c>
-      <c r="C198" t="n">
-        <v>882</v>
-      </c>
-      <c r="D198" t="n">
-        <v>892</v>
-      </c>
-      <c r="E198" t="n">
-        <v>882</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2073.8965</v>
-      </c>
-      <c r="G198" t="n">
-        <v>904.4</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>59</v>
-      </c>
-      <c r="J198" t="n">
-        <v>895</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-23.52941176470588</v>
-      </c>
-      <c r="L198" t="n">
-        <v>883.8</v>
-      </c>
-      <c r="M198" t="n">
-        <v>889.8</v>
-      </c>
-      <c r="N198" t="n">
-        <v>893.5</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>890</v>
-      </c>
-      <c r="C199" t="n">
-        <v>890</v>
-      </c>
-      <c r="D199" t="n">
-        <v>891</v>
-      </c>
-      <c r="E199" t="n">
-        <v>890</v>
-      </c>
-      <c r="F199" t="n">
-        <v>724.6998</v>
-      </c>
-      <c r="G199" t="n">
-        <v>903.7833333333333</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>67</v>
-      </c>
-      <c r="J199" t="n">
-        <v>903</v>
-      </c>
-      <c r="K199" t="n">
-        <v>5</v>
-      </c>
-      <c r="L199" t="n">
-        <v>883.8</v>
-      </c>
-      <c r="M199" t="n">
-        <v>889</v>
-      </c>
-      <c r="N199" t="n">
-        <v>893.1666666666666</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>892</v>
-      </c>
-      <c r="C200" t="n">
-        <v>890</v>
-      </c>
-      <c r="D200" t="n">
-        <v>892</v>
-      </c>
-      <c r="E200" t="n">
-        <v>890</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1053.697</v>
-      </c>
-      <c r="G200" t="n">
-        <v>903.2</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>67</v>
-      </c>
-      <c r="J200" t="n">
-        <v>903</v>
-      </c>
-      <c r="K200" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L200" t="n">
-        <v>884</v>
-      </c>
-      <c r="M200" t="n">
-        <v>888.7</v>
-      </c>
-      <c r="N200" t="n">
-        <v>892.8333333333334</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>890</v>
-      </c>
-      <c r="C201" t="n">
-        <v>890</v>
-      </c>
-      <c r="D201" t="n">
-        <v>890</v>
-      </c>
-      <c r="E201" t="n">
-        <v>890</v>
-      </c>
-      <c r="F201" t="n">
-        <v>263.1696</v>
-      </c>
-      <c r="G201" t="n">
-        <v>902.5666666666667</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>67</v>
-      </c>
-      <c r="J201" t="n">
-        <v>903</v>
-      </c>
-      <c r="K201" t="n">
-        <v>20</v>
-      </c>
-      <c r="L201" t="n">
-        <v>884.4</v>
-      </c>
-      <c r="M201" t="n">
-        <v>888.3</v>
-      </c>
-      <c r="N201" t="n">
-        <v>892.6</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>894</v>
-      </c>
-      <c r="C202" t="n">
-        <v>884</v>
-      </c>
-      <c r="D202" t="n">
-        <v>895</v>
-      </c>
-      <c r="E202" t="n">
-        <v>884</v>
-      </c>
-      <c r="F202" t="n">
-        <v>943.6801</v>
-      </c>
-      <c r="G202" t="n">
-        <v>901.8166666666667</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>61</v>
-      </c>
-      <c r="J202" t="n">
-        <v>909</v>
-      </c>
-      <c r="K202" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L202" t="n">
-        <v>884.5</v>
-      </c>
-      <c r="M202" t="n">
-        <v>887.25</v>
-      </c>
-      <c r="N202" t="n">
-        <v>892.2333333333333</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>897</v>
-      </c>
-      <c r="C203" t="n">
-        <v>897</v>
-      </c>
-      <c r="D203" t="n">
-        <v>897</v>
-      </c>
-      <c r="E203" t="n">
-        <v>897</v>
-      </c>
-      <c r="F203" t="n">
-        <v>19.4482</v>
-      </c>
-      <c r="G203" t="n">
-        <v>901.3833333333333</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>74</v>
-      </c>
-      <c r="J203" t="n">
-        <v>922</v>
-      </c>
-      <c r="K203" t="n">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="L203" t="n">
-        <v>886.6</v>
-      </c>
-      <c r="M203" t="n">
-        <v>887.3</v>
-      </c>
-      <c r="N203" t="n">
-        <v>892.3</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>897</v>
-      </c>
-      <c r="C204" t="n">
-        <v>897</v>
-      </c>
-      <c r="D204" t="n">
-        <v>897</v>
-      </c>
-      <c r="E204" t="n">
-        <v>897</v>
-      </c>
-      <c r="F204" t="n">
-        <v>12</v>
-      </c>
-      <c r="G204" t="n">
-        <v>900.95</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>74</v>
-      </c>
-      <c r="J204" t="n">
-        <v>922</v>
-      </c>
-      <c r="K204" t="n">
-        <v>47.05882352941176</v>
-      </c>
-      <c r="L204" t="n">
-        <v>887.8</v>
-      </c>
-      <c r="M204" t="n">
-        <v>887.4</v>
-      </c>
-      <c r="N204" t="n">
-        <v>892.4</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>891</v>
-      </c>
-      <c r="C205" t="n">
-        <v>890</v>
-      </c>
-      <c r="D205" t="n">
-        <v>891</v>
-      </c>
-      <c r="E205" t="n">
-        <v>890</v>
-      </c>
-      <c r="F205" t="n">
-        <v>924.9776000000001</v>
-      </c>
-      <c r="G205" t="n">
-        <v>900.4333333333333</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>67</v>
-      </c>
-      <c r="J205" t="n">
-        <v>929</v>
-      </c>
-      <c r="K205" t="n">
-        <v>20</v>
-      </c>
-      <c r="L205" t="n">
-        <v>888.7</v>
-      </c>
-      <c r="M205" t="n">
-        <v>887.4</v>
-      </c>
-      <c r="N205" t="n">
-        <v>891.4666666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>889</v>
-      </c>
-      <c r="C206" t="n">
-        <v>889</v>
-      </c>
-      <c r="D206" t="n">
-        <v>889</v>
-      </c>
-      <c r="E206" t="n">
-        <v>889</v>
-      </c>
-      <c r="F206" t="n">
-        <v>46.5316</v>
-      </c>
-      <c r="G206" t="n">
-        <v>900.1666666666666</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>66</v>
-      </c>
-      <c r="J206" t="n">
-        <v>930</v>
-      </c>
-      <c r="K206" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L206" t="n">
-        <v>889.4</v>
-      </c>
-      <c r="M206" t="n">
-        <v>886.8</v>
-      </c>
-      <c r="N206" t="n">
-        <v>891</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>890</v>
-      </c>
-      <c r="C207" t="n">
-        <v>890</v>
-      </c>
-      <c r="D207" t="n">
-        <v>890</v>
-      </c>
-      <c r="E207" t="n">
-        <v>890</v>
-      </c>
-      <c r="F207" t="n">
-        <v>322.8</v>
-      </c>
-      <c r="G207" t="n">
-        <v>899.7</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>67</v>
-      </c>
-      <c r="J207" t="n">
-        <v>931</v>
-      </c>
-      <c r="K207" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L207" t="n">
-        <v>889.9</v>
-      </c>
-      <c r="M207" t="n">
-        <v>887</v>
-      </c>
-      <c r="N207" t="n">
-        <v>890.5333333333333</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>887</v>
-      </c>
-      <c r="C208" t="n">
-        <v>890</v>
-      </c>
-      <c r="D208" t="n">
-        <v>890</v>
-      </c>
-      <c r="E208" t="n">
-        <v>887</v>
-      </c>
-      <c r="F208" t="n">
-        <v>692.9825</v>
-      </c>
-      <c r="G208" t="n">
-        <v>899.3166666666667</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>67</v>
-      </c>
-      <c r="J208" t="n">
-        <v>931</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0</v>
-      </c>
-      <c r="L208" t="n">
-        <v>890.7</v>
-      </c>
-      <c r="M208" t="n">
-        <v>887.25</v>
-      </c>
-      <c r="N208" t="n">
-        <v>890.1</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>889</v>
-      </c>
-      <c r="C209" t="n">
-        <v>888</v>
-      </c>
-      <c r="D209" t="n">
-        <v>889</v>
-      </c>
-      <c r="E209" t="n">
-        <v>888</v>
-      </c>
-      <c r="F209" t="n">
-        <v>675.8807</v>
-      </c>
-      <c r="G209" t="n">
-        <v>898.9333333333333</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>65</v>
-      </c>
-      <c r="J209" t="n">
-        <v>933</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L209" t="n">
-        <v>890.5</v>
-      </c>
-      <c r="M209" t="n">
-        <v>887.15</v>
-      </c>
-      <c r="N209" t="n">
-        <v>889.5</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>881</v>
-      </c>
-      <c r="C210" t="n">
-        <v>881</v>
-      </c>
-      <c r="D210" t="n">
-        <v>881</v>
-      </c>
-      <c r="E210" t="n">
-        <v>881</v>
-      </c>
-      <c r="F210" t="n">
-        <v>58.3852</v>
-      </c>
-      <c r="G210" t="n">
-        <v>898.6166666666667</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>58</v>
-      </c>
-      <c r="J210" t="n">
-        <v>940</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-24.32432432432433</v>
-      </c>
-      <c r="L210" t="n">
-        <v>889.6</v>
-      </c>
-      <c r="M210" t="n">
-        <v>886.8</v>
-      </c>
-      <c r="N210" t="n">
-        <v>889</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>883</v>
-      </c>
-      <c r="C211" t="n">
-        <v>883</v>
-      </c>
-      <c r="D211" t="n">
-        <v>883</v>
-      </c>
-      <c r="E211" t="n">
-        <v>883</v>
-      </c>
-      <c r="F211" t="n">
-        <v>80.1426</v>
-      </c>
-      <c r="G211" t="n">
-        <v>898.25</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>60</v>
-      </c>
-      <c r="J211" t="n">
-        <v>942</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L211" t="n">
-        <v>888.9</v>
-      </c>
-      <c r="M211" t="n">
-        <v>886.65</v>
-      </c>
-      <c r="N211" t="n">
-        <v>888.5</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>885</v>
-      </c>
-      <c r="C212" t="n">
-        <v>888</v>
-      </c>
-      <c r="D212" t="n">
-        <v>888</v>
-      </c>
-      <c r="E212" t="n">
-        <v>885</v>
-      </c>
-      <c r="F212" t="n">
-        <v>35.7268</v>
-      </c>
-      <c r="G212" t="n">
-        <v>897.9166666666666</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>65</v>
-      </c>
-      <c r="J212" t="n">
-        <v>947</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-36</v>
-      </c>
-      <c r="L212" t="n">
-        <v>889.3</v>
-      </c>
-      <c r="M212" t="n">
-        <v>886.9</v>
-      </c>
-      <c r="N212" t="n">
-        <v>887.9333333333333</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>888</v>
-      </c>
-      <c r="C213" t="n">
-        <v>895</v>
-      </c>
-      <c r="D213" t="n">
-        <v>895</v>
-      </c>
-      <c r="E213" t="n">
-        <v>888</v>
-      </c>
-      <c r="F213" t="n">
-        <v>11.1579</v>
-      </c>
-      <c r="G213" t="n">
-        <v>897.65</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>72</v>
-      </c>
-      <c r="J213" t="n">
-        <v>954</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-6.25</v>
-      </c>
-      <c r="L213" t="n">
-        <v>889.1</v>
-      </c>
-      <c r="M213" t="n">
-        <v>887.85</v>
-      </c>
-      <c r="N213" t="n">
-        <v>887.9</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>895</v>
-      </c>
-      <c r="C214" t="n">
-        <v>895</v>
-      </c>
-      <c r="D214" t="n">
-        <v>895</v>
-      </c>
-      <c r="E214" t="n">
-        <v>895</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2.2408</v>
-      </c>
-      <c r="G214" t="n">
-        <v>897.35</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>72</v>
-      </c>
-      <c r="J214" t="n">
-        <v>954</v>
-      </c>
-      <c r="K214" t="n">
-        <v>20</v>
-      </c>
-      <c r="L214" t="n">
-        <v>888.9</v>
-      </c>
-      <c r="M214" t="n">
-        <v>888.35</v>
-      </c>
-      <c r="N214" t="n">
-        <v>887.9</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>893</v>
-      </c>
-      <c r="C215" t="n">
-        <v>893</v>
-      </c>
-      <c r="D215" t="n">
-        <v>893</v>
-      </c>
-      <c r="E215" t="n">
-        <v>893</v>
-      </c>
-      <c r="F215" t="n">
-        <v>21</v>
-      </c>
-      <c r="G215" t="n">
-        <v>897</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>70</v>
-      </c>
-      <c r="J215" t="n">
-        <v>956</v>
-      </c>
-      <c r="K215" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L215" t="n">
-        <v>889.2</v>
-      </c>
-      <c r="M215" t="n">
-        <v>888.95</v>
-      </c>
-      <c r="N215" t="n">
-        <v>888</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>888</v>
-      </c>
-      <c r="C216" t="n">
-        <v>883</v>
-      </c>
-      <c r="D216" t="n">
-        <v>888</v>
-      </c>
-      <c r="E216" t="n">
-        <v>883</v>
-      </c>
-      <c r="F216" t="n">
-        <v>4</v>
-      </c>
-      <c r="G216" t="n">
-        <v>896.4166666666666</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>60</v>
-      </c>
-      <c r="J216" t="n">
-        <v>966</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L216" t="n">
-        <v>888.6</v>
-      </c>
-      <c r="M216" t="n">
-        <v>889</v>
-      </c>
-      <c r="N216" t="n">
-        <v>887.4</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -451,7 +451,7 @@
         <v>833.85</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,13 +486,17 @@
         <v>833.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>823</v>
+      </c>
+      <c r="K3" t="n">
+        <v>823</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -521,14 +525,22 @@
         <v>832.9333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>824</v>
+      </c>
+      <c r="K4" t="n">
+        <v>823</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,14 +568,22 @@
         <v>832.4833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>823</v>
+      </c>
+      <c r="K5" t="n">
+        <v>823</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -597,8 +617,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>823</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,14 +652,22 @@
         <v>831.55</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>823</v>
+      </c>
+      <c r="K7" t="n">
+        <v>823</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -667,8 +701,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>823</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,8 +742,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>823</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -737,8 +783,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>823</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,8 +824,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>823</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,8 +865,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>823</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +906,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>823</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,8 +947,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>823</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +988,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>823</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +1029,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>823</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1070,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>823</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1111,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>823</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1152,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>823</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>823</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>823</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1151,18 +1269,20 @@
         <v>822.7</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>807</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>807</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>823</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1317,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1231,20 +1351,18 @@
         <v>821.7666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>812</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1274,20 +1392,18 @@
         <v>821.25</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>810</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1317,16 +1433,14 @@
         <v>820.6833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>809</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1360,16 +1474,14 @@
         <v>820.05</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>805</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1403,16 +1515,14 @@
         <v>819.4333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>802</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1446,16 +1556,14 @@
         <v>818.7666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>802</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1489,16 +1597,14 @@
         <v>818.1833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>806</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1532,16 +1638,14 @@
         <v>817.85</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>805</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1575,16 +1679,14 @@
         <v>817.4</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>802</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1618,16 +1720,14 @@
         <v>816.9666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>806</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1661,16 +1761,14 @@
         <v>816.5833333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>803</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1704,16 +1802,14 @@
         <v>816.2166666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>802</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1747,16 +1843,14 @@
         <v>815.85</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>805</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1790,16 +1884,14 @@
         <v>815.55</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>803</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1833,16 +1925,14 @@
         <v>815.1833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>803</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1876,16 +1966,14 @@
         <v>814.8666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>801</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1919,16 +2007,14 @@
         <v>814.6333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>804</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1962,16 +2048,14 @@
         <v>814.3333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>806</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2005,16 +2089,14 @@
         <v>814.1833333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>803</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2048,16 +2130,14 @@
         <v>814.3</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>799</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2091,16 +2171,14 @@
         <v>813.9333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>802</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2134,16 +2212,14 @@
         <v>813.8166666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>809</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2177,16 +2253,14 @@
         <v>813.45</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>803</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2220,16 +2294,14 @@
         <v>813.1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>803</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2263,16 +2335,14 @@
         <v>812.75</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>803</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2306,16 +2376,14 @@
         <v>812.5833333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>811</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2349,16 +2417,14 @@
         <v>812.3666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>811</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2392,16 +2458,14 @@
         <v>812.2166666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>811</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2435,16 +2499,14 @@
         <v>812.1333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>814</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2478,16 +2540,14 @@
         <v>811.95</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>810</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2521,16 +2581,14 @@
         <v>811.8</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>812</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2564,16 +2622,14 @@
         <v>811.65</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>808</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2607,16 +2663,14 @@
         <v>811.4666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>814</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2650,16 +2704,14 @@
         <v>811.2166666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>809</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2693,16 +2745,14 @@
         <v>810.9666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>808</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2736,16 +2786,14 @@
         <v>810.6666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>812</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2779,16 +2827,14 @@
         <v>810.4166666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>808</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2822,16 +2868,14 @@
         <v>810.2666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>811</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2865,16 +2909,14 @@
         <v>810.0666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>811</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2908,16 +2950,14 @@
         <v>809.75</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>805</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2951,16 +2991,14 @@
         <v>809.4</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>802</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2994,16 +3032,14 @@
         <v>809.05</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>802</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3037,16 +3073,14 @@
         <v>808.8</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>808</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3080,16 +3114,14 @@
         <v>808.45</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>804</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3123,16 +3155,14 @@
         <v>808.1333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>804</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3166,16 +3196,14 @@
         <v>807.75</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>804</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3209,16 +3237,14 @@
         <v>807.6166666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>806</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3252,16 +3278,14 @@
         <v>807.5666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>810</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3295,16 +3319,14 @@
         <v>807.5333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>810</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3338,16 +3360,14 @@
         <v>807.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>810</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3381,16 +3401,14 @@
         <v>807.4333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>808</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3424,16 +3442,14 @@
         <v>807.4</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>810</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3467,16 +3483,14 @@
         <v>807.4</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>812</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3510,16 +3524,14 @@
         <v>807.45</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>815</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3553,16 +3565,14 @@
         <v>807.7</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>818</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3596,16 +3606,14 @@
         <v>807.95</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>825</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3639,16 +3647,14 @@
         <v>808.3666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>830</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3682,16 +3688,14 @@
         <v>808.8833333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>835</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3725,16 +3729,14 @@
         <v>809.5166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>840</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3775,7 +3777,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3816,7 +3818,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3857,7 +3859,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3898,7 +3900,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3939,7 +3941,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3980,7 +3982,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4021,7 +4023,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4062,7 +4064,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4103,7 +4105,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4144,7 +4146,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4185,7 +4187,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4226,7 +4228,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4267,7 +4269,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4308,7 +4310,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4349,7 +4351,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4390,7 +4392,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4431,7 +4433,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4472,7 +4474,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4513,7 +4515,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4554,7 +4556,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4595,7 +4597,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4636,7 +4638,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4677,7 +4679,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4718,7 +4720,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4759,7 +4761,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4800,7 +4802,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4841,7 +4843,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4882,7 +4884,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4923,7 +4925,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4964,7 +4966,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5005,7 +5007,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5046,7 +5048,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5087,7 +5089,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5128,7 +5130,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5169,7 +5171,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5210,7 +5212,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5251,7 +5253,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5292,7 +5294,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5333,7 +5335,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5370,19 +5372,19 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>1.169969623329283</v>
       </c>
     </row>
     <row r="123">
@@ -5414,16 +5416,10 @@
         <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>807</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>1.195743494423792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5487,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5522,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5557,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5592,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5627,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>

--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C2" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D2" t="n">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="E2" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F2" t="n">
-        <v>108.12</v>
+        <v>1954.0043</v>
       </c>
       <c r="G2" t="n">
-        <v>833.85</v>
+        <v>834.3333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C3" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D3" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E3" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F3" t="n">
-        <v>22.9302</v>
+        <v>108.12</v>
       </c>
       <c r="G3" t="n">
-        <v>833.4</v>
+        <v>833.85</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>823</v>
-      </c>
-      <c r="K3" t="n">
-        <v>823</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -507,40 +503,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C4" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D4" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E4" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F4" t="n">
-        <v>26.9305</v>
+        <v>22.9302</v>
       </c>
       <c r="G4" t="n">
-        <v>832.9333333333333</v>
+        <v>833.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>824</v>
-      </c>
-      <c r="K4" t="n">
-        <v>823</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,40 +538,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C5" t="n">
         <v>823</v>
       </c>
       <c r="D5" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E5" t="n">
         <v>823</v>
       </c>
       <c r="F5" t="n">
-        <v>1227.1752</v>
+        <v>26.9305</v>
       </c>
       <c r="G5" t="n">
-        <v>832.4833333333333</v>
+        <v>832.9333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>823</v>
-      </c>
-      <c r="K5" t="n">
-        <v>823</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -593,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C6" t="n">
         <v>823</v>
       </c>
       <c r="D6" t="n">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="E6" t="n">
         <v>823</v>
       </c>
       <c r="F6" t="n">
-        <v>1398.8845</v>
+        <v>1227.1752</v>
       </c>
       <c r="G6" t="n">
-        <v>832.0166666666667</v>
+        <v>832.4833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>823</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -634,40 +608,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C7" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D7" t="n">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="E7" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F7" t="n">
-        <v>1250.0007</v>
+        <v>1398.8845</v>
       </c>
       <c r="G7" t="n">
-        <v>831.55</v>
+        <v>832.0166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>823</v>
-      </c>
-      <c r="K7" t="n">
-        <v>823</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -677,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C8" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D8" t="n">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E8" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>1250.0007</v>
       </c>
       <c r="G8" t="n">
-        <v>831.0833333333334</v>
+        <v>831.55</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -701,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>823</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -718,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C9" t="n">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D9" t="n">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E9" t="n">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>830.6666666666666</v>
+        <v>831.0833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -742,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>823</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -759,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C10" t="n">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="D10" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E10" t="n">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="F10" t="n">
-        <v>9864.5281</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>830.15</v>
+        <v>830.6666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -783,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>823</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -800,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>826</v>
+      </c>
+      <c r="C11" t="n">
         <v>815</v>
       </c>
-      <c r="C11" t="n">
-        <v>813</v>
-      </c>
       <c r="D11" t="n">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="E11" t="n">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F11" t="n">
-        <v>2136.9591</v>
+        <v>9864.5281</v>
       </c>
       <c r="G11" t="n">
-        <v>829.4833333333333</v>
+        <v>830.15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -824,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>823</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -841,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C12" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D12" t="n">
+        <v>820</v>
+      </c>
+      <c r="E12" t="n">
         <v>813</v>
       </c>
-      <c r="E12" t="n">
-        <v>812</v>
-      </c>
       <c r="F12" t="n">
-        <v>816.73</v>
+        <v>2136.9591</v>
       </c>
       <c r="G12" t="n">
-        <v>828.75</v>
+        <v>829.4833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -865,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>823</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -888,16 +824,16 @@
         <v>812</v>
       </c>
       <c r="D13" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E13" t="n">
         <v>812</v>
       </c>
       <c r="F13" t="n">
-        <v>88.4085</v>
+        <v>816.73</v>
       </c>
       <c r="G13" t="n">
-        <v>828.0166666666667</v>
+        <v>828.75</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -906,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>823</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -923,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" t="n">
         <v>812</v>
       </c>
       <c r="D14" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E14" t="n">
         <v>812</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>88.4085</v>
       </c>
       <c r="G14" t="n">
-        <v>827.3166666666667</v>
+        <v>828.0166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -947,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>823</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -964,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C15" t="n">
         <v>812</v>
       </c>
       <c r="D15" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E15" t="n">
         <v>812</v>
       </c>
       <c r="F15" t="n">
-        <v>2270</v>
+        <v>120</v>
       </c>
       <c r="G15" t="n">
-        <v>826.6666666666666</v>
+        <v>827.3166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -988,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>823</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1005,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" t="n">
         <v>812</v>
       </c>
       <c r="D16" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E16" t="n">
         <v>812</v>
       </c>
       <c r="F16" t="n">
-        <v>301</v>
+        <v>2270</v>
       </c>
       <c r="G16" t="n">
-        <v>826.2833333333333</v>
+        <v>826.6666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1029,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>823</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1046,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C17" t="n">
         <v>812</v>
       </c>
       <c r="D17" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E17" t="n">
         <v>812</v>
       </c>
       <c r="F17" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="G17" t="n">
-        <v>825.7333333333333</v>
+        <v>826.2833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1070,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>823</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1090,19 +996,19 @@
         <v>812</v>
       </c>
       <c r="C18" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D18" t="n">
         <v>812</v>
       </c>
       <c r="E18" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F18" t="n">
-        <v>2234.5357</v>
+        <v>900</v>
       </c>
       <c r="G18" t="n">
-        <v>825.1333333333333</v>
+        <v>825.7333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1111,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>823</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1128,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C19" t="n">
         <v>810</v>
       </c>
       <c r="D19" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E19" t="n">
         <v>810</v>
       </c>
       <c r="F19" t="n">
-        <v>3241.6837</v>
+        <v>2234.5357</v>
       </c>
       <c r="G19" t="n">
-        <v>824.5666666666667</v>
+        <v>825.1333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1152,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>823</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1169,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C20" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D20" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E20" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F20" t="n">
-        <v>1431.9899</v>
+        <v>3241.6837</v>
       </c>
       <c r="G20" t="n">
-        <v>823.9166666666666</v>
+        <v>824.5666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1193,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>823</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1222,10 +1110,10 @@
         <v>809</v>
       </c>
       <c r="F21" t="n">
-        <v>3568.0101</v>
+        <v>1431.9899</v>
       </c>
       <c r="G21" t="n">
-        <v>823.3333333333334</v>
+        <v>823.9166666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1234,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>823</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1251,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C22" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D22" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E22" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F22" t="n">
-        <v>55.3301</v>
+        <v>3568.0101</v>
       </c>
       <c r="G22" t="n">
-        <v>822.7</v>
+        <v>823.3333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1275,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>823</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1292,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C23" t="n">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D23" t="n">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E23" t="n">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F23" t="n">
-        <v>1.6</v>
+        <v>55.3301</v>
       </c>
       <c r="G23" t="n">
-        <v>822.2166666666667</v>
+        <v>822.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1316,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>823</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1333,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C24" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D24" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E24" t="n">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="G24" t="n">
-        <v>821.7666666666667</v>
+        <v>822.2166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1357,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>823</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C25" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D25" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E25" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F25" t="n">
-        <v>2167.3145</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>821.25</v>
+        <v>821.7666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1398,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>823</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1415,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C26" t="n">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D26" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E26" t="n">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="F26" t="n">
-        <v>1778.0896</v>
+        <v>2167.3145</v>
       </c>
       <c r="G26" t="n">
-        <v>820.6833333333333</v>
+        <v>821.25</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1439,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>823</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1456,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>809</v>
+      </c>
+      <c r="C27" t="n">
         <v>805</v>
       </c>
-      <c r="C27" t="n">
-        <v>802</v>
-      </c>
       <c r="D27" t="n">
+        <v>809</v>
+      </c>
+      <c r="E27" t="n">
         <v>805</v>
       </c>
-      <c r="E27" t="n">
-        <v>802</v>
-      </c>
       <c r="F27" t="n">
-        <v>2641.0961</v>
+        <v>1778.0896</v>
       </c>
       <c r="G27" t="n">
-        <v>820.05</v>
+        <v>820.6833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1480,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>823</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1497,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C28" t="n">
         <v>802</v>
       </c>
       <c r="D28" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E28" t="n">
         <v>802</v>
       </c>
       <c r="F28" t="n">
-        <v>546.0623000000001</v>
+        <v>2641.0961</v>
       </c>
       <c r="G28" t="n">
-        <v>819.4333333333333</v>
+        <v>820.05</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1521,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>823</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1550,10 +1390,10 @@
         <v>802</v>
       </c>
       <c r="F29" t="n">
-        <v>72.7713</v>
+        <v>546.0623000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>818.7666666666667</v>
+        <v>819.4333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1562,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>823</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1579,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C30" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D30" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E30" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>72.7713</v>
       </c>
       <c r="G30" t="n">
-        <v>818.1833333333333</v>
+        <v>818.7666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1603,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>823</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1620,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C31" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D31" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E31" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>817.85</v>
+        <v>818.1833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1644,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>823</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1661,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C32" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D32" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E32" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>817.4</v>
+        <v>817.85</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1685,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>823</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1702,38 +1518,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C33" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D33" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E33" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>816.9666666666667</v>
+        <v>817.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>805</v>
+      </c>
       <c r="K33" t="n">
-        <v>823</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1743,36 +1557,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C34" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="D34" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E34" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G34" t="n">
-        <v>816.5833333333334</v>
+        <v>816.9666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>802</v>
+      </c>
       <c r="K34" t="n">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1784,36 +1600,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C35" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D35" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E35" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>816.2166666666667</v>
+        <v>816.5833333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>806</v>
+      </c>
       <c r="K35" t="n">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1825,38 +1643,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C36" t="n">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D36" t="n">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E36" t="n">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F36" t="n">
-        <v>127.9925</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>815.85</v>
+        <v>816.2166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>803</v>
+      </c>
       <c r="K36" t="n">
-        <v>823</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1866,36 +1682,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C37" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D37" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E37" t="n">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>127.9925</v>
       </c>
       <c r="G37" t="n">
-        <v>815.55</v>
+        <v>815.85</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>802</v>
+      </c>
       <c r="K37" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1910,19 +1728,19 @@
         <v>803</v>
       </c>
       <c r="C38" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D38" t="n">
         <v>803</v>
       </c>
       <c r="E38" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F38" t="n">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>815.1833333333333</v>
+        <v>815.55</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1932,11 +1750,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1948,36 +1766,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C39" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D39" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E39" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F39" t="n">
-        <v>164.5221</v>
+        <v>3000</v>
       </c>
       <c r="G39" t="n">
-        <v>814.8666666666667</v>
+        <v>815.1833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>803</v>
+      </c>
       <c r="K39" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -1989,32 +1809,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C40" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D40" t="n">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E40" t="n">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F40" t="n">
-        <v>167.7426</v>
+        <v>164.5221</v>
       </c>
       <c r="G40" t="n">
-        <v>814.6333333333333</v>
+        <v>814.8666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>799</v>
+      </c>
       <c r="K40" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2030,22 +1852,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C41" t="n">
         <v>806</v>
       </c>
       <c r="D41" t="n">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E41" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F41" t="n">
-        <v>1325.6244</v>
+        <v>167.7426</v>
       </c>
       <c r="G41" t="n">
-        <v>814.3333333333334</v>
+        <v>814.6333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2055,7 +1877,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2071,22 +1893,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C42" t="n">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D42" t="n">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E42" t="n">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>1325.6244</v>
       </c>
       <c r="G42" t="n">
-        <v>814.1833333333333</v>
+        <v>814.3333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2096,7 +1918,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2112,22 +1934,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C43" t="n">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D43" t="n">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E43" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G43" t="n">
-        <v>814.3</v>
+        <v>814.1833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2137,7 +1959,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2153,22 +1975,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C44" t="n">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="D44" t="n">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="E44" t="n">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F44" t="n">
-        <v>6043.4981</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>813.9333333333333</v>
+        <v>814.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2178,7 +2000,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2194,22 +2016,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C45" t="n">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="D45" t="n">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="E45" t="n">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F45" t="n">
-        <v>236</v>
+        <v>6043.4981</v>
       </c>
       <c r="G45" t="n">
-        <v>813.8166666666667</v>
+        <v>813.9333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2219,7 +2041,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2235,22 +2057,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C46" t="n">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="D46" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E46" t="n">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="F46" t="n">
-        <v>1389.7236</v>
+        <v>236</v>
       </c>
       <c r="G46" t="n">
-        <v>813.45</v>
+        <v>813.8166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2260,7 +2082,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2279,19 +2101,19 @@
         <v>803</v>
       </c>
       <c r="C47" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D47" t="n">
         <v>803</v>
       </c>
       <c r="E47" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F47" t="n">
-        <v>36</v>
+        <v>1389.7236</v>
       </c>
       <c r="G47" t="n">
-        <v>813.1</v>
+        <v>813.45</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2301,7 +2123,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2329,10 +2151,10 @@
         <v>803</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9872</v>
+        <v>36</v>
       </c>
       <c r="G48" t="n">
-        <v>812.75</v>
+        <v>813.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2342,7 +2164,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2358,22 +2180,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C49" t="n">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D49" t="n">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E49" t="n">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F49" t="n">
-        <v>281.2626</v>
+        <v>0.9872</v>
       </c>
       <c r="G49" t="n">
-        <v>812.5833333333334</v>
+        <v>812.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2383,7 +2205,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2411,10 +2233,10 @@
         <v>811</v>
       </c>
       <c r="F50" t="n">
-        <v>4.1479</v>
+        <v>281.2626</v>
       </c>
       <c r="G50" t="n">
-        <v>812.3666666666667</v>
+        <v>812.5833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2424,7 +2246,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2443,19 +2265,19 @@
         <v>811</v>
       </c>
       <c r="C51" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D51" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E51" t="n">
         <v>811</v>
       </c>
       <c r="F51" t="n">
-        <v>77</v>
+        <v>4.1479</v>
       </c>
       <c r="G51" t="n">
-        <v>812.2166666666667</v>
+        <v>812.3666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2465,7 +2287,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2481,22 +2303,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C52" t="n">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D52" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E52" t="n">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F52" t="n">
-        <v>1025.1076</v>
+        <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>812.1333333333333</v>
+        <v>812.2166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2506,7 +2328,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2522,22 +2344,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C53" t="n">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D53" t="n">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E53" t="n">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>1025.1076</v>
       </c>
       <c r="G53" t="n">
-        <v>811.95</v>
+        <v>812.1333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2547,7 +2369,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2563,22 +2385,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C54" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D54" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E54" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
-        <v>811.8</v>
+        <v>811.95</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2588,7 +2410,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2604,7 +2426,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C55" t="n">
         <v>812</v>
@@ -2613,13 +2435,13 @@
         <v>812</v>
       </c>
       <c r="E55" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F55" t="n">
-        <v>20.2407</v>
+        <v>40</v>
       </c>
       <c r="G55" t="n">
-        <v>811.65</v>
+        <v>811.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2629,7 +2451,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2645,22 +2467,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C56" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D56" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E56" t="n">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F56" t="n">
-        <v>2.753</v>
+        <v>20.2407</v>
       </c>
       <c r="G56" t="n">
-        <v>811.4666666666667</v>
+        <v>811.65</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2670,7 +2492,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2686,22 +2508,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C57" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="D57" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="E57" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F57" t="n">
-        <v>12.9937</v>
+        <v>2.753</v>
       </c>
       <c r="G57" t="n">
-        <v>811.2166666666667</v>
+        <v>811.4666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2711,7 +2533,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2727,22 +2549,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C58" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D58" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E58" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>12.9937</v>
       </c>
       <c r="G58" t="n">
-        <v>810.9666666666667</v>
+        <v>811.2166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2752,7 +2574,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2768,22 +2590,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C59" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D59" t="n">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E59" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F59" t="n">
-        <v>2252.2321</v>
+        <v>20</v>
       </c>
       <c r="G59" t="n">
-        <v>810.6666666666666</v>
+        <v>810.9666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2793,7 +2615,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2809,22 +2631,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C60" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D60" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E60" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F60" t="n">
-        <v>5547.2964</v>
+        <v>2252.2321</v>
       </c>
       <c r="G60" t="n">
-        <v>810.4166666666666</v>
+        <v>810.6666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2834,7 +2656,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2850,22 +2672,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C61" t="n">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D61" t="n">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E61" t="n">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F61" t="n">
-        <v>67.9999</v>
+        <v>5547.2964</v>
       </c>
       <c r="G61" t="n">
-        <v>810.2666666666667</v>
+        <v>810.4166666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2875,7 +2697,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2903,10 +2725,10 @@
         <v>811</v>
       </c>
       <c r="F62" t="n">
-        <v>191.3407</v>
+        <v>67.9999</v>
       </c>
       <c r="G62" t="n">
-        <v>810.0666666666667</v>
+        <v>810.2666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2916,7 +2738,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2932,22 +2754,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C63" t="n">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D63" t="n">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="E63" t="n">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="F63" t="n">
-        <v>65</v>
+        <v>191.3407</v>
       </c>
       <c r="G63" t="n">
-        <v>809.75</v>
+        <v>810.0666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2957,7 +2779,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2973,22 +2795,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C64" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D64" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E64" t="n">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="F64" t="n">
-        <v>10.476</v>
+        <v>65</v>
       </c>
       <c r="G64" t="n">
-        <v>809.4</v>
+        <v>809.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2998,7 +2820,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3026,10 +2848,10 @@
         <v>802</v>
       </c>
       <c r="F65" t="n">
-        <v>86.28</v>
+        <v>10.476</v>
       </c>
       <c r="G65" t="n">
-        <v>809.05</v>
+        <v>809.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3039,7 +2861,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3055,22 +2877,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C66" t="n">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D66" t="n">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E66" t="n">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>86.28</v>
       </c>
       <c r="G66" t="n">
-        <v>808.8</v>
+        <v>809.05</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3080,7 +2902,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3096,22 +2918,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C67" t="n">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D67" t="n">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="E67" t="n">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="F67" t="n">
-        <v>929.6836</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>808.45</v>
+        <v>808.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3121,7 +2943,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3140,19 +2962,19 @@
         <v>804</v>
       </c>
       <c r="C68" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D68" t="n">
         <v>804</v>
       </c>
       <c r="E68" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>929.6836</v>
       </c>
       <c r="G68" t="n">
-        <v>808.1333333333333</v>
+        <v>808.45</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3162,7 +2984,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3190,10 +3012,10 @@
         <v>804</v>
       </c>
       <c r="F69" t="n">
-        <v>83.2199</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>807.75</v>
+        <v>808.1333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3203,7 +3025,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3219,22 +3041,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C70" t="n">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D70" t="n">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E70" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F70" t="n">
-        <v>827.3977</v>
+        <v>83.2199</v>
       </c>
       <c r="G70" t="n">
-        <v>807.6166666666667</v>
+        <v>807.75</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3244,7 +3066,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3260,22 +3082,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C71" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D71" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E71" t="n">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F71" t="n">
-        <v>79.13</v>
+        <v>827.3977</v>
       </c>
       <c r="G71" t="n">
-        <v>807.5666666666667</v>
+        <v>807.6166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3285,7 +3107,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3313,10 +3135,10 @@
         <v>810</v>
       </c>
       <c r="F72" t="n">
-        <v>195.9459</v>
+        <v>79.13</v>
       </c>
       <c r="G72" t="n">
-        <v>807.5333333333333</v>
+        <v>807.5666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3326,7 +3148,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3354,10 +3176,10 @@
         <v>810</v>
       </c>
       <c r="F73" t="n">
-        <v>755.0328</v>
+        <v>195.9459</v>
       </c>
       <c r="G73" t="n">
-        <v>807.5</v>
+        <v>807.5333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3367,7 +3189,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3383,22 +3205,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C74" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D74" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E74" t="n">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F74" t="n">
-        <v>683.0804000000001</v>
+        <v>755.0328</v>
       </c>
       <c r="G74" t="n">
-        <v>807.4333333333333</v>
+        <v>807.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3408,7 +3230,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3424,22 +3246,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C75" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D75" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E75" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F75" t="n">
-        <v>48.682</v>
+        <v>683.0804000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>807.4</v>
+        <v>807.4333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3449,7 +3271,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3465,19 +3287,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C76" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D76" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E76" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F76" t="n">
-        <v>354.7</v>
+        <v>48.682</v>
       </c>
       <c r="G76" t="n">
         <v>807.4</v>
@@ -3490,7 +3312,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3506,22 +3328,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C77" t="n">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D77" t="n">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E77" t="n">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F77" t="n">
-        <v>348.123</v>
+        <v>354.7</v>
       </c>
       <c r="G77" t="n">
-        <v>807.45</v>
+        <v>807.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3531,7 +3353,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3547,22 +3369,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C78" t="n">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="D78" t="n">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E78" t="n">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F78" t="n">
-        <v>2049.0609</v>
+        <v>348.123</v>
       </c>
       <c r="G78" t="n">
-        <v>807.7</v>
+        <v>807.45</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3572,7 +3394,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3588,7 +3410,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C79" t="n">
         <v>825</v>
@@ -3597,13 +3419,13 @@
         <v>825</v>
       </c>
       <c r="E79" t="n">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F79" t="n">
-        <v>1554</v>
+        <v>2049.0609</v>
       </c>
       <c r="G79" t="n">
-        <v>807.95</v>
+        <v>807.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3613,7 +3435,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3629,22 +3451,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C80" t="n">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D80" t="n">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="E80" t="n">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F80" t="n">
-        <v>2180</v>
+        <v>1554</v>
       </c>
       <c r="G80" t="n">
-        <v>808.3666666666667</v>
+        <v>807.95</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3654,7 +3476,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3670,22 +3492,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C81" t="n">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D81" t="n">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E81" t="n">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F81" t="n">
-        <v>2509.0964</v>
+        <v>2180</v>
       </c>
       <c r="G81" t="n">
-        <v>808.8833333333333</v>
+        <v>808.3666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3695,7 +3517,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3711,22 +3533,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>835</v>
+      </c>
+      <c r="C82" t="n">
         <v>840</v>
       </c>
-      <c r="C82" t="n">
-        <v>845</v>
-      </c>
       <c r="D82" t="n">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E82" t="n">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F82" t="n">
-        <v>326.74</v>
+        <v>2509.0964</v>
       </c>
       <c r="G82" t="n">
-        <v>809.5166666666667</v>
+        <v>808.8833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3736,7 +3558,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3752,22 +3574,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>840</v>
+      </c>
+      <c r="C83" t="n">
         <v>845</v>
       </c>
-      <c r="C83" t="n">
-        <v>867</v>
-      </c>
       <c r="D83" t="n">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="E83" t="n">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F83" t="n">
-        <v>2171.3299</v>
+        <v>326.74</v>
       </c>
       <c r="G83" t="n">
-        <v>810.4</v>
+        <v>809.5166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3777,7 +3599,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3793,22 +3615,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="C84" t="n">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="D84" t="n">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="E84" t="n">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="F84" t="n">
-        <v>3531.6848</v>
+        <v>2171.3299</v>
       </c>
       <c r="G84" t="n">
-        <v>811.2</v>
+        <v>810.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3818,7 +3640,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3834,22 +3656,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C85" t="n">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D85" t="n">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E85" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F85" t="n">
-        <v>1560</v>
+        <v>3531.6848</v>
       </c>
       <c r="G85" t="n">
-        <v>812.1833333333333</v>
+        <v>811.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3859,7 +3681,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3875,22 +3697,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C86" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D86" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E86" t="n">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F86" t="n">
-        <v>278.0236</v>
+        <v>1560</v>
       </c>
       <c r="G86" t="n">
-        <v>813.1833333333333</v>
+        <v>812.1833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3900,7 +3722,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3928,10 +3750,10 @@
         <v>865</v>
       </c>
       <c r="F87" t="n">
-        <v>240</v>
+        <v>278.0236</v>
       </c>
       <c r="G87" t="n">
-        <v>814.2333333333333</v>
+        <v>813.1833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3941,7 +3763,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3960,19 +3782,19 @@
         <v>865</v>
       </c>
       <c r="C88" t="n">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D88" t="n">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E88" t="n">
         <v>865</v>
       </c>
       <c r="F88" t="n">
-        <v>1940.8233</v>
+        <v>240</v>
       </c>
       <c r="G88" t="n">
-        <v>815.3166666666667</v>
+        <v>814.2333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3982,7 +3804,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4001,19 +3823,19 @@
         <v>865</v>
       </c>
       <c r="C89" t="n">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D89" t="n">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E89" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F89" t="n">
-        <v>3523.1668</v>
+        <v>1940.8233</v>
       </c>
       <c r="G89" t="n">
-        <v>816.3333333333334</v>
+        <v>815.3166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4023,7 +3845,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4039,10 +3861,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C90" t="n">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D90" t="n">
         <v>869</v>
@@ -4051,10 +3873,10 @@
         <v>863</v>
       </c>
       <c r="F90" t="n">
-        <v>11496.2199</v>
+        <v>3523.1668</v>
       </c>
       <c r="G90" t="n">
-        <v>817.3333333333334</v>
+        <v>816.3333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4064,7 +3886,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4080,22 +3902,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>869</v>
+      </c>
+      <c r="C91" t="n">
         <v>866</v>
       </c>
-      <c r="C91" t="n">
-        <v>864</v>
-      </c>
       <c r="D91" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="E91" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F91" t="n">
-        <v>175.07</v>
+        <v>11496.2199</v>
       </c>
       <c r="G91" t="n">
-        <v>818.3166666666667</v>
+        <v>817.3333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4105,7 +3927,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4121,22 +3943,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C92" t="n">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D92" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E92" t="n">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F92" t="n">
-        <v>131</v>
+        <v>175.07</v>
       </c>
       <c r="G92" t="n">
-        <v>819.4</v>
+        <v>818.3166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4146,7 +3968,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4162,22 +3984,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C93" t="n">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D93" t="n">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E93" t="n">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F93" t="n">
-        <v>3153.81</v>
+        <v>131</v>
       </c>
       <c r="G93" t="n">
-        <v>820.4666666666667</v>
+        <v>819.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4187,7 +4009,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4203,22 +4025,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C94" t="n">
         <v>870</v>
       </c>
       <c r="D94" t="n">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E94" t="n">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F94" t="n">
-        <v>2883</v>
+        <v>3153.81</v>
       </c>
       <c r="G94" t="n">
-        <v>821.5833333333334</v>
+        <v>820.4666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4228,7 +4050,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4244,22 +4066,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C95" t="n">
         <v>870</v>
       </c>
       <c r="D95" t="n">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="E95" t="n">
         <v>870</v>
       </c>
       <c r="F95" t="n">
-        <v>1564.104797045454</v>
+        <v>2883</v>
       </c>
       <c r="G95" t="n">
-        <v>822.7166666666667</v>
+        <v>821.5833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4269,7 +4091,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4285,22 +4107,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C96" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D96" t="n">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E96" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F96" t="n">
-        <v>2475.7803</v>
+        <v>1564.104797045454</v>
       </c>
       <c r="G96" t="n">
-        <v>823.7833333333333</v>
+        <v>822.7166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4310,7 +4132,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4326,22 +4148,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C97" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D97" t="n">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E97" t="n">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="F97" t="n">
-        <v>297</v>
+        <v>2475.7803</v>
       </c>
       <c r="G97" t="n">
-        <v>824.9666666666667</v>
+        <v>823.7833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4351,7 +4173,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4370,19 +4192,19 @@
         <v>874</v>
       </c>
       <c r="C98" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D98" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E98" t="n">
         <v>874</v>
       </c>
       <c r="F98" t="n">
-        <v>2987.7516</v>
+        <v>297</v>
       </c>
       <c r="G98" t="n">
-        <v>826.25</v>
+        <v>824.9666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4392,7 +4214,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4408,7 +4230,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C99" t="n">
         <v>876</v>
@@ -4417,13 +4239,13 @@
         <v>876</v>
       </c>
       <c r="E99" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F99" t="n">
-        <v>860.7684</v>
+        <v>2987.7516</v>
       </c>
       <c r="G99" t="n">
-        <v>827.5166666666667</v>
+        <v>826.25</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4433,7 +4255,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4452,19 +4274,19 @@
         <v>876</v>
       </c>
       <c r="C100" t="n">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D100" t="n">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="E100" t="n">
         <v>876</v>
       </c>
       <c r="F100" t="n">
-        <v>708.4751</v>
+        <v>860.7684</v>
       </c>
       <c r="G100" t="n">
-        <v>828.8166666666667</v>
+        <v>827.5166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4474,7 +4296,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4490,22 +4312,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C101" t="n">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D101" t="n">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E101" t="n">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F101" t="n">
-        <v>825.6129</v>
+        <v>708.4751</v>
       </c>
       <c r="G101" t="n">
-        <v>830.2166666666667</v>
+        <v>828.8166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4515,7 +4337,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4531,22 +4353,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C102" t="n">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="D102" t="n">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="E102" t="n">
         <v>878</v>
       </c>
       <c r="F102" t="n">
-        <v>1.995</v>
+        <v>825.6129</v>
       </c>
       <c r="G102" t="n">
-        <v>831.2666666666667</v>
+        <v>830.2166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4556,7 +4378,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4572,22 +4394,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C103" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D103" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E103" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F103" t="n">
-        <v>31.7761</v>
+        <v>1.995</v>
       </c>
       <c r="G103" t="n">
-        <v>832.2</v>
+        <v>831.2666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4597,7 +4419,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4616,19 +4438,19 @@
         <v>880</v>
       </c>
       <c r="C104" t="n">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D104" t="n">
         <v>880</v>
       </c>
       <c r="E104" t="n">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F104" t="n">
-        <v>512.4953</v>
+        <v>31.7761</v>
       </c>
       <c r="G104" t="n">
-        <v>833.4833333333333</v>
+        <v>832.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4638,7 +4460,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4654,22 +4476,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C105" t="n">
         <v>878</v>
       </c>
       <c r="D105" t="n">
+        <v>880</v>
+      </c>
+      <c r="E105" t="n">
         <v>878</v>
       </c>
-      <c r="E105" t="n">
-        <v>876</v>
-      </c>
       <c r="F105" t="n">
-        <v>116.2667</v>
+        <v>512.4953</v>
       </c>
       <c r="G105" t="n">
-        <v>834.6333333333333</v>
+        <v>833.4833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4679,7 +4501,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4695,7 +4517,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C106" t="n">
         <v>878</v>
@@ -4704,13 +4526,13 @@
         <v>878</v>
       </c>
       <c r="E106" t="n">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F106" t="n">
-        <v>274.35</v>
+        <v>116.2667</v>
       </c>
       <c r="G106" t="n">
-        <v>835.9</v>
+        <v>834.6333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4720,7 +4542,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4736,22 +4558,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C107" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D107" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E107" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="F107" t="n">
-        <v>371.8756</v>
+        <v>274.35</v>
       </c>
       <c r="G107" t="n">
-        <v>837.1333333333333</v>
+        <v>835.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4761,7 +4583,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4777,22 +4599,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C108" t="n">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="D108" t="n">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E108" t="n">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="F108" t="n">
-        <v>1283.1318</v>
+        <v>371.8756</v>
       </c>
       <c r="G108" t="n">
-        <v>838.25</v>
+        <v>837.1333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4802,7 +4624,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4818,22 +4640,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C109" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D109" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E109" t="n">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F109" t="n">
-        <v>1355.9489</v>
+        <v>1283.1318</v>
       </c>
       <c r="G109" t="n">
-        <v>839.3166666666667</v>
+        <v>838.25</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4843,7 +4665,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4859,22 +4681,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C110" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D110" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E110" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F110" t="n">
-        <v>628.9367</v>
+        <v>1355.9489</v>
       </c>
       <c r="G110" t="n">
-        <v>840.4333333333333</v>
+        <v>839.3166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4884,7 +4706,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4900,22 +4722,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C111" t="n">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="D111" t="n">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="E111" t="n">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>628.9367</v>
       </c>
       <c r="G111" t="n">
-        <v>841.6833333333333</v>
+        <v>840.4333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4925,7 +4747,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4941,22 +4763,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C112" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D112" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E112" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F112" t="n">
-        <v>1345.8447</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>842.9666666666667</v>
+        <v>841.6833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4966,7 +4788,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4982,22 +4804,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>886</v>
+      </c>
+      <c r="C113" t="n">
         <v>890</v>
       </c>
-      <c r="C113" t="n">
-        <v>892</v>
-      </c>
       <c r="D113" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E113" t="n">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F113" t="n">
-        <v>5327.4365</v>
+        <v>1345.8447</v>
       </c>
       <c r="G113" t="n">
-        <v>844.3333333333334</v>
+        <v>842.9666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5007,7 +4829,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5023,22 +4845,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C114" t="n">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D114" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E114" t="n">
         <v>889</v>
       </c>
       <c r="F114" t="n">
-        <v>808.8404</v>
+        <v>5327.4365</v>
       </c>
       <c r="G114" t="n">
-        <v>845.6166666666667</v>
+        <v>844.3333333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5048,7 +4870,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5064,22 +4886,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C115" t="n">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D115" t="n">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E115" t="n">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F115" t="n">
-        <v>114</v>
+        <v>808.8404</v>
       </c>
       <c r="G115" t="n">
-        <v>846.9833333333333</v>
+        <v>845.6166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5089,7 +4911,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5105,22 +4927,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>890</v>
+      </c>
+      <c r="C116" t="n">
         <v>894</v>
       </c>
-      <c r="C116" t="n">
-        <v>900</v>
-      </c>
       <c r="D116" t="n">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E116" t="n">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F116" t="n">
-        <v>6239.8356</v>
+        <v>114</v>
       </c>
       <c r="G116" t="n">
-        <v>848.4166666666666</v>
+        <v>846.9833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5130,7 +4952,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5146,22 +4968,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>894</v>
+      </c>
+      <c r="C117" t="n">
         <v>900</v>
       </c>
-      <c r="C117" t="n">
-        <v>908</v>
-      </c>
       <c r="D117" t="n">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="E117" t="n">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F117" t="n">
-        <v>3849.961</v>
+        <v>6239.8356</v>
       </c>
       <c r="G117" t="n">
-        <v>850.0666666666667</v>
+        <v>848.4166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5171,7 +4993,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5187,22 +5009,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C118" t="n">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="D118" t="n">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="E118" t="n">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="F118" t="n">
-        <v>4267.7634</v>
+        <v>3849.961</v>
       </c>
       <c r="G118" t="n">
-        <v>851.9666666666667</v>
+        <v>850.0666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5212,7 +5034,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5228,22 +5050,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="C119" t="n">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="D119" t="n">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="E119" t="n">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="F119" t="n">
-        <v>11501.4706</v>
+        <v>4267.7634</v>
       </c>
       <c r="G119" t="n">
-        <v>854.4333333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5253,7 +5075,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5269,22 +5091,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>959</v>
+        <v>925</v>
       </c>
       <c r="C120" t="n">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D120" t="n">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E120" t="n">
-        <v>955</v>
+        <v>925</v>
       </c>
       <c r="F120" t="n">
-        <v>9502.975288958334</v>
+        <v>11501.4706</v>
       </c>
       <c r="G120" t="n">
-        <v>857</v>
+        <v>854.4333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5294,7 +5116,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5310,22 +5132,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C121" t="n">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D121" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E121" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F121" t="n">
-        <v>4461.3497</v>
+        <v>9502.975288958334</v>
       </c>
       <c r="G121" t="n">
-        <v>859.6</v>
+        <v>857</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5335,7 +5157,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5351,7 +5173,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C122" t="n">
         <v>967</v>
@@ -5360,13 +5182,13 @@
         <v>970</v>
       </c>
       <c r="E122" t="n">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F122" t="n">
-        <v>2953.263111041667</v>
+        <v>4461.3497</v>
       </c>
       <c r="G122" t="n">
-        <v>862.2</v>
+        <v>859.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5376,7 +5198,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5384,7 +5206,7 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1.169969623329283</v>
+        <v>1.199234122042341</v>
       </c>
     </row>
     <row r="123">
@@ -5392,10 +5214,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C123" t="n">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D123" t="n">
         <v>970</v>
@@ -5404,10 +5226,10 @@
         <v>963</v>
       </c>
       <c r="F123" t="n">
-        <v>2167.5403</v>
+        <v>2953.263111041667</v>
       </c>
       <c r="G123" t="n">
-        <v>864.9333333333333</v>
+        <v>862.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5427,28 +5249,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C124" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="D124" t="n">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E124" t="n">
-        <v>926</v>
+        <v>963</v>
       </c>
       <c r="F124" t="n">
-        <v>7875.0978</v>
+        <v>2167.5403</v>
       </c>
       <c r="G124" t="n">
-        <v>867.65</v>
+        <v>864.9333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5462,22 +5284,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>939</v>
+        <v>964</v>
       </c>
       <c r="C125" t="n">
-        <v>935</v>
+        <v>965</v>
       </c>
       <c r="D125" t="n">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="E125" t="n">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F125" t="n">
-        <v>244.8763</v>
+        <v>7875.0978</v>
       </c>
       <c r="G125" t="n">
-        <v>869.8666666666667</v>
+        <v>867.65</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5497,22 +5319,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>939</v>
+      </c>
+      <c r="C126" t="n">
         <v>935</v>
       </c>
-      <c r="C126" t="n">
-        <v>937</v>
-      </c>
       <c r="D126" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E126" t="n">
         <v>935</v>
       </c>
       <c r="F126" t="n">
-        <v>1298.3685</v>
+        <v>244.8763</v>
       </c>
       <c r="G126" t="n">
-        <v>872.0166666666667</v>
+        <v>869.8666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5532,28 +5354,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="C127" t="n">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D127" t="n">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="E127" t="n">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="F127" t="n">
-        <v>1351.5365</v>
+        <v>1298.3685</v>
       </c>
       <c r="G127" t="n">
-        <v>874.0833333333334</v>
+        <v>872.0166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5576,13 +5398,13 @@
         <v>927</v>
       </c>
       <c r="E128" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F128" t="n">
-        <v>527.654</v>
+        <v>1351.5365</v>
       </c>
       <c r="G128" t="n">
-        <v>876.1333333333333</v>
+        <v>874.0833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5605,19 +5427,19 @@
         <v>927</v>
       </c>
       <c r="C129" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D129" t="n">
         <v>927</v>
       </c>
       <c r="E129" t="n">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="F129" t="n">
-        <v>3111.995788958333</v>
+        <v>527.654</v>
       </c>
       <c r="G129" t="n">
-        <v>878.15</v>
+        <v>876.1333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5637,22 +5459,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C130" t="n">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D130" t="n">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E130" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F130" t="n">
-        <v>153.4559</v>
+        <v>3111.995788958333</v>
       </c>
       <c r="G130" t="n">
-        <v>880.2</v>
+        <v>878.15</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5672,22 +5494,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C131" t="n">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="D131" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E131" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F131" t="n">
-        <v>4319.7179</v>
+        <v>153.4559</v>
       </c>
       <c r="G131" t="n">
-        <v>882.1166666666667</v>
+        <v>880.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5707,22 +5529,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>929</v>
+      </c>
+      <c r="C132" t="n">
         <v>925</v>
       </c>
-      <c r="C132" t="n">
-        <v>914</v>
-      </c>
       <c r="D132" t="n">
+        <v>929</v>
+      </c>
+      <c r="E132" t="n">
         <v>925</v>
       </c>
-      <c r="E132" t="n">
-        <v>914</v>
-      </c>
       <c r="F132" t="n">
-        <v>2682.1515</v>
+        <v>4319.7179</v>
       </c>
       <c r="G132" t="n">
-        <v>883.85</v>
+        <v>882.1166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5742,22 +5564,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="C133" t="n">
         <v>914</v>
       </c>
       <c r="D133" t="n">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="E133" t="n">
         <v>914</v>
       </c>
       <c r="F133" t="n">
-        <v>31.1588</v>
+        <v>2682.1515</v>
       </c>
       <c r="G133" t="n">
-        <v>885.5833333333334</v>
+        <v>883.85</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5777,22 +5599,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C134" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D134" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E134" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="F134" t="n">
-        <v>581.6095</v>
+        <v>31.1588</v>
       </c>
       <c r="G134" t="n">
-        <v>887.3333333333334</v>
+        <v>885.5833333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5812,22 +5634,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>912</v>
+      </c>
+      <c r="C135" t="n">
         <v>913</v>
       </c>
-      <c r="C135" t="n">
-        <v>916</v>
-      </c>
       <c r="D135" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E135" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F135" t="n">
-        <v>77.0896</v>
+        <v>581.6095</v>
       </c>
       <c r="G135" t="n">
-        <v>889.1</v>
+        <v>887.3333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5847,22 +5669,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C136" t="n">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="D136" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E136" t="n">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="F136" t="n">
-        <v>2806.6197</v>
+        <v>77.0896</v>
       </c>
       <c r="G136" t="n">
-        <v>890.6166666666667</v>
+        <v>889.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5882,22 +5704,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="C137" t="n">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="D137" t="n">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="E137" t="n">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2806.6197</v>
       </c>
       <c r="G137" t="n">
-        <v>892.7833333333333</v>
+        <v>890.6166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5917,22 +5739,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C138" t="n">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="D138" t="n">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="E138" t="n">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="F138" t="n">
-        <v>220.7104</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>894.4833333333333</v>
+        <v>892.7833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5964,10 +5786,10 @@
         <v>927</v>
       </c>
       <c r="F139" t="n">
-        <v>95.7038</v>
+        <v>220.7104</v>
       </c>
       <c r="G139" t="n">
-        <v>896.1833333333333</v>
+        <v>894.4833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5987,22 +5809,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C140" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D140" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E140" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F140" t="n">
-        <v>102.9975</v>
+        <v>95.7038</v>
       </c>
       <c r="G140" t="n">
-        <v>897.7</v>
+        <v>896.1833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6022,22 +5844,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C141" t="n">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D141" t="n">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E141" t="n">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F141" t="n">
-        <v>285.4013</v>
+        <v>102.9975</v>
       </c>
       <c r="G141" t="n">
-        <v>899.1666666666666</v>
+        <v>897.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6057,22 +5879,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C142" t="n">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D142" t="n">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E142" t="n">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F142" t="n">
-        <v>122.8908</v>
+        <v>285.4013</v>
       </c>
       <c r="G142" t="n">
-        <v>900.5666666666667</v>
+        <v>899.1666666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6092,22 +5914,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C143" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="D143" t="n">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E143" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="F143" t="n">
-        <v>2092.6639</v>
+        <v>122.8908</v>
       </c>
       <c r="G143" t="n">
-        <v>901.5</v>
+        <v>900.5666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6127,22 +5949,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C144" t="n">
         <v>923</v>
       </c>
       <c r="D144" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E144" t="n">
         <v>923</v>
       </c>
       <c r="F144" t="n">
-        <v>565.2654</v>
+        <v>2092.6639</v>
       </c>
       <c r="G144" t="n">
-        <v>902.55</v>
+        <v>901.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6165,19 +5987,19 @@
         <v>923</v>
       </c>
       <c r="C145" t="n">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D145" t="n">
         <v>923</v>
       </c>
       <c r="E145" t="n">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F145" t="n">
-        <v>1115.8458</v>
+        <v>565.2654</v>
       </c>
       <c r="G145" t="n">
-        <v>903.45</v>
+        <v>902.55</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6197,22 +6019,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C146" t="n">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="D146" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E146" t="n">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="F146" t="n">
-        <v>6952.4902</v>
+        <v>1115.8458</v>
       </c>
       <c r="G146" t="n">
-        <v>904.1166666666667</v>
+        <v>903.45</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6232,22 +6054,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="C147" t="n">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="D147" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E147" t="n">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="F147" t="n">
-        <v>5826.7491</v>
+        <v>6952.4902</v>
       </c>
       <c r="G147" t="n">
-        <v>905</v>
+        <v>904.1166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6267,22 +6089,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>913</v>
+      </c>
+      <c r="C148" t="n">
         <v>918</v>
-      </c>
-      <c r="C148" t="n">
-        <v>913</v>
       </c>
       <c r="D148" t="n">
         <v>918</v>
       </c>
       <c r="E148" t="n">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F148" t="n">
-        <v>282.1056</v>
+        <v>5826.7491</v>
       </c>
       <c r="G148" t="n">
-        <v>905.7666666666667</v>
+        <v>905</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6302,22 +6124,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C149" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D149" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E149" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F149" t="n">
-        <v>1085.1916</v>
+        <v>282.1056</v>
       </c>
       <c r="G149" t="n">
-        <v>906.5666666666667</v>
+        <v>905.7666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6337,22 +6159,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="C150" t="n">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="D150" t="n">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="E150" t="n">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="F150" t="n">
-        <v>2429.1272</v>
+        <v>1085.1916</v>
       </c>
       <c r="G150" t="n">
-        <v>907.1333333333333</v>
+        <v>906.5666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6372,22 +6194,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C151" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D151" t="n">
         <v>905</v>
       </c>
       <c r="E151" t="n">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="F151" t="n">
-        <v>91.37</v>
+        <v>2429.1272</v>
       </c>
       <c r="G151" t="n">
-        <v>907.8166666666667</v>
+        <v>907.1333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6407,22 +6229,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C152" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D152" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E152" t="n">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F152" t="n">
-        <v>29.23</v>
+        <v>91.37</v>
       </c>
       <c r="G152" t="n">
-        <v>908.5</v>
+        <v>907.8166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6445,19 +6267,19 @@
         <v>908</v>
       </c>
       <c r="C153" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D153" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E153" t="n">
         <v>908</v>
       </c>
       <c r="F153" t="n">
-        <v>14.1868</v>
+        <v>29.23</v>
       </c>
       <c r="G153" t="n">
-        <v>909.1833333333333</v>
+        <v>908.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6477,22 +6299,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C154" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D154" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E154" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F154" t="n">
-        <v>820.2574</v>
+        <v>14.1868</v>
       </c>
       <c r="G154" t="n">
-        <v>909.9</v>
+        <v>909.1833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6512,22 +6334,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>909</v>
+      </c>
+      <c r="C155" t="n">
         <v>913</v>
       </c>
-      <c r="C155" t="n">
-        <v>914</v>
-      </c>
       <c r="D155" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E155" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F155" t="n">
-        <v>2362.8356</v>
+        <v>820.2574</v>
       </c>
       <c r="G155" t="n">
-        <v>910.6333333333333</v>
+        <v>909.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6547,22 +6369,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C156" t="n">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D156" t="n">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E156" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="F156" t="n">
-        <v>143</v>
+        <v>2362.8356</v>
       </c>
       <c r="G156" t="n">
-        <v>911.45</v>
+        <v>910.6333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6585,19 +6407,19 @@
         <v>918</v>
       </c>
       <c r="C157" t="n">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="D157" t="n">
         <v>918</v>
       </c>
       <c r="E157" t="n">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="F157" t="n">
-        <v>541.1265</v>
+        <v>143</v>
       </c>
       <c r="G157" t="n">
-        <v>912.0166666666667</v>
+        <v>911.45</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6617,22 +6439,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C158" t="n">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D158" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E158" t="n">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>541.1265</v>
       </c>
       <c r="G158" t="n">
-        <v>912.6833333333333</v>
+        <v>912.0166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6655,19 +6477,19 @@
         <v>916</v>
       </c>
       <c r="C159" t="n">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D159" t="n">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="E159" t="n">
         <v>916</v>
       </c>
       <c r="F159" t="n">
-        <v>1151.86</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>913.5</v>
+        <v>912.6833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6687,22 +6509,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>916</v>
+      </c>
+      <c r="C160" t="n">
         <v>925</v>
-      </c>
-      <c r="C160" t="n">
-        <v>907</v>
       </c>
       <c r="D160" t="n">
         <v>925</v>
       </c>
       <c r="E160" t="n">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="F160" t="n">
-        <v>1134.4993</v>
+        <v>1151.86</v>
       </c>
       <c r="G160" t="n">
-        <v>913.8833333333333</v>
+        <v>913.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6722,22 +6544,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="C161" t="n">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D161" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="E161" t="n">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F161" t="n">
-        <v>138.7</v>
+        <v>1134.4993</v>
       </c>
       <c r="G161" t="n">
-        <v>914.3333333333334</v>
+        <v>913.8833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6760,19 +6582,19 @@
         <v>914</v>
       </c>
       <c r="C162" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D162" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E162" t="n">
         <v>914</v>
       </c>
       <c r="F162" t="n">
-        <v>700.9446</v>
+        <v>138.7</v>
       </c>
       <c r="G162" t="n">
-        <v>914.95</v>
+        <v>914.3333333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6792,22 +6614,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C163" t="n">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D163" t="n">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="E163" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F163" t="n">
-        <v>1036.7008</v>
+        <v>700.9446</v>
       </c>
       <c r="G163" t="n">
-        <v>915.6166666666667</v>
+        <v>914.95</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6827,22 +6649,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C164" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D164" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E164" t="n">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F164" t="n">
-        <v>612.376</v>
+        <v>1036.7008</v>
       </c>
       <c r="G164" t="n">
-        <v>916.3</v>
+        <v>915.6166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6862,22 +6684,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C165" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D165" t="n">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="E165" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="F165" t="n">
-        <v>541.0092</v>
+        <v>612.376</v>
       </c>
       <c r="G165" t="n">
-        <v>916.9</v>
+        <v>916.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6900,19 +6722,19 @@
         <v>914</v>
       </c>
       <c r="C166" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D166" t="n">
+        <v>915</v>
+      </c>
+      <c r="E166" t="n">
         <v>914</v>
       </c>
-      <c r="E166" t="n">
-        <v>913</v>
-      </c>
       <c r="F166" t="n">
-        <v>197.4856</v>
+        <v>541.0092</v>
       </c>
       <c r="G166" t="n">
-        <v>917.4833333333333</v>
+        <v>916.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6932,22 +6754,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="C167" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="D167" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="E167" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="F167" t="n">
-        <v>228.2264</v>
+        <v>197.4856</v>
       </c>
       <c r="G167" t="n">
-        <v>917.9833333333333</v>
+        <v>917.4833333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6970,19 +6792,19 @@
         <v>907</v>
       </c>
       <c r="C168" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D168" t="n">
         <v>907</v>
       </c>
       <c r="E168" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F168" t="n">
-        <v>641.5349</v>
+        <v>228.2264</v>
       </c>
       <c r="G168" t="n">
-        <v>918.5833333333334</v>
+        <v>917.9833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7002,22 +6824,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C169" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="D169" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E169" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F169" t="n">
-        <v>928.3806</v>
+        <v>641.5349</v>
       </c>
       <c r="G169" t="n">
-        <v>919</v>
+        <v>918.5833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7037,22 +6859,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C170" t="n">
         <v>900</v>
       </c>
       <c r="D170" t="n">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E170" t="n">
         <v>900</v>
       </c>
       <c r="F170" t="n">
-        <v>358.7631</v>
+        <v>928.3806</v>
       </c>
       <c r="G170" t="n">
-        <v>919.3666666666667</v>
+        <v>919</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7075,19 +6897,19 @@
         <v>900</v>
       </c>
       <c r="C171" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D171" t="n">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="E171" t="n">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="F171" t="n">
-        <v>17195.1416</v>
+        <v>358.7631</v>
       </c>
       <c r="G171" t="n">
-        <v>919.5333333333333</v>
+        <v>919.3666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7107,22 +6929,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>900</v>
+      </c>
+      <c r="C172" t="n">
         <v>897</v>
       </c>
-      <c r="C172" t="n">
-        <v>895</v>
-      </c>
       <c r="D172" t="n">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="E172" t="n">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="F172" t="n">
-        <v>6913.4091</v>
+        <v>17195.1416</v>
       </c>
       <c r="G172" t="n">
-        <v>919.6166666666667</v>
+        <v>919.5333333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7142,22 +6964,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C173" t="n">
         <v>895</v>
       </c>
       <c r="D173" t="n">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E173" t="n">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F173" t="n">
-        <v>284</v>
+        <v>6913.4091</v>
       </c>
       <c r="G173" t="n">
-        <v>919.6666666666666</v>
+        <v>919.6166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7177,22 +6999,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>896</v>
+      </c>
+      <c r="C174" t="n">
         <v>895</v>
-      </c>
-      <c r="C174" t="n">
-        <v>894</v>
       </c>
       <c r="D174" t="n">
         <v>896</v>
       </c>
       <c r="E174" t="n">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="F174" t="n">
-        <v>7489.98</v>
+        <v>284</v>
       </c>
       <c r="G174" t="n">
-        <v>919.75</v>
+        <v>919.6666666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7212,22 +7034,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="C175" t="n">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="D175" t="n">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="E175" t="n">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F175" t="n">
-        <v>4105.299</v>
+        <v>7489.98</v>
       </c>
       <c r="G175" t="n">
-        <v>920.15</v>
+        <v>919.75</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7247,22 +7069,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="C176" t="n">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="D176" t="n">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="E176" t="n">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="F176" t="n">
-        <v>150.3277</v>
+        <v>4105.299</v>
       </c>
       <c r="G176" t="n">
-        <v>920.2</v>
+        <v>920.15</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7282,22 +7104,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C177" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D177" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E177" t="n">
         <v>903</v>
       </c>
       <c r="F177" t="n">
-        <v>1512.0973</v>
+        <v>150.3277</v>
       </c>
       <c r="G177" t="n">
-        <v>920.1333333333333</v>
+        <v>920.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7317,22 +7139,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C178" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D178" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E178" t="n">
         <v>903</v>
       </c>
       <c r="F178" t="n">
-        <v>20.64</v>
+        <v>1512.0973</v>
       </c>
       <c r="G178" t="n">
-        <v>919.8166666666667</v>
+        <v>920.1333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7352,22 +7174,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C179" t="n">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D179" t="n">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E179" t="n">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>20.64</v>
       </c>
       <c r="G179" t="n">
-        <v>919</v>
+        <v>919.8166666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7387,22 +7209,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="C180" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D180" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="E180" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>917.9333333333333</v>
+        <v>919</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7422,22 +7244,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C181" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D181" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E181" t="n">
         <v>896</v>
       </c>
       <c r="F181" t="n">
-        <v>650.223</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>916.7833333333333</v>
+        <v>917.9333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7457,22 +7279,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>897</v>
+      </c>
+      <c r="C182" t="n">
         <v>898</v>
       </c>
-      <c r="C182" t="n">
-        <v>905</v>
-      </c>
       <c r="D182" t="n">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E182" t="n">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F182" t="n">
-        <v>812.3425</v>
+        <v>650.223</v>
       </c>
       <c r="G182" t="n">
-        <v>915.75</v>
+        <v>916.7833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7492,22 +7314,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C183" t="n">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="D183" t="n">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="E183" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F183" t="n">
-        <v>192.0817</v>
+        <v>812.3425</v>
       </c>
       <c r="G183" t="n">
-        <v>914.5333333333333</v>
+        <v>915.75</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7527,22 +7349,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>897</v>
+      </c>
+      <c r="C184" t="n">
         <v>896</v>
       </c>
-      <c r="C184" t="n">
-        <v>895</v>
-      </c>
       <c r="D184" t="n">
+        <v>897</v>
+      </c>
+      <c r="E184" t="n">
         <v>896</v>
       </c>
-      <c r="E184" t="n">
-        <v>895</v>
-      </c>
       <c r="F184" t="n">
-        <v>562.0748</v>
+        <v>192.0817</v>
       </c>
       <c r="G184" t="n">
-        <v>913.3666666666667</v>
+        <v>914.5333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7562,22 +7384,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C185" t="n">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="D185" t="n">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E185" t="n">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="F185" t="n">
-        <v>1669.4901</v>
+        <v>562.0748</v>
       </c>
       <c r="G185" t="n">
-        <v>912.6166666666667</v>
+        <v>913.3666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7597,22 +7419,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="C186" t="n">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="D186" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E186" t="n">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>1669.4901</v>
       </c>
       <c r="G186" t="n">
-        <v>912.0166666666667</v>
+        <v>912.6166666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7632,22 +7454,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="C187" t="n">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="D187" t="n">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="E187" t="n">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="F187" t="n">
-        <v>1090.3258</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>911.3333333333334</v>
+        <v>912.0166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7667,22 +7489,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>888</v>
+      </c>
+      <c r="C188" t="n">
         <v>886</v>
       </c>
-      <c r="C188" t="n">
-        <v>885</v>
-      </c>
       <c r="D188" t="n">
+        <v>888</v>
+      </c>
+      <c r="E188" t="n">
         <v>886</v>
       </c>
-      <c r="E188" t="n">
-        <v>885</v>
-      </c>
       <c r="F188" t="n">
-        <v>3598.4054</v>
+        <v>1090.3258</v>
       </c>
       <c r="G188" t="n">
-        <v>910.6333333333333</v>
+        <v>911.3333333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7702,22 +7524,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C189" t="n">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="D189" t="n">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E189" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F189" t="n">
-        <v>510.3825</v>
+        <v>3598.4054</v>
       </c>
       <c r="G189" t="n">
-        <v>910.05</v>
+        <v>910.6333333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7737,22 +7559,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C190" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D190" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E190" t="n">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F190" t="n">
-        <v>181.1835</v>
+        <v>510.3825</v>
       </c>
       <c r="G190" t="n">
-        <v>909.35</v>
+        <v>910.05</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7772,22 +7594,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C191" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D191" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E191" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F191" t="n">
-        <v>170.7912</v>
+        <v>181.1835</v>
       </c>
       <c r="G191" t="n">
-        <v>908.7</v>
+        <v>909.35</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7807,22 +7629,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>896</v>
+      </c>
+      <c r="C192" t="n">
         <v>886</v>
       </c>
-      <c r="C192" t="n">
-        <v>883</v>
-      </c>
       <c r="D192" t="n">
+        <v>896</v>
+      </c>
+      <c r="E192" t="n">
         <v>886</v>
       </c>
-      <c r="E192" t="n">
-        <v>883</v>
-      </c>
       <c r="F192" t="n">
-        <v>283.9909</v>
+        <v>170.7912</v>
       </c>
       <c r="G192" t="n">
-        <v>908.1833333333333</v>
+        <v>908.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7842,22 +7664,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>886</v>
+      </c>
+      <c r="C193" t="n">
         <v>883</v>
       </c>
-      <c r="C193" t="n">
-        <v>876</v>
-      </c>
       <c r="D193" t="n">
+        <v>886</v>
+      </c>
+      <c r="E193" t="n">
         <v>883</v>
       </c>
-      <c r="E193" t="n">
-        <v>876</v>
-      </c>
       <c r="F193" t="n">
-        <v>1025.8389</v>
+        <v>283.9909</v>
       </c>
       <c r="G193" t="n">
-        <v>907.55</v>
+        <v>908.1833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7877,22 +7699,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C194" t="n">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="D194" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E194" t="n">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F194" t="n">
-        <v>16.1031</v>
+        <v>1025.8389</v>
       </c>
       <c r="G194" t="n">
-        <v>907.0833333333334</v>
+        <v>907.55</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7912,22 +7734,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C195" t="n">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D195" t="n">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E195" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F195" t="n">
-        <v>375.11</v>
+        <v>16.1031</v>
       </c>
       <c r="G195" t="n">
-        <v>906.5</v>
+        <v>907.0833333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7942,6 +7764,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>881</v>
+      </c>
+      <c r="C196" t="n">
+        <v>881</v>
+      </c>
+      <c r="D196" t="n">
+        <v>881</v>
+      </c>
+      <c r="E196" t="n">
+        <v>878</v>
+      </c>
+      <c r="F196" t="n">
+        <v>375.11</v>
+      </c>
+      <c r="G196" t="n">
+        <v>906.5</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1954.0043</v>
       </c>
       <c r="G2" t="n">
+        <v>822.2</v>
+      </c>
+      <c r="H2" t="n">
         <v>834.3333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>108.12</v>
       </c>
       <c r="G3" t="n">
+        <v>822.1333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>833.85</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>22.9302</v>
       </c>
       <c r="G4" t="n">
+        <v>822.1333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>833.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>26.9305</v>
       </c>
       <c r="G5" t="n">
+        <v>822.2666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>832.9333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1227.1752</v>
       </c>
       <c r="G6" t="n">
+        <v>822.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>832.4833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1398.8845</v>
       </c>
       <c r="G7" t="n">
+        <v>822.3333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>832.0166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1250.0007</v>
       </c>
       <c r="G8" t="n">
+        <v>822.7333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>831.55</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>822.8666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>831.0833333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>823.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>830.6666666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>9864.5281</v>
       </c>
       <c r="G11" t="n">
+        <v>822.8666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>830.15</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2136.9591</v>
       </c>
       <c r="G12" t="n">
+        <v>822.0666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>829.4833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>816.73</v>
       </c>
       <c r="G13" t="n">
+        <v>821.2666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>828.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>88.4085</v>
       </c>
       <c r="G14" t="n">
+        <v>820.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>828.0166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>120</v>
       </c>
       <c r="G15" t="n">
+        <v>819.6666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>827.3166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2270</v>
       </c>
       <c r="G16" t="n">
+        <v>819.0666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>826.6666666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>301</v>
       </c>
       <c r="G17" t="n">
+        <v>818.5333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>826.2833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>900</v>
       </c>
       <c r="G18" t="n">
+        <v>817.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>825.7333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2234.5357</v>
       </c>
       <c r="G19" t="n">
+        <v>816.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>825.1333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>3241.6837</v>
       </c>
       <c r="G20" t="n">
+        <v>816</v>
+      </c>
+      <c r="H20" t="n">
         <v>824.5666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1431.9899</v>
       </c>
       <c r="G21" t="n">
+        <v>815.0666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>823.9166666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3568.0101</v>
       </c>
       <c r="G22" t="n">
+        <v>814.1333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>823.3333333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>55.3301</v>
       </c>
       <c r="G23" t="n">
+        <v>813</v>
+      </c>
+      <c r="H23" t="n">
         <v>822.7</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1.6</v>
       </c>
       <c r="G24" t="n">
+        <v>812.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>822.2166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>4</v>
       </c>
       <c r="G25" t="n">
+        <v>811.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>821.7666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>2167.3145</v>
       </c>
       <c r="G26" t="n">
+        <v>810.9333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>821.25</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1778.0896</v>
       </c>
       <c r="G27" t="n">
+        <v>810.4</v>
+      </c>
+      <c r="H27" t="n">
         <v>820.6833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2641.0961</v>
       </c>
       <c r="G28" t="n">
+        <v>809.7333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>820.05</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>546.0623000000001</v>
       </c>
       <c r="G29" t="n">
+        <v>809.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>819.4333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>72.7713</v>
       </c>
       <c r="G30" t="n">
+        <v>808.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>818.7666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>5</v>
       </c>
       <c r="G31" t="n">
+        <v>808</v>
+      </c>
+      <c r="H31" t="n">
         <v>818.1833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
+        <v>807.5333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>817.85</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,22 +1631,21 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
+        <v>806.8666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>817.4</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>805</v>
-      </c>
-      <c r="K33" t="n">
-        <v>805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1572,26 +1669,21 @@
         <v>500</v>
       </c>
       <c r="G34" t="n">
+        <v>806.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>816.9666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>802</v>
-      </c>
-      <c r="K34" t="n">
-        <v>805</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1615,26 +1707,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>806.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>816.5833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>806</v>
-      </c>
-      <c r="K35" t="n">
-        <v>805</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,22 +1745,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>805.6666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>816.2166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>803</v>
-      </c>
-      <c r="K36" t="n">
-        <v>803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1697,26 +1783,25 @@
         <v>127.9925</v>
       </c>
       <c r="G37" t="n">
+        <v>805.4</v>
+      </c>
+      <c r="H37" t="n">
         <v>815.85</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>803</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+        <v>802</v>
+      </c>
+      <c r="L37" t="n">
+        <v>802</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1740,24 +1825,29 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
+        <v>805.1333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>815.55</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="n">
-        <v>803</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>805</v>
+      </c>
+      <c r="L38" t="n">
+        <v>802</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,26 +1871,29 @@
         <v>3000</v>
       </c>
       <c r="G39" t="n">
+        <v>804.1333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>815.1833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>803</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>803</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>802</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,26 +1917,29 @@
         <v>164.5221</v>
       </c>
       <c r="G40" t="n">
+        <v>803.3333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>814.8666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>799</v>
       </c>
-      <c r="K40" t="n">
-        <v>803</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>802</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1867,24 +1963,29 @@
         <v>167.7426</v>
       </c>
       <c r="G41" t="n">
+        <v>803.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>814.6333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
-        <v>803</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>800</v>
+      </c>
+      <c r="L41" t="n">
+        <v>802</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,24 +2009,29 @@
         <v>1325.6244</v>
       </c>
       <c r="G42" t="n">
+        <v>803.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>814.3333333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>803</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>806</v>
+      </c>
+      <c r="L42" t="n">
+        <v>802</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,24 +2055,29 @@
         <v>7</v>
       </c>
       <c r="G43" t="n">
+        <v>804.1333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>814.1833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
-        <v>803</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>806</v>
+      </c>
+      <c r="L43" t="n">
+        <v>802</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,24 +2101,29 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
+        <v>805.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>814.3</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
-        <v>803</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>815</v>
+      </c>
+      <c r="L44" t="n">
+        <v>802</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2031,24 +2147,29 @@
         <v>6043.4981</v>
       </c>
       <c r="G45" t="n">
+        <v>805.5333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>813.9333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>803</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>824</v>
+      </c>
+      <c r="L45" t="n">
+        <v>802</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,24 +2193,29 @@
         <v>236</v>
       </c>
       <c r="G46" t="n">
+        <v>805.7333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>813.8166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
-        <v>803</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>801</v>
+      </c>
+      <c r="L46" t="n">
+        <v>802</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,24 +2239,29 @@
         <v>1389.7236</v>
       </c>
       <c r="G47" t="n">
+        <v>805.5333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>813.45</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>803</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>809</v>
+      </c>
+      <c r="L47" t="n">
+        <v>802</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,24 +2285,29 @@
         <v>36</v>
       </c>
       <c r="G48" t="n">
+        <v>805.6</v>
+      </c>
+      <c r="H48" t="n">
         <v>813.1</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
-        <v>803</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>802</v>
+      </c>
+      <c r="L48" t="n">
+        <v>802</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2195,24 +2331,29 @@
         <v>0.9872</v>
       </c>
       <c r="G49" t="n">
+        <v>805.4</v>
+      </c>
+      <c r="H49" t="n">
         <v>812.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
         <v>803</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>802</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,24 +2377,29 @@
         <v>281.2626</v>
       </c>
       <c r="G50" t="n">
+        <v>805.9333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>812.5833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
         <v>803</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>802</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2277,24 +2423,29 @@
         <v>4.1479</v>
       </c>
       <c r="G51" t="n">
+        <v>806.5333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>812.3666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
-        <v>803</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>811</v>
+      </c>
+      <c r="L51" t="n">
+        <v>802</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,24 +2469,29 @@
         <v>77</v>
       </c>
       <c r="G52" t="n">
+        <v>807</v>
+      </c>
+      <c r="H52" t="n">
         <v>812.2166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>803</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>811</v>
+      </c>
+      <c r="L52" t="n">
+        <v>802</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2359,24 +2515,29 @@
         <v>1025.1076</v>
       </c>
       <c r="G53" t="n">
+        <v>807.6666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>812.1333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
-        <v>803</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>812</v>
+      </c>
+      <c r="L53" t="n">
+        <v>802</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,24 +2561,29 @@
         <v>15</v>
       </c>
       <c r="G54" t="n">
+        <v>808.4</v>
+      </c>
+      <c r="H54" t="n">
         <v>811.95</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>803</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>813</v>
+      </c>
+      <c r="L54" t="n">
+        <v>802</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2441,24 +2607,29 @@
         <v>40</v>
       </c>
       <c r="G55" t="n">
+        <v>809.2</v>
+      </c>
+      <c r="H55" t="n">
         <v>811.8</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>803</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>810</v>
+      </c>
+      <c r="L55" t="n">
+        <v>802</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,24 +2653,29 @@
         <v>20.2407</v>
       </c>
       <c r="G56" t="n">
+        <v>809.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>811.65</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>803</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>812</v>
+      </c>
+      <c r="L56" t="n">
+        <v>802</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,24 +2699,29 @@
         <v>2.753</v>
       </c>
       <c r="G57" t="n">
+        <v>810.1333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>811.4666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="n">
-        <v>803</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>812</v>
+      </c>
+      <c r="L57" t="n">
+        <v>802</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,24 +2745,29 @@
         <v>12.9937</v>
       </c>
       <c r="G58" t="n">
+        <v>809.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>811.2166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
-        <v>803</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>814</v>
+      </c>
+      <c r="L58" t="n">
+        <v>802</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2605,24 +2791,29 @@
         <v>20</v>
       </c>
       <c r="G59" t="n">
+        <v>808.6666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>810.9666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="n">
-        <v>803</v>
-      </c>
-      <c r="L59" t="inlineStr">
+        <v>809</v>
+      </c>
+      <c r="L59" t="n">
+        <v>802</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,24 +2837,29 @@
         <v>2252.2321</v>
       </c>
       <c r="G60" t="n">
+        <v>809.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>810.6666666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
-        <v>803</v>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>808</v>
+      </c>
+      <c r="L60" t="n">
+        <v>802</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,24 +2883,29 @@
         <v>5547.2964</v>
       </c>
       <c r="G61" t="n">
+        <v>808.8666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>810.4166666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
-        <v>803</v>
-      </c>
-      <c r="L61" t="inlineStr">
+        <v>807</v>
+      </c>
+      <c r="L61" t="n">
+        <v>802</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,24 +2929,29 @@
         <v>67.9999</v>
       </c>
       <c r="G62" t="n">
+        <v>809.4666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>810.2666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
-        <v>803</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>806</v>
+      </c>
+      <c r="L62" t="n">
+        <v>802</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2769,24 +2975,27 @@
         <v>191.3407</v>
       </c>
       <c r="G63" t="n">
+        <v>810</v>
+      </c>
+      <c r="H63" t="n">
         <v>810.0666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>803</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>802</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,24 +3019,27 @@
         <v>65</v>
       </c>
       <c r="G64" t="n">
+        <v>810.1333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>809.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>803</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>802</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2851,24 +3063,29 @@
         <v>10.476</v>
       </c>
       <c r="G65" t="n">
+        <v>809.5333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>809.4</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="n">
-        <v>803</v>
-      </c>
-      <c r="L65" t="inlineStr">
+        <v>805</v>
+      </c>
+      <c r="L65" t="n">
+        <v>802</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,24 +3109,29 @@
         <v>86.28</v>
       </c>
       <c r="G66" t="n">
+        <v>808.9333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>809.05</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="n">
-        <v>803</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>802</v>
+      </c>
+      <c r="L66" t="n">
+        <v>802</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,24 +3155,29 @@
         <v>5</v>
       </c>
       <c r="G67" t="n">
+        <v>808.6666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>808.8</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="n">
-        <v>803</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>802</v>
+      </c>
+      <c r="L67" t="n">
+        <v>802</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,24 +3201,29 @@
         <v>929.6836</v>
       </c>
       <c r="G68" t="n">
+        <v>808</v>
+      </c>
+      <c r="H68" t="n">
         <v>808.45</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="n">
-        <v>803</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>808</v>
+      </c>
+      <c r="L68" t="n">
+        <v>802</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3015,24 +3247,29 @@
         <v>5</v>
       </c>
       <c r="G69" t="n">
+        <v>807.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>808.1333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
         <v>803</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="n">
+        <v>802</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,24 +3293,29 @@
         <v>83.2199</v>
       </c>
       <c r="G70" t="n">
+        <v>807.0666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>807.75</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="n">
-        <v>803</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>804</v>
+      </c>
+      <c r="L70" t="n">
+        <v>802</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,24 +3339,29 @@
         <v>827.3977</v>
       </c>
       <c r="G71" t="n">
+        <v>806.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>807.6166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
-        <v>803</v>
-      </c>
-      <c r="L71" t="inlineStr">
+        <v>804</v>
+      </c>
+      <c r="L71" t="n">
+        <v>802</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3138,24 +3385,29 @@
         <v>79.13</v>
       </c>
       <c r="G72" t="n">
+        <v>806.4666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>807.5666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="n">
-        <v>803</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>807</v>
+      </c>
+      <c r="L72" t="n">
+        <v>802</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,24 +3431,29 @@
         <v>195.9459</v>
       </c>
       <c r="G73" t="n">
+        <v>806.5333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>807.5333333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
-        <v>803</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>810</v>
+      </c>
+      <c r="L73" t="n">
+        <v>802</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,24 +3477,29 @@
         <v>755.0328</v>
       </c>
       <c r="G74" t="n">
+        <v>806.6666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>807.5</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
-        <v>803</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>810</v>
+      </c>
+      <c r="L74" t="n">
+        <v>802</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3261,24 +3523,29 @@
         <v>683.0804000000001</v>
       </c>
       <c r="G75" t="n">
+        <v>806.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>807.4333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>803</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>810</v>
+      </c>
+      <c r="L75" t="n">
+        <v>802</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,24 +3569,27 @@
         <v>48.682</v>
       </c>
       <c r="G76" t="n">
+        <v>807</v>
+      </c>
+      <c r="H76" t="n">
         <v>807.4</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>803</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>802</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3343,24 +3613,27 @@
         <v>354.7</v>
       </c>
       <c r="G77" t="n">
+        <v>807.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>807.4</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>803</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>802</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,24 +3657,27 @@
         <v>348.123</v>
       </c>
       <c r="G78" t="n">
+        <v>807.3333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>807.45</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>803</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>802</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,24 +3701,29 @@
         <v>2049.0609</v>
       </c>
       <c r="G79" t="n">
+        <v>808.6666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>807.7</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
-        <v>803</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>815</v>
+      </c>
+      <c r="L79" t="n">
+        <v>802</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3466,24 +3747,29 @@
         <v>1554</v>
       </c>
       <c r="G80" t="n">
+        <v>810.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>807.95</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
-        <v>803</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>825</v>
+      </c>
+      <c r="L80" t="n">
+        <v>802</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3507,24 +3793,29 @@
         <v>2180</v>
       </c>
       <c r="G81" t="n">
+        <v>812.3333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>808.3666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>803</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>825</v>
+      </c>
+      <c r="L81" t="n">
+        <v>802</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,24 +3839,29 @@
         <v>2509.0964</v>
       </c>
       <c r="G82" t="n">
+        <v>814.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>808.8833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
-        <v>803</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>834</v>
+      </c>
+      <c r="L82" t="n">
+        <v>802</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,24 +3885,29 @@
         <v>326.74</v>
       </c>
       <c r="G83" t="n">
+        <v>817.2666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>809.5166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>803</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>840</v>
+      </c>
+      <c r="L83" t="n">
+        <v>802</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,24 +3931,27 @@
         <v>2171.3299</v>
       </c>
       <c r="G84" t="n">
+        <v>821.4666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>810.4</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>803</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>802</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,24 +3975,27 @@
         <v>3531.6848</v>
       </c>
       <c r="G85" t="n">
+        <v>825.2</v>
+      </c>
+      <c r="H85" t="n">
         <v>811.2</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>803</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>802</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,24 +4019,27 @@
         <v>1560</v>
       </c>
       <c r="G86" t="n">
+        <v>829.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>812.1833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>803</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>802</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,24 +4063,27 @@
         <v>278.0236</v>
       </c>
       <c r="G87" t="n">
+        <v>832.8666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>813.1833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>803</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>802</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,24 +4107,27 @@
         <v>240</v>
       </c>
       <c r="G88" t="n">
+        <v>836.5333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>814.2333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>803</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>802</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3835,24 +4151,27 @@
         <v>1940.8233</v>
       </c>
       <c r="G89" t="n">
+        <v>840.3333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>815.3166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>803</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>802</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,24 +4195,27 @@
         <v>3523.1668</v>
       </c>
       <c r="G90" t="n">
+        <v>844</v>
+      </c>
+      <c r="H90" t="n">
         <v>816.3333333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>803</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>802</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3917,24 +4239,27 @@
         <v>11496.2199</v>
       </c>
       <c r="G91" t="n">
+        <v>847.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>817.3333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>803</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>802</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,24 +4283,27 @@
         <v>175.07</v>
       </c>
       <c r="G92" t="n">
+        <v>851.2</v>
+      </c>
+      <c r="H92" t="n">
         <v>818.3166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>803</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>802</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,24 +4327,27 @@
         <v>131</v>
       </c>
       <c r="G93" t="n">
+        <v>854.6666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>819.4</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>803</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>802</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,24 +4371,27 @@
         <v>3153.81</v>
       </c>
       <c r="G94" t="n">
+        <v>857.6666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>820.4666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>803</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>802</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,24 +4415,27 @@
         <v>2883</v>
       </c>
       <c r="G95" t="n">
+        <v>860.6666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>821.5833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>803</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>802</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,24 +4459,27 @@
         <v>1564.104797045454</v>
       </c>
       <c r="G96" t="n">
+        <v>863.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>822.7166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>803</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>802</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,24 +4503,27 @@
         <v>2475.7803</v>
       </c>
       <c r="G97" t="n">
+        <v>865</v>
+      </c>
+      <c r="H97" t="n">
         <v>823.7833333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>803</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>802</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,24 +4547,27 @@
         <v>297</v>
       </c>
       <c r="G98" t="n">
+        <v>866.9333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>824.9666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>803</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>802</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,24 +4591,27 @@
         <v>2987.7516</v>
       </c>
       <c r="G99" t="n">
+        <v>867.5333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>826.25</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>803</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>802</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,24 +4635,27 @@
         <v>860.7684</v>
       </c>
       <c r="G100" t="n">
+        <v>868.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>827.5166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>803</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>802</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,24 +4679,27 @@
         <v>708.4751</v>
       </c>
       <c r="G101" t="n">
+        <v>869.7333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>828.8166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>803</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>802</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,24 +4723,27 @@
         <v>825.6129</v>
       </c>
       <c r="G102" t="n">
+        <v>871.4</v>
+      </c>
+      <c r="H102" t="n">
         <v>830.2166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>803</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>802</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4409,24 +4767,27 @@
         <v>1.995</v>
       </c>
       <c r="G103" t="n">
+        <v>872.2666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>831.2666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>803</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>802</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,24 +4811,27 @@
         <v>31.7761</v>
       </c>
       <c r="G104" t="n">
+        <v>873.1333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>832.2</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>803</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>802</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,24 +4855,27 @@
         <v>512.4953</v>
       </c>
       <c r="G105" t="n">
+        <v>874.1333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>833.4833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>803</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>802</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,24 +4899,27 @@
         <v>116.2667</v>
       </c>
       <c r="G106" t="n">
+        <v>874.9333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>834.6333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>803</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>802</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,24 +4943,27 @@
         <v>274.35</v>
       </c>
       <c r="G107" t="n">
+        <v>875.8666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>835.9</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>803</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>802</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,24 +4987,27 @@
         <v>371.8756</v>
       </c>
       <c r="G108" t="n">
+        <v>876.5333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>837.1333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>803</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>802</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,24 +5031,27 @@
         <v>1283.1318</v>
       </c>
       <c r="G109" t="n">
+        <v>876.5333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>838.25</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>803</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>802</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,24 +5075,27 @@
         <v>1355.9489</v>
       </c>
       <c r="G110" t="n">
+        <v>876.8666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>839.3166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>803</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>802</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,24 +5119,27 @@
         <v>628.9367</v>
       </c>
       <c r="G111" t="n">
+        <v>877.4</v>
+      </c>
+      <c r="H111" t="n">
         <v>840.4333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>803</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>802</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,24 +5163,27 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
+        <v>878.6</v>
+      </c>
+      <c r="H112" t="n">
         <v>841.6833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>803</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>802</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,24 +5207,27 @@
         <v>1345.8447</v>
       </c>
       <c r="G113" t="n">
+        <v>879.6666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>842.9666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>803</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>802</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,24 +5251,27 @@
         <v>5327.4365</v>
       </c>
       <c r="G114" t="n">
+        <v>880.7333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>844.3333333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>803</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>802</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,24 +5295,27 @@
         <v>808.8404</v>
       </c>
       <c r="G115" t="n">
+        <v>881.6</v>
+      </c>
+      <c r="H115" t="n">
         <v>845.6166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>803</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>802</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,24 +5339,27 @@
         <v>114</v>
       </c>
       <c r="G116" t="n">
+        <v>882.2666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>846.9833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>803</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>802</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,24 +5383,27 @@
         <v>6239.8356</v>
       </c>
       <c r="G117" t="n">
+        <v>882.9333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>848.4166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>803</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>802</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,24 +5427,27 @@
         <v>3849.961</v>
       </c>
       <c r="G118" t="n">
+        <v>884.9333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>850.0666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>803</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>802</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,24 +5471,27 @@
         <v>4267.7634</v>
       </c>
       <c r="G119" t="n">
+        <v>887.7333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>851.9666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>803</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>802</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,24 +5515,27 @@
         <v>11501.4706</v>
       </c>
       <c r="G120" t="n">
+        <v>892.8666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>854.4333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>803</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>802</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,24 +5559,27 @@
         <v>9502.975288958334</v>
       </c>
       <c r="G121" t="n">
+        <v>898.3333333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>857</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>803</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>802</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,25 +5603,28 @@
         <v>4461.3497</v>
       </c>
       <c r="G122" t="n">
+        <v>904.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>859.6</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>803</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1.199234122042341</v>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>802</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5229,19 +5647,28 @@
         <v>2953.263111041667</v>
       </c>
       <c r="G123" t="n">
+        <v>910.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>862.2</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
+      <c r="L123" t="n">
+        <v>802</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1.20073566084788</v>
       </c>
     </row>
     <row r="124">
@@ -5264,18 +5691,21 @@
         <v>2167.5403</v>
       </c>
       <c r="G124" t="n">
+        <v>916.8666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>864.9333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5299,18 +5729,21 @@
         <v>7875.0978</v>
       </c>
       <c r="G125" t="n">
+        <v>922.8666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>867.65</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5334,18 +5767,21 @@
         <v>244.8763</v>
       </c>
       <c r="G126" t="n">
+        <v>926.6666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>869.8666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,18 +5805,21 @@
         <v>1298.3685</v>
       </c>
       <c r="G127" t="n">
+        <v>930</v>
+      </c>
+      <c r="H127" t="n">
         <v>872.0166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,18 +5843,21 @@
         <v>1351.5365</v>
       </c>
       <c r="G128" t="n">
+        <v>932.4666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>874.0833333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5439,18 +5881,21 @@
         <v>527.654</v>
       </c>
       <c r="G129" t="n">
+        <v>934.8</v>
+      </c>
+      <c r="H129" t="n">
         <v>876.1333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,18 +5919,21 @@
         <v>3111.995788958333</v>
       </c>
       <c r="G130" t="n">
+        <v>937.2</v>
+      </c>
+      <c r="H130" t="n">
         <v>878.15</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5509,18 +5957,21 @@
         <v>153.4559</v>
       </c>
       <c r="G131" t="n">
+        <v>939.6</v>
+      </c>
+      <c r="H131" t="n">
         <v>880.2</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,18 +5995,21 @@
         <v>4319.7179</v>
       </c>
       <c r="G132" t="n">
+        <v>941.2666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>882.1166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5579,18 +6033,21 @@
         <v>2682.1515</v>
       </c>
       <c r="G133" t="n">
+        <v>941.6666666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>883.85</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,18 +6071,21 @@
         <v>31.1588</v>
       </c>
       <c r="G134" t="n">
+        <v>941.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>885.5833333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,18 +6109,21 @@
         <v>581.6095</v>
       </c>
       <c r="G135" t="n">
+        <v>938.3333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>887.3333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,18 +6147,21 @@
         <v>77.0896</v>
       </c>
       <c r="G136" t="n">
+        <v>935.4</v>
+      </c>
+      <c r="H136" t="n">
         <v>889.1</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5719,18 +6185,21 @@
         <v>2806.6197</v>
       </c>
       <c r="G137" t="n">
+        <v>931.1333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>890.6166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,18 +6223,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
+        <v>929.6666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>892.7833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5789,18 +6261,21 @@
         <v>220.7104</v>
       </c>
       <c r="G139" t="n">
+        <v>926.8666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>894.4833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,18 +6299,21 @@
         <v>95.7038</v>
       </c>
       <c r="G140" t="n">
+        <v>924.3333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>896.1833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5859,18 +6337,21 @@
         <v>102.9975</v>
       </c>
       <c r="G141" t="n">
+        <v>923.6666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>897.7</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,18 +6375,21 @@
         <v>285.4013</v>
       </c>
       <c r="G142" t="n">
+        <v>923.0666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>899.1666666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5929,18 +6413,21 @@
         <v>122.8908</v>
       </c>
       <c r="G143" t="n">
+        <v>923.2</v>
+      </c>
+      <c r="H143" t="n">
         <v>900.5666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,18 +6451,21 @@
         <v>2092.6639</v>
       </c>
       <c r="G144" t="n">
+        <v>922.9333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>901.5</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5999,18 +6489,21 @@
         <v>565.2654</v>
       </c>
       <c r="G145" t="n">
+        <v>922.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>902.55</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,18 +6527,21 @@
         <v>1115.8458</v>
       </c>
       <c r="G146" t="n">
+        <v>922.2</v>
+      </c>
+      <c r="H146" t="n">
         <v>903.45</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6069,18 +6565,21 @@
         <v>6952.4902</v>
       </c>
       <c r="G147" t="n">
+        <v>920.8666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>904.1166666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,18 +6603,21 @@
         <v>5826.7491</v>
       </c>
       <c r="G148" t="n">
+        <v>921.1333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>905</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6139,18 +6641,21 @@
         <v>282.1056</v>
       </c>
       <c r="G149" t="n">
+        <v>921.0666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>905.7666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6174,18 +6679,21 @@
         <v>1085.1916</v>
       </c>
       <c r="G150" t="n">
+        <v>920.9333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>906.5666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6209,18 +6717,21 @@
         <v>2429.1272</v>
       </c>
       <c r="G151" t="n">
+        <v>919.8666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>907.1333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,18 +6755,21 @@
         <v>91.37</v>
       </c>
       <c r="G152" t="n">
+        <v>920</v>
+      </c>
+      <c r="H152" t="n">
         <v>907.8166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6279,18 +6793,21 @@
         <v>29.23</v>
       </c>
       <c r="G153" t="n">
+        <v>917.5333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>908.5</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6314,18 +6831,21 @@
         <v>14.1868</v>
       </c>
       <c r="G154" t="n">
+        <v>916.4666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>909.1833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6349,18 +6869,21 @@
         <v>820.2574</v>
       </c>
       <c r="G155" t="n">
+        <v>915.5333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>909.9</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,18 +6907,21 @@
         <v>2362.8356</v>
       </c>
       <c r="G156" t="n">
+        <v>914.8</v>
+      </c>
+      <c r="H156" t="n">
         <v>910.6333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6419,18 +6945,21 @@
         <v>143</v>
       </c>
       <c r="G157" t="n">
+        <v>914.1333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>911.45</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,18 +6983,21 @@
         <v>541.1265</v>
       </c>
       <c r="G158" t="n">
+        <v>912.7333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>912.0166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6489,18 +7021,21 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
+        <v>912.2666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>912.6833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6524,18 +7059,21 @@
         <v>1151.86</v>
       </c>
       <c r="G160" t="n">
+        <v>912.4</v>
+      </c>
+      <c r="H160" t="n">
         <v>913.5</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6559,18 +7097,21 @@
         <v>1134.4993</v>
       </c>
       <c r="G161" t="n">
+        <v>911.4666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>913.8833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,18 +7135,21 @@
         <v>138.7</v>
       </c>
       <c r="G162" t="n">
+        <v>912.2666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>914.3333333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6629,18 +7173,21 @@
         <v>700.9446</v>
       </c>
       <c r="G163" t="n">
+        <v>912.0666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>914.95</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6664,18 +7211,21 @@
         <v>1036.7008</v>
       </c>
       <c r="G164" t="n">
+        <v>912.5333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>915.6166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6699,18 +7249,21 @@
         <v>612.376</v>
       </c>
       <c r="G165" t="n">
+        <v>913.0666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>916.3</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6734,18 +7287,21 @@
         <v>541.0092</v>
       </c>
       <c r="G166" t="n">
+        <v>914</v>
+      </c>
+      <c r="H166" t="n">
         <v>916.9</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,18 +7325,21 @@
         <v>197.4856</v>
       </c>
       <c r="G167" t="n">
+        <v>914.5333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>917.4833333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,18 +7363,21 @@
         <v>228.2264</v>
       </c>
       <c r="G168" t="n">
+        <v>914.4666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>917.9833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6839,18 +7401,21 @@
         <v>641.5349</v>
       </c>
       <c r="G169" t="n">
+        <v>914.1333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>918.5833333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,18 +7439,21 @@
         <v>928.3806</v>
       </c>
       <c r="G170" t="n">
+        <v>913.2666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>919</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6909,18 +7477,21 @@
         <v>358.7631</v>
       </c>
       <c r="G171" t="n">
+        <v>912.3333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>919.3666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6944,18 +7515,21 @@
         <v>17195.1416</v>
       </c>
       <c r="G172" t="n">
+        <v>910.9333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>919.5333333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6979,18 +7553,21 @@
         <v>6913.4091</v>
       </c>
       <c r="G173" t="n">
+        <v>910.0666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>919.6166666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,18 +7591,21 @@
         <v>284</v>
       </c>
       <c r="G174" t="n">
+        <v>908.6666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>919.6666666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7049,18 +7629,21 @@
         <v>7489.98</v>
       </c>
       <c r="G175" t="n">
+        <v>906.6</v>
+      </c>
+      <c r="H175" t="n">
         <v>919.75</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7084,18 +7667,21 @@
         <v>4105.299</v>
       </c>
       <c r="G176" t="n">
+        <v>907.3333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>920.15</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,18 +7705,21 @@
         <v>150.3277</v>
       </c>
       <c r="G177" t="n">
+        <v>906.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>920.2</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7154,18 +7743,21 @@
         <v>1512.0973</v>
       </c>
       <c r="G178" t="n">
+        <v>905.6666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>920.1333333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7189,18 +7781,21 @@
         <v>20.64</v>
       </c>
       <c r="G179" t="n">
+        <v>904.5333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>919.8166666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7224,18 +7819,21 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
+        <v>903.6666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>919</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7259,18 +7857,21 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
+        <v>902.4666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>917.9333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7294,18 +7895,21 @@
         <v>650.223</v>
       </c>
       <c r="G182" t="n">
+        <v>901.4666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>916.7833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7329,18 +7933,21 @@
         <v>812.3425</v>
       </c>
       <c r="G183" t="n">
+        <v>901.3333333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>915.75</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7364,18 +7971,21 @@
         <v>192.0817</v>
       </c>
       <c r="G184" t="n">
+        <v>900.6666666666666</v>
+      </c>
+      <c r="H184" t="n">
         <v>914.5333333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7399,18 +8009,21 @@
         <v>562.0748</v>
       </c>
       <c r="G185" t="n">
+        <v>900.3333333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>913.3666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7434,18 +8047,21 @@
         <v>1669.4901</v>
       </c>
       <c r="G186" t="n">
+        <v>899.6666666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>912.6166666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7469,18 +8085,21 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
+        <v>899.9333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>912.0166666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7504,18 +8123,21 @@
         <v>1090.3258</v>
       </c>
       <c r="G188" t="n">
+        <v>899.3333333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>911.3333333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7539,18 +8161,21 @@
         <v>3598.4054</v>
       </c>
       <c r="G189" t="n">
+        <v>898.6666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>910.6333333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7574,18 +8199,21 @@
         <v>510.3825</v>
       </c>
       <c r="G190" t="n">
+        <v>898.4</v>
+      </c>
+      <c r="H190" t="n">
         <v>910.05</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7609,18 +8237,21 @@
         <v>181.1835</v>
       </c>
       <c r="G191" t="n">
+        <v>896.4</v>
+      </c>
+      <c r="H191" t="n">
         <v>909.35</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7644,18 +8275,21 @@
         <v>170.7912</v>
       </c>
       <c r="G192" t="n">
+        <v>895.2666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>908.7</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7679,18 +8313,21 @@
         <v>283.9909</v>
       </c>
       <c r="G193" t="n">
+        <v>893.8666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>908.1833333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7714,18 +8351,21 @@
         <v>1025.8389</v>
       </c>
       <c r="G194" t="n">
+        <v>892.0666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>907.55</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7749,18 +8389,21 @@
         <v>16.1031</v>
       </c>
       <c r="G195" t="n">
+        <v>890.6666666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>907.0833333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7784,18 +8427,401 @@
         <v>375.11</v>
       </c>
       <c r="G196" t="n">
+        <v>889.6666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>906.5</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>878</v>
+      </c>
+      <c r="C197" t="n">
+        <v>882</v>
+      </c>
+      <c r="D197" t="n">
+        <v>882</v>
+      </c>
+      <c r="E197" t="n">
+        <v>878</v>
+      </c>
+      <c r="F197" t="n">
+        <v>815.8371</v>
+      </c>
+      <c r="G197" t="n">
+        <v>888.6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>906.15</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>884</v>
+      </c>
+      <c r="C198" t="n">
+        <v>885</v>
+      </c>
+      <c r="D198" t="n">
+        <v>885</v>
+      </c>
+      <c r="E198" t="n">
+        <v>884</v>
+      </c>
+      <c r="F198" t="n">
+        <v>482.6921</v>
+      </c>
+      <c r="G198" t="n">
+        <v>887.2666666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>905.15</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>885</v>
+      </c>
+      <c r="C199" t="n">
+        <v>882</v>
+      </c>
+      <c r="D199" t="n">
+        <v>892</v>
+      </c>
+      <c r="E199" t="n">
+        <v>882</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2073.8965</v>
+      </c>
+      <c r="G199" t="n">
+        <v>886.3333333333334</v>
+      </c>
+      <c r="H199" t="n">
+        <v>904.4</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>890</v>
+      </c>
+      <c r="C200" t="n">
+        <v>890</v>
+      </c>
+      <c r="D200" t="n">
+        <v>891</v>
+      </c>
+      <c r="E200" t="n">
+        <v>890</v>
+      </c>
+      <c r="F200" t="n">
+        <v>724.6998</v>
+      </c>
+      <c r="G200" t="n">
+        <v>886</v>
+      </c>
+      <c r="H200" t="n">
+        <v>903.7833333333333</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>892</v>
+      </c>
+      <c r="C201" t="n">
+        <v>890</v>
+      </c>
+      <c r="D201" t="n">
+        <v>892</v>
+      </c>
+      <c r="E201" t="n">
+        <v>890</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1053.697</v>
+      </c>
+      <c r="G201" t="n">
+        <v>886</v>
+      </c>
+      <c r="H201" t="n">
+        <v>903.2</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>890</v>
+      </c>
+      <c r="C202" t="n">
+        <v>890</v>
+      </c>
+      <c r="D202" t="n">
+        <v>890</v>
+      </c>
+      <c r="E202" t="n">
+        <v>890</v>
+      </c>
+      <c r="F202" t="n">
+        <v>263.1696</v>
+      </c>
+      <c r="G202" t="n">
+        <v>885.2666666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>902.5666666666667</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>894</v>
+      </c>
+      <c r="C203" t="n">
+        <v>884</v>
+      </c>
+      <c r="D203" t="n">
+        <v>895</v>
+      </c>
+      <c r="E203" t="n">
+        <v>884</v>
+      </c>
+      <c r="F203" t="n">
+        <v>943.6801</v>
+      </c>
+      <c r="G203" t="n">
+        <v>885.1333333333333</v>
+      </c>
+      <c r="H203" t="n">
+        <v>901.8166666666667</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>897</v>
+      </c>
+      <c r="C204" t="n">
+        <v>897</v>
+      </c>
+      <c r="D204" t="n">
+        <v>897</v>
+      </c>
+      <c r="E204" t="n">
+        <v>897</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.4482</v>
+      </c>
+      <c r="G204" t="n">
+        <v>885.9333333333333</v>
+      </c>
+      <c r="H204" t="n">
+        <v>901.3833333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>897</v>
+      </c>
+      <c r="C205" t="n">
+        <v>897</v>
+      </c>
+      <c r="D205" t="n">
+        <v>897</v>
+      </c>
+      <c r="E205" t="n">
+        <v>897</v>
+      </c>
+      <c r="F205" t="n">
+        <v>12</v>
+      </c>
+      <c r="G205" t="n">
+        <v>886.4</v>
+      </c>
+      <c r="H205" t="n">
+        <v>900.95</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>891</v>
+      </c>
+      <c r="C206" t="n">
+        <v>890</v>
+      </c>
+      <c r="D206" t="n">
+        <v>891</v>
+      </c>
+      <c r="E206" t="n">
+        <v>890</v>
+      </c>
+      <c r="F206" t="n">
+        <v>924.9776000000001</v>
+      </c>
+      <c r="G206" t="n">
+        <v>886.5333333333333</v>
+      </c>
+      <c r="H206" t="n">
+        <v>900.4333333333333</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-6888.8655</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-6888.8655</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-7173.1555</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-7042.1955</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-6695.345499999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-6696.345499999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-6153.415599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-8063.333299999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-6289.153399999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-4005.650999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-4005.650999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-4056.149699999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-4109.6019</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-18425.0872</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-16962.5691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-16956.659</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-20963.4708</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-20961.4708</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-20973.4708</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,19 @@
         <v>-47104.28990000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>803</v>
+      </c>
+      <c r="J94" t="n">
+        <v>803</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,22 +3524,23 @@
         <v>-46976.29740000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="J95" t="n">
-        <v>802</v>
-      </c>
-      <c r="K95" t="n">
-        <v>802</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>803</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3844,26 +3565,23 @@
         <v>-46977.29740000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="J96" t="n">
-        <v>805</v>
-      </c>
-      <c r="K96" t="n">
-        <v>802</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3888,26 +3606,23 @@
         <v>-49977.29740000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="J97" t="n">
         <v>803</v>
       </c>
-      <c r="K97" t="n">
-        <v>802</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,26 +3647,23 @@
         <v>-49812.77530000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="J98" t="n">
-        <v>799</v>
-      </c>
-      <c r="K98" t="n">
-        <v>802</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3976,26 +3688,23 @@
         <v>-49645.03270000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J99" t="n">
-        <v>800</v>
-      </c>
-      <c r="K99" t="n">
-        <v>802</v>
-      </c>
-      <c r="L99" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4020,26 +3729,23 @@
         <v>-49645.03270000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="J100" t="n">
-        <v>806</v>
-      </c>
-      <c r="K100" t="n">
-        <v>802</v>
-      </c>
-      <c r="L100" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4064,26 +3770,23 @@
         <v>-49638.03270000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="J101" t="n">
-        <v>806</v>
-      </c>
-      <c r="K101" t="n">
-        <v>802</v>
-      </c>
-      <c r="L101" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4108,26 +3811,23 @@
         <v>-49635.03270000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="J102" t="n">
-        <v>815</v>
-      </c>
-      <c r="K102" t="n">
-        <v>802</v>
-      </c>
-      <c r="L102" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4152,24 +3852,23 @@
         <v>-55678.53080000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>802</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>824</v>
+      </c>
+      <c r="J103" t="n">
+        <v>803</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4194,24 +3893,23 @@
         <v>-55442.53080000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>802</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>801</v>
+      </c>
+      <c r="J104" t="n">
+        <v>803</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4236,24 +3934,23 @@
         <v>-56832.25440000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>802</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>809</v>
+      </c>
+      <c r="J105" t="n">
+        <v>803</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4278,26 +3975,23 @@
         <v>-56796.25440000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="J106" t="n">
-        <v>802</v>
-      </c>
-      <c r="K106" t="n">
-        <v>802</v>
-      </c>
-      <c r="L106" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4322,26 +4016,23 @@
         <v>-56796.25440000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="J107" t="n">
         <v>803</v>
       </c>
-      <c r="K107" t="n">
-        <v>802</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4366,26 +4057,23 @@
         <v>-56514.9918</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="J108" t="n">
         <v>803</v>
       </c>
-      <c r="K108" t="n">
-        <v>802</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4410,26 +4098,23 @@
         <v>-56514.9918</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J109" t="n">
-        <v>811</v>
-      </c>
-      <c r="K109" t="n">
-        <v>802</v>
-      </c>
-      <c r="L109" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4454,26 +4139,23 @@
         <v>-56437.9918</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J110" t="n">
-        <v>811</v>
-      </c>
-      <c r="K110" t="n">
-        <v>802</v>
-      </c>
-      <c r="L110" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4498,26 +4180,23 @@
         <v>-55412.8842</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J111" t="n">
-        <v>812</v>
-      </c>
-      <c r="K111" t="n">
-        <v>802</v>
-      </c>
-      <c r="L111" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4542,24 +4221,23 @@
         <v>-55427.8842</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>802</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>813</v>
+      </c>
+      <c r="J112" t="n">
+        <v>803</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4584,26 +4262,23 @@
         <v>-55387.8842</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J113" t="n">
-        <v>810</v>
-      </c>
-      <c r="K113" t="n">
-        <v>802</v>
-      </c>
-      <c r="L113" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4628,24 +4303,23 @@
         <v>-55387.8842</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>802</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>812</v>
+      </c>
+      <c r="J114" t="n">
+        <v>803</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4670,24 +4344,23 @@
         <v>-55385.1312</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>802</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>812</v>
+      </c>
+      <c r="J115" t="n">
+        <v>803</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4712,24 +4385,23 @@
         <v>-55398.1249</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>802</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>814</v>
+      </c>
+      <c r="J116" t="n">
+        <v>803</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4756,22 +4428,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>802</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>803</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4798,22 +4467,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>802</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>803</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4840,22 +4506,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>802</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>803</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4882,22 +4545,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>802</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>803</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4924,22 +4584,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>802</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>803</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4966,22 +4623,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>802</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>803</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5008,22 +4662,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>802</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>803</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5048,26 +4699,23 @@
         <v>-63225.1295</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="J124" t="n">
-        <v>802</v>
-      </c>
-      <c r="K124" t="n">
-        <v>802</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5092,26 +4740,23 @@
         <v>-63220.1295</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="J125" t="n">
-        <v>802</v>
-      </c>
-      <c r="K125" t="n">
-        <v>802</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5136,26 +4781,21 @@
         <v>-64149.8131</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>808</v>
-      </c>
-      <c r="K126" t="n">
-        <v>802</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5180,26 +4820,23 @@
         <v>-64144.8131</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="J127" t="n">
         <v>803</v>
       </c>
-      <c r="K127" t="n">
-        <v>802</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5224,26 +4861,23 @@
         <v>-64144.8131</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J128" t="n">
-        <v>804</v>
-      </c>
-      <c r="K128" t="n">
-        <v>802</v>
-      </c>
-      <c r="L128" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5268,26 +4902,23 @@
         <v>-63317.4154</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J129" t="n">
-        <v>804</v>
-      </c>
-      <c r="K129" t="n">
-        <v>802</v>
-      </c>
-      <c r="L129" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5312,26 +4943,23 @@
         <v>-63238.2854</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="J130" t="n">
-        <v>807</v>
-      </c>
-      <c r="K130" t="n">
-        <v>802</v>
-      </c>
-      <c r="L130" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5356,26 +4984,23 @@
         <v>-63238.2854</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J131" t="n">
-        <v>810</v>
-      </c>
-      <c r="K131" t="n">
-        <v>802</v>
-      </c>
-      <c r="L131" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5400,26 +5025,23 @@
         <v>-63238.2854</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J132" t="n">
-        <v>810</v>
-      </c>
-      <c r="K132" t="n">
-        <v>802</v>
-      </c>
-      <c r="L132" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5444,26 +5066,23 @@
         <v>-63921.3658</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J133" t="n">
-        <v>810</v>
-      </c>
-      <c r="K133" t="n">
-        <v>802</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5488,26 +5107,23 @@
         <v>-63872.6838</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="J134" t="n">
-        <v>808</v>
-      </c>
-      <c r="K134" t="n">
-        <v>802</v>
-      </c>
-      <c r="L134" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5532,26 +5148,23 @@
         <v>-63517.9838</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="J135" t="n">
-        <v>810</v>
-      </c>
-      <c r="K135" t="n">
-        <v>802</v>
-      </c>
-      <c r="L135" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5576,26 +5189,23 @@
         <v>-63169.8608</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="J136" t="n">
-        <v>812</v>
-      </c>
-      <c r="K136" t="n">
-        <v>802</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5620,26 +5230,23 @@
         <v>-61120.79990000001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="J137" t="n">
-        <v>815</v>
-      </c>
-      <c r="K137" t="n">
-        <v>802</v>
-      </c>
-      <c r="L137" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5664,26 +5271,23 @@
         <v>-61120.79990000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="J138" t="n">
-        <v>825</v>
-      </c>
-      <c r="K138" t="n">
-        <v>802</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5708,26 +5312,23 @@
         <v>-58940.79990000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="J139" t="n">
-        <v>825</v>
-      </c>
-      <c r="K139" t="n">
-        <v>802</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5752,26 +5353,23 @@
         <v>-56431.7035</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="J140" t="n">
-        <v>834</v>
-      </c>
-      <c r="K140" t="n">
-        <v>802</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5796,26 +5394,23 @@
         <v>-56104.96350000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="J141" t="n">
-        <v>840</v>
-      </c>
-      <c r="K141" t="n">
-        <v>802</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>803</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5840,24 +5435,23 @@
         <v>-53933.63360000001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>802</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>845</v>
+      </c>
+      <c r="J142" t="n">
+        <v>803</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5882,24 +5476,23 @@
         <v>-57465.31840000001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>802</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>867</v>
+      </c>
+      <c r="J143" t="n">
+        <v>803</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5926,22 +5519,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>802</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>803</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5968,22 +5558,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>802</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>803</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6010,22 +5597,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>802</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>803</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6052,22 +5636,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>802</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>803</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6094,22 +5675,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>802</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>803</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6136,22 +5714,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>802</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>803</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6178,22 +5753,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>802</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>803</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6220,22 +5792,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>802</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>803</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6262,22 +5831,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>802</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>803</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6304,22 +5870,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>802</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>803</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6346,22 +5909,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>802</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>803</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6388,22 +5948,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>802</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>803</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6430,22 +5987,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>802</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>803</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6472,22 +6026,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>802</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>803</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6514,22 +6065,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>802</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>803</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6556,22 +6104,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>802</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>803</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6598,22 +6143,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>802</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>803</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6640,22 +6182,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>802</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>803</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6682,22 +6221,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>802</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>803</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6724,22 +6260,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>802</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>803</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6766,22 +6299,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>802</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>803</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6808,22 +6338,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>802</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>803</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6850,22 +6377,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>802</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>803</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6892,22 +6416,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>802</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>803</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6934,22 +6455,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>802</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>803</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6976,22 +6494,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>802</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>803</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7018,22 +6533,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>802</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>803</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7060,22 +6572,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>802</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>803</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7102,22 +6611,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>802</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>803</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7144,22 +6650,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>802</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>803</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7186,22 +6689,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>802</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>803</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7228,22 +6728,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>802</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>803</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7270,22 +6767,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>802</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>803</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7312,22 +6806,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>802</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>803</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7354,22 +6845,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>802</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>803</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7396,22 +6884,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>802</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>803</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7438,22 +6923,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>802</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>803</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7478,24 +6960,23 @@
         <v>4833.294088958321</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>802</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>803</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.199234122042341</v>
       </c>
       <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>1.067331670822943</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7522,24 +7003,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>802</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1.203229426433915</v>
-      </c>
-      <c r="N182" t="n">
-        <v>1.067331670822943</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7564,18 +7034,15 @@
         <v>-874.2634110416784</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7600,18 +7067,15 @@
         <v>-1119.139711041678</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7636,18 +7100,15 @@
         <v>179.2287889583217</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7674,16 +7135,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7708,18 +7166,15 @@
         <v>-1172.307711041678</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7744,18 +7199,15 @@
         <v>-4284.303500000011</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7782,16 +7234,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7818,16 +7267,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7852,18 +7298,15 @@
         <v>-11132.71700000001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7890,16 +7333,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7926,16 +7366,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7962,16 +7399,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7998,16 +7432,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8034,16 +7465,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8070,16 +7498,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8106,16 +7531,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8142,16 +7564,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8178,16 +7597,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8214,16 +7630,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8250,16 +7663,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8284,18 +7694,15 @@
         <v>-16450.93630000002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8322,16 +7729,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8358,16 +7762,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8394,16 +7795,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8430,16 +7828,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8466,16 +7861,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8502,16 +7894,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8538,16 +7927,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8574,16 +7960,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8610,16 +7993,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8646,16 +8026,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8682,16 +8059,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8718,16 +8092,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8754,16 +8125,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8790,16 +8158,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8826,16 +8191,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8862,16 +8224,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8898,16 +8257,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8934,16 +8290,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8970,16 +8323,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9006,16 +8356,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9042,16 +8389,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9078,16 +8422,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9114,16 +8455,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9150,16 +8488,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9186,16 +8521,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9222,16 +8554,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9258,16 +8587,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9294,16 +8620,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9330,16 +8653,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9366,16 +8686,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9402,16 +8719,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9438,16 +8752,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9474,16 +8785,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9510,16 +8818,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9546,16 +8851,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9582,16 +8884,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9618,16 +8917,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9654,16 +8950,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9690,16 +8983,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9726,16 +9016,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9762,16 +9049,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9798,16 +9082,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9834,16 +9115,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9870,16 +9148,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9906,16 +9181,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9942,16 +9214,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9978,16 +9247,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10014,16 +9280,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10050,16 +9313,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10086,16 +9346,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10122,16 +9379,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10158,16 +9412,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10194,16 +9445,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10230,16 +9478,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10266,16 +9511,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10302,16 +9544,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10338,16 +9577,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10374,16 +9610,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10410,16 +9643,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10446,16 +9676,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10482,18 +9709,15 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6888.8655</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6888.8655</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7173.1555</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7042.1955</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6695.345499999999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6696.345499999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-6153.415599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-8063.333299999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-6289.153399999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4005.650999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4005.650999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4056.149699999999</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4109.6019</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-18425.0872</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-16962.5691</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-16956.659</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-20963.4708</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20961.4708</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-20973.4708</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -3322,10 +3322,14 @@
         <v>-47539.28990000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>802</v>
+      </c>
+      <c r="J89" t="n">
+        <v>802</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3355,11 +3359,19 @@
         <v>-47542.28990000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>806</v>
+      </c>
+      <c r="J90" t="n">
+        <v>802</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3400,19 @@
         <v>-47602.28990000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>805</v>
+      </c>
+      <c r="J91" t="n">
+        <v>802</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,10 +3441,14 @@
         <v>-47102.28990000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>802</v>
+      </c>
+      <c r="J92" t="n">
+        <v>802</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3454,11 +3478,19 @@
         <v>-47103.28990000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>806</v>
+      </c>
+      <c r="J93" t="n">
+        <v>802</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,15 +3519,19 @@
         <v>-47104.28990000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>803</v>
       </c>
       <c r="J94" t="n">
-        <v>803</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>802</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,19 +3560,15 @@
         <v>-46976.29740000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>802</v>
       </c>
       <c r="J95" t="n">
-        <v>803</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3565,13 +3597,13 @@
         <v>-46977.29740000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>805</v>
       </c>
       <c r="J96" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3606,13 +3638,13 @@
         <v>-49977.29740000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>803</v>
       </c>
       <c r="J97" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3647,13 +3679,13 @@
         <v>-49812.77530000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>799</v>
       </c>
       <c r="J98" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3688,13 +3720,13 @@
         <v>-49645.03270000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>800</v>
       </c>
       <c r="J99" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3729,13 +3761,13 @@
         <v>-49645.03270000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>806</v>
       </c>
       <c r="J100" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3770,13 +3802,13 @@
         <v>-49638.03270000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>806</v>
       </c>
       <c r="J101" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3811,13 +3843,13 @@
         <v>-49635.03270000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>815</v>
       </c>
       <c r="J102" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3852,13 +3884,13 @@
         <v>-55678.53080000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>824</v>
       </c>
       <c r="J103" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3893,13 +3925,13 @@
         <v>-55442.53080000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>801</v>
       </c>
       <c r="J104" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3934,13 +3966,13 @@
         <v>-56832.25440000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>809</v>
       </c>
       <c r="J105" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3975,13 +4007,13 @@
         <v>-56796.25440000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>802</v>
       </c>
       <c r="J106" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4016,13 +4048,13 @@
         <v>-56796.25440000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>803</v>
       </c>
       <c r="J107" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4057,13 +4089,13 @@
         <v>-56514.9918</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>803</v>
       </c>
       <c r="J108" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4098,13 +4130,13 @@
         <v>-56514.9918</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>811</v>
       </c>
       <c r="J109" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4139,13 +4171,13 @@
         <v>-56437.9918</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>811</v>
       </c>
       <c r="J110" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4180,13 +4212,13 @@
         <v>-55412.8842</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>812</v>
       </c>
       <c r="J111" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4221,13 +4253,13 @@
         <v>-55427.8842</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>813</v>
       </c>
       <c r="J112" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4262,13 +4294,13 @@
         <v>-55387.8842</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>810</v>
       </c>
       <c r="J113" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4303,13 +4335,13 @@
         <v>-55387.8842</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>812</v>
       </c>
       <c r="J114" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4344,13 +4376,13 @@
         <v>-55385.1312</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>812</v>
       </c>
       <c r="J115" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4385,13 +4417,13 @@
         <v>-55398.1249</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>814</v>
       </c>
       <c r="J116" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4426,11 +4458,13 @@
         <v>-55418.1249</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>809</v>
+      </c>
       <c r="J117" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4465,11 +4499,13 @@
         <v>-57670.357</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>808</v>
+      </c>
       <c r="J118" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4508,7 +4544,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4547,7 +4583,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4586,7 +4622,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4625,7 +4661,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4664,7 +4700,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4699,13 +4735,13 @@
         <v>-63225.1295</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>802</v>
       </c>
       <c r="J124" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4740,13 +4776,13 @@
         <v>-63220.1295</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>802</v>
       </c>
       <c r="J125" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4781,11 +4817,13 @@
         <v>-64149.8131</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>808</v>
+      </c>
       <c r="J126" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4820,13 +4858,13 @@
         <v>-64144.8131</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>803</v>
       </c>
       <c r="J127" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4861,13 +4899,13 @@
         <v>-64144.8131</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>804</v>
       </c>
       <c r="J128" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4902,13 +4940,13 @@
         <v>-63317.4154</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>804</v>
       </c>
       <c r="J129" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4943,13 +4981,13 @@
         <v>-63238.2854</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>807</v>
       </c>
       <c r="J130" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4984,13 +5022,13 @@
         <v>-63238.2854</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>810</v>
       </c>
       <c r="J131" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5025,13 +5063,13 @@
         <v>-63238.2854</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>810</v>
       </c>
       <c r="J132" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5066,13 +5104,13 @@
         <v>-63921.3658</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>810</v>
       </c>
       <c r="J133" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5107,13 +5145,13 @@
         <v>-63872.6838</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>808</v>
       </c>
       <c r="J134" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5148,13 +5186,13 @@
         <v>-63517.9838</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>810</v>
       </c>
       <c r="J135" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5189,13 +5227,13 @@
         <v>-63169.8608</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>812</v>
       </c>
       <c r="J136" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5230,13 +5268,11 @@
         <v>-61120.79990000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5271,13 +5307,11 @@
         <v>-61120.79990000001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5312,13 +5346,11 @@
         <v>-58940.79990000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5353,13 +5385,11 @@
         <v>-56431.7035</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5394,13 +5424,11 @@
         <v>-56104.96350000001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5435,13 +5463,11 @@
         <v>-53933.63360000001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5476,13 +5502,11 @@
         <v>-57465.31840000001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5521,7 +5545,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5560,7 +5584,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5599,7 +5623,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5638,7 +5662,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5677,7 +5701,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5716,7 +5740,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5755,7 +5779,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5794,7 +5818,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5833,7 +5857,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5872,7 +5896,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5911,7 +5935,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5950,7 +5974,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5989,7 +6013,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6028,7 +6052,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6067,7 +6091,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6106,7 +6130,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6145,7 +6169,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6184,7 +6208,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6223,7 +6247,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6262,7 +6286,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6301,7 +6325,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6340,7 +6364,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6379,7 +6403,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6418,7 +6442,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6457,7 +6481,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6496,7 +6520,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6535,7 +6559,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6574,7 +6598,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6613,7 +6637,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6652,7 +6676,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6691,7 +6715,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6730,7 +6754,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6769,7 +6793,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6808,7 +6832,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6847,7 +6871,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6886,7 +6910,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6925,7 +6949,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6960,23 +6984,21 @@
         <v>4833.294088958321</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1.199234122042341</v>
-      </c>
-      <c r="M181" t="n">
-        <v>1.067331670822943</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7004,8 +7026,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>802</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +7062,17 @@
         <v>-874.2634110416784</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>802</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +7101,17 @@
         <v>-1119.139711041678</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>802</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +7140,17 @@
         <v>179.2287889583217</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>802</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7136,8 +7182,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>802</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7166,11 +7218,17 @@
         <v>-1172.307711041678</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>802</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +7257,17 @@
         <v>-4284.303500000011</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>802</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +7299,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>802</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7268,8 +7338,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>802</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +7374,17 @@
         <v>-11132.71700000001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>802</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7416,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>802</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7367,8 +7455,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>802</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7400,8 +7494,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>802</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7433,8 +7533,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>802</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7463,15 +7569,23 @@
         <v>-14442.85660000001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>802</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>1.173304239401496</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.067331670822943</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7628,7 +7742,7 @@
         <v>-14358.27240000001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7661,7 +7775,7 @@
         <v>-16450.93630000002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7694,7 +7808,7 @@
         <v>-16450.93630000002</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7727,7 +7841,7 @@
         <v>-17566.78210000001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7760,7 +7874,7 @@
         <v>-24519.27230000002</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7793,7 +7907,7 @@
         <v>-18692.52320000001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7826,7 +7940,7 @@
         <v>-18974.62880000001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7859,7 +7973,7 @@
         <v>-20059.82040000001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7892,7 +8006,7 @@
         <v>-22488.94760000001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7925,7 +8039,7 @@
         <v>-22397.57760000001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7958,7 +8072,7 @@
         <v>-22368.34760000001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8090,7 +8204,7 @@
         <v>-19028.06780000002</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8156,7 +8270,7 @@
         <v>-19568.19430000001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8189,7 +8303,7 @@
         <v>-18416.33430000001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8222,7 +8336,7 @@
         <v>-19550.83360000001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8255,7 +8369,7 @@
         <v>-19412.13360000001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8288,7 +8402,7 @@
         <v>-20113.07820000001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8321,7 +8435,7 @@
         <v>-19076.37740000001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8354,7 +8468,7 @@
         <v>-19688.75340000001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8387,7 +8501,7 @@
         <v>-20229.76260000001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8420,7 +8534,7 @@
         <v>-20427.24820000001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8453,7 +8567,7 @@
         <v>-20655.47460000001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8486,7 +8600,7 @@
         <v>-21297.00950000001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8519,7 +8633,7 @@
         <v>-22225.39010000001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8552,7 +8666,7 @@
         <v>-22225.39010000001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8585,7 +8699,7 @@
         <v>-39420.53170000001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8618,7 +8732,7 @@
         <v>-46333.9408</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8651,7 +8765,7 @@
         <v>-46333.9408</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8684,7 +8798,7 @@
         <v>-53823.92080000001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8816,7 +8930,7 @@
         <v>-48377.49220000001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8915,7 +9029,7 @@
         <v>-47727.26920000001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8948,7 +9062,7 @@
         <v>-46914.92670000001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8981,7 +9095,7 @@
         <v>-47107.00840000001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9718,6 +9832,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3322,14 +3322,10 @@
         <v>-47539.28990000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>802</v>
-      </c>
-      <c r="J89" t="n">
-        <v>802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,1764 +3355,1518 @@
         <v>-47542.28990000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>802</v>
+      </c>
+      <c r="C91" t="n">
+        <v>802</v>
+      </c>
+      <c r="D91" t="n">
+        <v>802</v>
+      </c>
+      <c r="E91" t="n">
+        <v>802</v>
+      </c>
+      <c r="F91" t="n">
+        <v>60</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-47602.28990000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>806</v>
       </c>
-      <c r="J90" t="n">
+      <c r="C92" t="n">
+        <v>806</v>
+      </c>
+      <c r="D92" t="n">
+        <v>806</v>
+      </c>
+      <c r="E92" t="n">
+        <v>806</v>
+      </c>
+      <c r="F92" t="n">
+        <v>500</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-47102.28990000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>803</v>
+      </c>
+      <c r="C93" t="n">
+        <v>803</v>
+      </c>
+      <c r="D93" t="n">
+        <v>803</v>
+      </c>
+      <c r="E93" t="n">
+        <v>803</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-47103.28990000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>802</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="C94" t="n">
+        <v>802</v>
+      </c>
+      <c r="D94" t="n">
+        <v>802</v>
+      </c>
+      <c r="E94" t="n">
+        <v>802</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-47104.28990000001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>805</v>
+      </c>
+      <c r="C95" t="n">
+        <v>805</v>
+      </c>
+      <c r="D95" t="n">
+        <v>805</v>
+      </c>
+      <c r="E95" t="n">
+        <v>805</v>
+      </c>
+      <c r="F95" t="n">
+        <v>127.9925</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-46976.29740000001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>803</v>
+      </c>
+      <c r="C96" t="n">
+        <v>803</v>
+      </c>
+      <c r="D96" t="n">
+        <v>803</v>
+      </c>
+      <c r="E96" t="n">
+        <v>803</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-46977.29740000001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>803</v>
+      </c>
+      <c r="C97" t="n">
+        <v>799</v>
+      </c>
+      <c r="D97" t="n">
+        <v>803</v>
+      </c>
+      <c r="E97" t="n">
+        <v>799</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-49977.29740000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>801</v>
+      </c>
+      <c r="C98" t="n">
+        <v>800</v>
+      </c>
+      <c r="D98" t="n">
+        <v>801</v>
+      </c>
+      <c r="E98" t="n">
+        <v>800</v>
+      </c>
+      <c r="F98" t="n">
+        <v>164.5221</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-49812.77530000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>804</v>
+      </c>
+      <c r="C99" t="n">
+        <v>806</v>
+      </c>
+      <c r="D99" t="n">
+        <v>806</v>
+      </c>
+      <c r="E99" t="n">
+        <v>804</v>
+      </c>
+      <c r="F99" t="n">
+        <v>167.7426</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-49645.03270000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>806</v>
+      </c>
+      <c r="C100" t="n">
+        <v>806</v>
+      </c>
+      <c r="D100" t="n">
+        <v>807</v>
+      </c>
+      <c r="E100" t="n">
+        <v>806</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1325.6244</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-49645.03270000001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>803</v>
+      </c>
+      <c r="C101" t="n">
+        <v>815</v>
+      </c>
+      <c r="D101" t="n">
+        <v>815</v>
+      </c>
+      <c r="E101" t="n">
+        <v>803</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-49638.03270000001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>799</v>
+      </c>
+      <c r="C102" t="n">
+        <v>824</v>
+      </c>
+      <c r="D102" t="n">
+        <v>824</v>
+      </c>
+      <c r="E102" t="n">
+        <v>799</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-49635.03270000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>802</v>
+      </c>
+      <c r="C103" t="n">
+        <v>801</v>
+      </c>
+      <c r="D103" t="n">
+        <v>802</v>
+      </c>
+      <c r="E103" t="n">
+        <v>801</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6043.4981</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-55678.53080000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>809</v>
+      </c>
+      <c r="C104" t="n">
+        <v>809</v>
+      </c>
+      <c r="D104" t="n">
+        <v>809</v>
+      </c>
+      <c r="E104" t="n">
+        <v>809</v>
+      </c>
+      <c r="F104" t="n">
+        <v>236</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-55442.53080000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>803</v>
+      </c>
+      <c r="C105" t="n">
+        <v>802</v>
+      </c>
+      <c r="D105" t="n">
+        <v>803</v>
+      </c>
+      <c r="E105" t="n">
+        <v>802</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1389.7236</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-56832.25440000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>803</v>
+      </c>
+      <c r="C106" t="n">
+        <v>803</v>
+      </c>
+      <c r="D106" t="n">
+        <v>803</v>
+      </c>
+      <c r="E106" t="n">
+        <v>803</v>
+      </c>
+      <c r="F106" t="n">
+        <v>36</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-56796.25440000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>803</v>
+      </c>
+      <c r="C107" t="n">
+        <v>803</v>
+      </c>
+      <c r="D107" t="n">
+        <v>803</v>
+      </c>
+      <c r="E107" t="n">
+        <v>803</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-56796.25440000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>811</v>
+      </c>
+      <c r="C108" t="n">
+        <v>811</v>
+      </c>
+      <c r="D108" t="n">
+        <v>811</v>
+      </c>
+      <c r="E108" t="n">
+        <v>811</v>
+      </c>
+      <c r="F108" t="n">
+        <v>281.2626</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-56514.9918</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>811</v>
+      </c>
+      <c r="C109" t="n">
+        <v>811</v>
+      </c>
+      <c r="D109" t="n">
+        <v>811</v>
+      </c>
+      <c r="E109" t="n">
+        <v>811</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.1479</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-56514.9918</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>811</v>
+      </c>
+      <c r="C110" t="n">
+        <v>812</v>
+      </c>
+      <c r="D110" t="n">
+        <v>812</v>
+      </c>
+      <c r="E110" t="n">
+        <v>811</v>
+      </c>
+      <c r="F110" t="n">
+        <v>77</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-56437.9918</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>814</v>
+      </c>
+      <c r="C111" t="n">
+        <v>813</v>
+      </c>
+      <c r="D111" t="n">
+        <v>814</v>
+      </c>
+      <c r="E111" t="n">
+        <v>813</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1025.1076</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-55412.8842</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>810</v>
+      </c>
+      <c r="C112" t="n">
+        <v>810</v>
+      </c>
+      <c r="D112" t="n">
+        <v>810</v>
+      </c>
+      <c r="E112" t="n">
+        <v>810</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-55427.8842</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>812</v>
+      </c>
+      <c r="C113" t="n">
+        <v>812</v>
+      </c>
+      <c r="D113" t="n">
+        <v>812</v>
+      </c>
+      <c r="E113" t="n">
+        <v>812</v>
+      </c>
+      <c r="F113" t="n">
+        <v>40</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-55387.8842</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>808</v>
+      </c>
+      <c r="C114" t="n">
+        <v>812</v>
+      </c>
+      <c r="D114" t="n">
+        <v>812</v>
+      </c>
+      <c r="E114" t="n">
+        <v>808</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20.2407</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-55387.8842</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>814</v>
+      </c>
+      <c r="C115" t="n">
+        <v>814</v>
+      </c>
+      <c r="D115" t="n">
+        <v>814</v>
+      </c>
+      <c r="E115" t="n">
+        <v>814</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.753</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-55385.1312</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>809</v>
+      </c>
+      <c r="C116" t="n">
+        <v>809</v>
+      </c>
+      <c r="D116" t="n">
+        <v>809</v>
+      </c>
+      <c r="E116" t="n">
+        <v>809</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12.9937</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-55398.1249</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>808</v>
+      </c>
+      <c r="C117" t="n">
+        <v>808</v>
+      </c>
+      <c r="D117" t="n">
+        <v>808</v>
+      </c>
+      <c r="E117" t="n">
+        <v>808</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-55418.1249</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>812</v>
+      </c>
+      <c r="C118" t="n">
+        <v>807</v>
+      </c>
+      <c r="D118" t="n">
+        <v>812</v>
+      </c>
+      <c r="E118" t="n">
+        <v>807</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2252.2321</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-57670.357</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>808</v>
+      </c>
+      <c r="C119" t="n">
+        <v>806</v>
+      </c>
+      <c r="D119" t="n">
+        <v>808</v>
+      </c>
+      <c r="E119" t="n">
+        <v>806</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5547.2964</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-63217.6534</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>811</v>
+      </c>
+      <c r="C120" t="n">
+        <v>811</v>
+      </c>
+      <c r="D120" t="n">
+        <v>811</v>
+      </c>
+      <c r="E120" t="n">
+        <v>811</v>
+      </c>
+      <c r="F120" t="n">
+        <v>67.9999</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-63149.6535</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>811</v>
+      </c>
+      <c r="C121" t="n">
+        <v>811</v>
+      </c>
+      <c r="D121" t="n">
+        <v>811</v>
+      </c>
+      <c r="E121" t="n">
+        <v>811</v>
+      </c>
+      <c r="F121" t="n">
+        <v>191.3407</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-63149.6535</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>811</v>
+      </c>
+      <c r="J121" t="n">
+        <v>811</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>805</v>
+      </c>
+      <c r="C122" t="n">
+        <v>805</v>
+      </c>
+      <c r="D122" t="n">
+        <v>805</v>
+      </c>
+      <c r="E122" t="n">
+        <v>805</v>
+      </c>
+      <c r="F122" t="n">
+        <v>65</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-63214.6535</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>811</v>
+      </c>
+      <c r="J122" t="n">
+        <v>811</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>802</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C123" t="n">
         <v>802</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D123" t="n">
         <v>802</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E123" t="n">
         <v>802</v>
       </c>
-      <c r="F91" t="n">
-        <v>60</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-47602.28990000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="F123" t="n">
+        <v>10.476</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-63225.1295</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
         <v>805</v>
       </c>
-      <c r="J91" t="n">
-        <v>802</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="J123" t="n">
+        <v>811</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>806</v>
-      </c>
-      <c r="C92" t="n">
-        <v>806</v>
-      </c>
-      <c r="D92" t="n">
-        <v>806</v>
-      </c>
-      <c r="E92" t="n">
-        <v>806</v>
-      </c>
-      <c r="F92" t="n">
-        <v>500</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-47102.28990000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>802</v>
       </c>
-      <c r="J92" t="n">
+      <c r="C124" t="n">
         <v>802</v>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>803</v>
-      </c>
-      <c r="C93" t="n">
-        <v>803</v>
-      </c>
-      <c r="D93" t="n">
-        <v>803</v>
-      </c>
-      <c r="E93" t="n">
-        <v>803</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-47103.28990000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>806</v>
-      </c>
-      <c r="J93" t="n">
+      <c r="D124" t="n">
         <v>802</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="E124" t="n">
+        <v>802</v>
+      </c>
+      <c r="F124" t="n">
+        <v>86.28</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-63225.1295</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>802</v>
+      </c>
+      <c r="J124" t="n">
+        <v>802</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>808</v>
+      </c>
+      <c r="C125" t="n">
+        <v>808</v>
+      </c>
+      <c r="D125" t="n">
+        <v>808</v>
+      </c>
+      <c r="E125" t="n">
+        <v>808</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-63220.1295</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>802</v>
+      </c>
+      <c r="J125" t="n">
+        <v>802</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>804</v>
+      </c>
+      <c r="C126" t="n">
+        <v>803</v>
+      </c>
+      <c r="D126" t="n">
+        <v>804</v>
+      </c>
+      <c r="E126" t="n">
+        <v>803</v>
+      </c>
+      <c r="F126" t="n">
+        <v>929.6836</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-64149.8131</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>808</v>
+      </c>
+      <c r="J126" t="n">
         <v>802</v>
       </c>
-      <c r="C94" t="n">
-        <v>802</v>
-      </c>
-      <c r="D94" t="n">
-        <v>802</v>
-      </c>
-      <c r="E94" t="n">
-        <v>802</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-47104.28990000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>803</v>
-      </c>
-      <c r="J94" t="n">
-        <v>802</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>805</v>
-      </c>
-      <c r="C95" t="n">
-        <v>805</v>
-      </c>
-      <c r="D95" t="n">
-        <v>805</v>
-      </c>
-      <c r="E95" t="n">
-        <v>805</v>
-      </c>
-      <c r="F95" t="n">
-        <v>127.9925</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-46976.29740000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>802</v>
-      </c>
-      <c r="J95" t="n">
-        <v>802</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>804</v>
+      </c>
+      <c r="C127" t="n">
+        <v>804</v>
+      </c>
+      <c r="D127" t="n">
+        <v>804</v>
+      </c>
+      <c r="E127" t="n">
+        <v>804</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-64144.8131</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
         <v>803</v>
       </c>
-      <c r="C96" t="n">
+      <c r="J127" t="n">
         <v>803</v>
       </c>
-      <c r="D96" t="n">
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>804</v>
+      </c>
+      <c r="C128" t="n">
+        <v>804</v>
+      </c>
+      <c r="D128" t="n">
+        <v>804</v>
+      </c>
+      <c r="E128" t="n">
+        <v>804</v>
+      </c>
+      <c r="F128" t="n">
+        <v>83.2199</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-64144.8131</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>804</v>
+      </c>
+      <c r="J128" t="n">
         <v>803</v>
       </c>
-      <c r="E96" t="n">
-        <v>803</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-46977.29740000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>805</v>
-      </c>
-      <c r="J96" t="n">
-        <v>802</v>
-      </c>
-      <c r="K96" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>806</v>
+      </c>
+      <c r="C129" t="n">
+        <v>807</v>
+      </c>
+      <c r="D129" t="n">
+        <v>807</v>
+      </c>
+      <c r="E129" t="n">
+        <v>806</v>
+      </c>
+      <c r="F129" t="n">
+        <v>827.3977</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-63317.4154</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>804</v>
+      </c>
+      <c r="J129" t="n">
         <v>803</v>
       </c>
-      <c r="C97" t="n">
-        <v>799</v>
-      </c>
-      <c r="D97" t="n">
-        <v>803</v>
-      </c>
-      <c r="E97" t="n">
-        <v>799</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-49977.29740000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>803</v>
-      </c>
-      <c r="J97" t="n">
-        <v>802</v>
-      </c>
-      <c r="K97" t="inlineStr">
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>810</v>
+      </c>
+      <c r="C130" t="n">
+        <v>810</v>
+      </c>
+      <c r="D130" t="n">
+        <v>810</v>
+      </c>
+      <c r="E130" t="n">
+        <v>810</v>
+      </c>
+      <c r="F130" t="n">
+        <v>79.13</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-63238.2854</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>807</v>
+      </c>
+      <c r="J130" t="n">
+        <v>807</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>810</v>
+      </c>
+      <c r="C131" t="n">
+        <v>810</v>
+      </c>
+      <c r="D131" t="n">
+        <v>810</v>
+      </c>
+      <c r="E131" t="n">
+        <v>810</v>
+      </c>
+      <c r="F131" t="n">
+        <v>195.9459</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-63238.2854</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>810</v>
+      </c>
+      <c r="J131" t="n">
+        <v>807</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>810</v>
+      </c>
+      <c r="C132" t="n">
+        <v>810</v>
+      </c>
+      <c r="D132" t="n">
+        <v>810</v>
+      </c>
+      <c r="E132" t="n">
+        <v>810</v>
+      </c>
+      <c r="F132" t="n">
+        <v>755.0328</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-63238.2854</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>810</v>
+      </c>
+      <c r="J132" t="n">
+        <v>807</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>808</v>
+      </c>
+      <c r="C133" t="n">
+        <v>808</v>
+      </c>
+      <c r="D133" t="n">
+        <v>808</v>
+      </c>
+      <c r="E133" t="n">
+        <v>807</v>
+      </c>
+      <c r="F133" t="n">
+        <v>683.0804000000001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-63921.3658</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>810</v>
+      </c>
+      <c r="J133" t="n">
+        <v>807</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>801</v>
-      </c>
-      <c r="C98" t="n">
-        <v>800</v>
-      </c>
-      <c r="D98" t="n">
-        <v>801</v>
-      </c>
-      <c r="E98" t="n">
-        <v>800</v>
-      </c>
-      <c r="F98" t="n">
-        <v>164.5221</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-49812.77530000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>799</v>
-      </c>
-      <c r="J98" t="n">
-        <v>802</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>804</v>
-      </c>
-      <c r="C99" t="n">
-        <v>806</v>
-      </c>
-      <c r="D99" t="n">
-        <v>806</v>
-      </c>
-      <c r="E99" t="n">
-        <v>804</v>
-      </c>
-      <c r="F99" t="n">
-        <v>167.7426</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-49645.03270000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>800</v>
-      </c>
-      <c r="J99" t="n">
-        <v>802</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>806</v>
-      </c>
-      <c r="C100" t="n">
-        <v>806</v>
-      </c>
-      <c r="D100" t="n">
-        <v>807</v>
-      </c>
-      <c r="E100" t="n">
-        <v>806</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1325.6244</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-49645.03270000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>806</v>
-      </c>
-      <c r="J100" t="n">
-        <v>802</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>803</v>
-      </c>
-      <c r="C101" t="n">
-        <v>815</v>
-      </c>
-      <c r="D101" t="n">
-        <v>815</v>
-      </c>
-      <c r="E101" t="n">
-        <v>803</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-49638.03270000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>806</v>
-      </c>
-      <c r="J101" t="n">
-        <v>802</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>799</v>
-      </c>
-      <c r="C102" t="n">
-        <v>824</v>
-      </c>
-      <c r="D102" t="n">
-        <v>824</v>
-      </c>
-      <c r="E102" t="n">
-        <v>799</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-49635.03270000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>815</v>
-      </c>
-      <c r="J102" t="n">
-        <v>802</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>802</v>
-      </c>
-      <c r="C103" t="n">
-        <v>801</v>
-      </c>
-      <c r="D103" t="n">
-        <v>802</v>
-      </c>
-      <c r="E103" t="n">
-        <v>801</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6043.4981</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-55678.53080000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>824</v>
-      </c>
-      <c r="J103" t="n">
-        <v>802</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>809</v>
-      </c>
-      <c r="C104" t="n">
-        <v>809</v>
-      </c>
-      <c r="D104" t="n">
-        <v>809</v>
-      </c>
-      <c r="E104" t="n">
-        <v>809</v>
-      </c>
-      <c r="F104" t="n">
-        <v>236</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-55442.53080000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>801</v>
-      </c>
-      <c r="J104" t="n">
-        <v>802</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>803</v>
-      </c>
-      <c r="C105" t="n">
-        <v>802</v>
-      </c>
-      <c r="D105" t="n">
-        <v>803</v>
-      </c>
-      <c r="E105" t="n">
-        <v>802</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1389.7236</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-56832.25440000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>809</v>
-      </c>
-      <c r="J105" t="n">
-        <v>802</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>803</v>
-      </c>
-      <c r="C106" t="n">
-        <v>803</v>
-      </c>
-      <c r="D106" t="n">
-        <v>803</v>
-      </c>
-      <c r="E106" t="n">
-        <v>803</v>
-      </c>
-      <c r="F106" t="n">
-        <v>36</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-56796.25440000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>802</v>
-      </c>
-      <c r="J106" t="n">
-        <v>802</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>803</v>
-      </c>
-      <c r="C107" t="n">
-        <v>803</v>
-      </c>
-      <c r="D107" t="n">
-        <v>803</v>
-      </c>
-      <c r="E107" t="n">
-        <v>803</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.9872</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-56796.25440000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>803</v>
-      </c>
-      <c r="J107" t="n">
-        <v>802</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>811</v>
-      </c>
-      <c r="C108" t="n">
-        <v>811</v>
-      </c>
-      <c r="D108" t="n">
-        <v>811</v>
-      </c>
-      <c r="E108" t="n">
-        <v>811</v>
-      </c>
-      <c r="F108" t="n">
-        <v>281.2626</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-56514.9918</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>803</v>
-      </c>
-      <c r="J108" t="n">
-        <v>802</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>811</v>
-      </c>
-      <c r="C109" t="n">
-        <v>811</v>
-      </c>
-      <c r="D109" t="n">
-        <v>811</v>
-      </c>
-      <c r="E109" t="n">
-        <v>811</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4.1479</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-56514.9918</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>811</v>
-      </c>
-      <c r="J109" t="n">
-        <v>802</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>811</v>
-      </c>
-      <c r="C110" t="n">
-        <v>812</v>
-      </c>
-      <c r="D110" t="n">
-        <v>812</v>
-      </c>
-      <c r="E110" t="n">
-        <v>811</v>
-      </c>
-      <c r="F110" t="n">
-        <v>77</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-56437.9918</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>811</v>
-      </c>
-      <c r="J110" t="n">
-        <v>802</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>814</v>
-      </c>
-      <c r="C111" t="n">
-        <v>813</v>
-      </c>
-      <c r="D111" t="n">
-        <v>814</v>
-      </c>
-      <c r="E111" t="n">
-        <v>813</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1025.1076</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-55412.8842</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>812</v>
-      </c>
-      <c r="J111" t="n">
-        <v>802</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>810</v>
-      </c>
-      <c r="C112" t="n">
-        <v>810</v>
-      </c>
-      <c r="D112" t="n">
-        <v>810</v>
-      </c>
-      <c r="E112" t="n">
-        <v>810</v>
-      </c>
-      <c r="F112" t="n">
-        <v>15</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-55427.8842</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>813</v>
-      </c>
-      <c r="J112" t="n">
-        <v>802</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>812</v>
-      </c>
-      <c r="C113" t="n">
-        <v>812</v>
-      </c>
-      <c r="D113" t="n">
-        <v>812</v>
-      </c>
-      <c r="E113" t="n">
-        <v>812</v>
-      </c>
-      <c r="F113" t="n">
-        <v>40</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-55387.8842</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>810</v>
-      </c>
-      <c r="J113" t="n">
-        <v>802</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>808</v>
-      </c>
-      <c r="C114" t="n">
-        <v>812</v>
-      </c>
-      <c r="D114" t="n">
-        <v>812</v>
-      </c>
-      <c r="E114" t="n">
-        <v>808</v>
-      </c>
-      <c r="F114" t="n">
-        <v>20.2407</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-55387.8842</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>812</v>
-      </c>
-      <c r="J114" t="n">
-        <v>802</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>814</v>
-      </c>
-      <c r="C115" t="n">
-        <v>814</v>
-      </c>
-      <c r="D115" t="n">
-        <v>814</v>
-      </c>
-      <c r="E115" t="n">
-        <v>814</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2.753</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-55385.1312</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>812</v>
-      </c>
-      <c r="J115" t="n">
-        <v>802</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>809</v>
-      </c>
-      <c r="C116" t="n">
-        <v>809</v>
-      </c>
-      <c r="D116" t="n">
-        <v>809</v>
-      </c>
-      <c r="E116" t="n">
-        <v>809</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12.9937</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-55398.1249</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>814</v>
-      </c>
-      <c r="J116" t="n">
-        <v>802</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>808</v>
-      </c>
-      <c r="C117" t="n">
-        <v>808</v>
-      </c>
-      <c r="D117" t="n">
-        <v>808</v>
-      </c>
-      <c r="E117" t="n">
-        <v>808</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-55418.1249</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>809</v>
-      </c>
-      <c r="J117" t="n">
-        <v>802</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>812</v>
-      </c>
-      <c r="C118" t="n">
-        <v>807</v>
-      </c>
-      <c r="D118" t="n">
-        <v>812</v>
-      </c>
-      <c r="E118" t="n">
-        <v>807</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2252.2321</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-57670.357</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>808</v>
-      </c>
-      <c r="J118" t="n">
-        <v>802</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>808</v>
-      </c>
-      <c r="C119" t="n">
-        <v>806</v>
-      </c>
-      <c r="D119" t="n">
-        <v>808</v>
-      </c>
-      <c r="E119" t="n">
-        <v>806</v>
-      </c>
-      <c r="F119" t="n">
-        <v>5547.2964</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-63217.6534</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>802</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>811</v>
-      </c>
-      <c r="C120" t="n">
-        <v>811</v>
-      </c>
-      <c r="D120" t="n">
-        <v>811</v>
-      </c>
-      <c r="E120" t="n">
-        <v>811</v>
-      </c>
-      <c r="F120" t="n">
-        <v>67.9999</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-63149.6535</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>802</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>811</v>
-      </c>
-      <c r="C121" t="n">
-        <v>811</v>
-      </c>
-      <c r="D121" t="n">
-        <v>811</v>
-      </c>
-      <c r="E121" t="n">
-        <v>811</v>
-      </c>
-      <c r="F121" t="n">
-        <v>191.3407</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-63149.6535</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>802</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>805</v>
-      </c>
-      <c r="C122" t="n">
-        <v>805</v>
-      </c>
-      <c r="D122" t="n">
-        <v>805</v>
-      </c>
-      <c r="E122" t="n">
-        <v>805</v>
-      </c>
-      <c r="F122" t="n">
-        <v>65</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-63214.6535</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>802</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>802</v>
-      </c>
-      <c r="C123" t="n">
-        <v>802</v>
-      </c>
-      <c r="D123" t="n">
-        <v>802</v>
-      </c>
-      <c r="E123" t="n">
-        <v>802</v>
-      </c>
-      <c r="F123" t="n">
-        <v>10.476</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-63225.1295</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>802</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>802</v>
-      </c>
-      <c r="C124" t="n">
-        <v>802</v>
-      </c>
-      <c r="D124" t="n">
-        <v>802</v>
-      </c>
-      <c r="E124" t="n">
-        <v>802</v>
-      </c>
-      <c r="F124" t="n">
-        <v>86.28</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-63225.1295</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>802</v>
-      </c>
-      <c r="J124" t="n">
-        <v>802</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>808</v>
-      </c>
-      <c r="C125" t="n">
-        <v>808</v>
-      </c>
-      <c r="D125" t="n">
-        <v>808</v>
-      </c>
-      <c r="E125" t="n">
-        <v>808</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-63220.1295</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>802</v>
-      </c>
-      <c r="J125" t="n">
-        <v>802</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>804</v>
-      </c>
-      <c r="C126" t="n">
-        <v>803</v>
-      </c>
-      <c r="D126" t="n">
-        <v>804</v>
-      </c>
-      <c r="E126" t="n">
-        <v>803</v>
-      </c>
-      <c r="F126" t="n">
-        <v>929.6836</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-64149.8131</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>808</v>
-      </c>
-      <c r="J126" t="n">
-        <v>802</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>804</v>
-      </c>
-      <c r="C127" t="n">
-        <v>804</v>
-      </c>
-      <c r="D127" t="n">
-        <v>804</v>
-      </c>
-      <c r="E127" t="n">
-        <v>804</v>
-      </c>
-      <c r="F127" t="n">
-        <v>5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-64144.8131</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>803</v>
-      </c>
-      <c r="J127" t="n">
-        <v>802</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>804</v>
-      </c>
-      <c r="C128" t="n">
-        <v>804</v>
-      </c>
-      <c r="D128" t="n">
-        <v>804</v>
-      </c>
-      <c r="E128" t="n">
-        <v>804</v>
-      </c>
-      <c r="F128" t="n">
-        <v>83.2199</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-64144.8131</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>804</v>
-      </c>
-      <c r="J128" t="n">
-        <v>802</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>806</v>
-      </c>
-      <c r="C129" t="n">
-        <v>807</v>
-      </c>
-      <c r="D129" t="n">
-        <v>807</v>
-      </c>
-      <c r="E129" t="n">
-        <v>806</v>
-      </c>
-      <c r="F129" t="n">
-        <v>827.3977</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-63317.4154</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>804</v>
-      </c>
-      <c r="J129" t="n">
-        <v>802</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>810</v>
-      </c>
-      <c r="C130" t="n">
-        <v>810</v>
-      </c>
-      <c r="D130" t="n">
-        <v>810</v>
-      </c>
-      <c r="E130" t="n">
-        <v>810</v>
-      </c>
-      <c r="F130" t="n">
-        <v>79.13</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-63238.2854</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>807</v>
-      </c>
-      <c r="J130" t="n">
-        <v>802</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>810</v>
-      </c>
-      <c r="C131" t="n">
-        <v>810</v>
-      </c>
-      <c r="D131" t="n">
-        <v>810</v>
-      </c>
-      <c r="E131" t="n">
-        <v>810</v>
-      </c>
-      <c r="F131" t="n">
-        <v>195.9459</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-63238.2854</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>810</v>
-      </c>
-      <c r="J131" t="n">
-        <v>802</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>810</v>
-      </c>
-      <c r="C132" t="n">
-        <v>810</v>
-      </c>
-      <c r="D132" t="n">
-        <v>810</v>
-      </c>
-      <c r="E132" t="n">
-        <v>810</v>
-      </c>
-      <c r="F132" t="n">
-        <v>755.0328</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-63238.2854</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>810</v>
-      </c>
-      <c r="J132" t="n">
-        <v>802</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>808</v>
-      </c>
-      <c r="C133" t="n">
-        <v>808</v>
-      </c>
-      <c r="D133" t="n">
-        <v>808</v>
-      </c>
-      <c r="E133" t="n">
-        <v>807</v>
-      </c>
-      <c r="F133" t="n">
-        <v>683.0804000000001</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-63921.3658</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>810</v>
-      </c>
-      <c r="J133" t="n">
-        <v>802</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5151,7 +4901,7 @@
         <v>808</v>
       </c>
       <c r="J134" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5192,7 +4942,7 @@
         <v>810</v>
       </c>
       <c r="J135" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5233,7 +4983,7 @@
         <v>812</v>
       </c>
       <c r="J136" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5268,11 +5018,13 @@
         <v>-61120.79990000001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>815</v>
+      </c>
       <c r="J137" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5307,11 +5059,13 @@
         <v>-61120.79990000001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>825</v>
+      </c>
       <c r="J138" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5346,11 +5100,13 @@
         <v>-58940.79990000001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>825</v>
+      </c>
       <c r="J139" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5389,7 +5145,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5428,7 +5184,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5467,7 +5223,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5506,7 +5262,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5545,7 +5301,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5584,7 +5340,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5623,7 +5379,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5662,7 +5418,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5701,7 +5457,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5740,7 +5496,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5779,7 +5535,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5818,7 +5574,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5857,7 +5613,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5896,7 +5652,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5935,7 +5691,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5974,7 +5730,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6013,7 +5769,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6052,7 +5808,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6091,7 +5847,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6130,7 +5886,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6169,7 +5925,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6208,7 +5964,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6247,7 +6003,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6286,7 +6042,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6325,7 +6081,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6364,7 +6120,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6403,7 +6159,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6442,7 +6198,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6481,7 +6237,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6520,7 +6276,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6559,7 +6315,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6594,21 +6350,23 @@
         <v>-39622.65760000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>1.097850061957869</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.071339173967459</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6633,17 +6391,11 @@
         <v>-34295.22110000001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>802</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6672,17 +6424,11 @@
         <v>-35104.06150000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>802</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6711,17 +6457,11 @@
         <v>-34990.06150000001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>802</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6750,17 +6490,11 @@
         <v>-28750.22590000001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>802</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6789,17 +6523,11 @@
         <v>-24900.26490000001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>802</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6828,17 +6556,11 @@
         <v>-20632.50150000001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>802</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6867,17 +6589,11 @@
         <v>-9131.030900000012</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>802</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6909,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>802</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6948,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>802</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6987,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>802</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7026,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>802</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7065,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>802</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7104,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>802</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7143,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>802</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7182,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>802</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7221,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>802</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7260,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>802</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7299,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>802</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7338,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>802</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7377,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>802</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7416,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>802</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7455,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>802</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7494,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>802</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7533,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>802</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7569,23 +7183,15 @@
         <v>-14442.85660000001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>802</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>1.173304239401496</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1.067331670822943</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7742,7 +7348,7 @@
         <v>-14358.27240000001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7775,7 +7381,7 @@
         <v>-16450.93630000002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7808,7 +7414,7 @@
         <v>-16450.93630000002</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7841,7 +7447,7 @@
         <v>-17566.78210000001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7874,7 +7480,7 @@
         <v>-24519.27230000002</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8006,7 +7612,7 @@
         <v>-22488.94760000001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8072,7 +7678,7 @@
         <v>-22368.34760000001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8204,7 +7810,7 @@
         <v>-19028.06780000002</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8270,7 +7876,7 @@
         <v>-19568.19430000001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8303,7 +7909,7 @@
         <v>-18416.33430000001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8336,7 +7942,7 @@
         <v>-19550.83360000001</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8369,7 +7975,7 @@
         <v>-19412.13360000001</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8402,7 +8008,7 @@
         <v>-20113.07820000001</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8435,7 +8041,7 @@
         <v>-19076.37740000001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8468,7 +8074,7 @@
         <v>-19688.75340000001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8501,7 +8107,7 @@
         <v>-20229.76260000001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8534,7 +8140,7 @@
         <v>-20427.24820000001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8567,7 +8173,7 @@
         <v>-20655.47460000001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8600,7 +8206,7 @@
         <v>-21297.00950000001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8633,7 +8239,7 @@
         <v>-22225.39010000001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8666,7 +8272,7 @@
         <v>-22225.39010000001</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8699,7 +8305,7 @@
         <v>-39420.53170000001</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8732,7 +8338,7 @@
         <v>-46333.9408</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8765,7 +8371,7 @@
         <v>-46333.9408</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8798,7 +8404,7 @@
         <v>-53823.92080000001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8930,7 +8536,7 @@
         <v>-48377.49220000001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9029,7 +8635,7 @@
         <v>-47727.26920000001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9062,7 +8668,7 @@
         <v>-46914.92670000001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9095,7 +8701,7 @@
         <v>-47107.00840000001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9832,6 +9438,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -4246,10 +4246,14 @@
         <v>-55418.1249</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>809</v>
+      </c>
+      <c r="J117" t="n">
+        <v>809</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4282,8 +4286,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>809</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4325,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>809</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4364,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>809</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +4400,17 @@
         <v>-63149.6535</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>811</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>809</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,17 +4439,15 @@
         <v>-63214.6535</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4456,17 +4478,15 @@
         <v>-63225.1295</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -4503,9 +4523,13 @@
         <v>802</v>
       </c>
       <c r="J124" t="n">
-        <v>802</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>809</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4540,11 +4564,11 @@
         <v>802</v>
       </c>
       <c r="J125" t="n">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4581,11 +4605,11 @@
         <v>808</v>
       </c>
       <c r="J126" t="n">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -4622,9 +4646,13 @@
         <v>803</v>
       </c>
       <c r="J127" t="n">
-        <v>803</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>809</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4659,11 +4687,11 @@
         <v>804</v>
       </c>
       <c r="J128" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4700,11 +4728,11 @@
         <v>804</v>
       </c>
       <c r="J129" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4741,9 +4769,13 @@
         <v>807</v>
       </c>
       <c r="J130" t="n">
-        <v>807</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+        <v>809</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4810,11 @@
         <v>810</v>
       </c>
       <c r="J131" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4819,11 +4851,11 @@
         <v>810</v>
       </c>
       <c r="J132" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4860,11 +4892,11 @@
         <v>810</v>
       </c>
       <c r="J133" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4901,7 +4933,7 @@
         <v>808</v>
       </c>
       <c r="J134" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4942,7 +4974,7 @@
         <v>810</v>
       </c>
       <c r="J135" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4983,7 +5015,7 @@
         <v>812</v>
       </c>
       <c r="J136" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5024,7 +5056,7 @@
         <v>815</v>
       </c>
       <c r="J137" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5065,7 +5097,7 @@
         <v>825</v>
       </c>
       <c r="J138" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5106,7 +5138,7 @@
         <v>825</v>
       </c>
       <c r="J139" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5145,7 +5177,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5180,11 +5212,13 @@
         <v>-56104.96350000001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>840</v>
+      </c>
       <c r="J141" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5223,7 +5257,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5262,7 +5296,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5301,7 +5335,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5340,7 +5374,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5379,7 +5413,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5418,7 +5452,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5457,7 +5491,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5496,7 +5530,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5535,7 +5569,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5574,7 +5608,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5613,7 +5647,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5652,7 +5686,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5691,7 +5725,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5730,7 +5764,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5769,7 +5803,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5808,7 +5842,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5847,7 +5881,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5886,7 +5920,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5925,7 +5959,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5964,7 +5998,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6003,7 +6037,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6042,7 +6076,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6081,7 +6115,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6120,7 +6154,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6159,7 +6193,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6198,7 +6232,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6237,7 +6271,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6276,7 +6310,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6315,7 +6349,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6350,320 +6384,374 @@
         <v>-39622.65760000001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>890</v>
+      </c>
+      <c r="C172" t="n">
+        <v>892</v>
+      </c>
+      <c r="D172" t="n">
+        <v>892</v>
+      </c>
+      <c r="E172" t="n">
+        <v>889</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5327.4365</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-34295.22110000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>809</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>893</v>
+      </c>
+      <c r="C173" t="n">
+        <v>889</v>
+      </c>
+      <c r="D173" t="n">
+        <v>893</v>
+      </c>
+      <c r="E173" t="n">
+        <v>889</v>
+      </c>
+      <c r="F173" t="n">
+        <v>808.8404</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-35104.06150000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>809</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>890</v>
+      </c>
+      <c r="C174" t="n">
+        <v>894</v>
+      </c>
+      <c r="D174" t="n">
+        <v>894</v>
+      </c>
+      <c r="E174" t="n">
+        <v>890</v>
+      </c>
+      <c r="F174" t="n">
+        <v>114</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-34990.06150000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>809</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>894</v>
+      </c>
+      <c r="C175" t="n">
+        <v>900</v>
+      </c>
+      <c r="D175" t="n">
+        <v>900</v>
+      </c>
+      <c r="E175" t="n">
+        <v>894</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6239.8356</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-28750.22590000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>809</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>900</v>
+      </c>
+      <c r="C176" t="n">
+        <v>908</v>
+      </c>
+      <c r="D176" t="n">
+        <v>908</v>
+      </c>
+      <c r="E176" t="n">
+        <v>899</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3849.961</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-24900.26490000001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>809</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>910</v>
+      </c>
+      <c r="C177" t="n">
+        <v>922</v>
+      </c>
+      <c r="D177" t="n">
+        <v>922</v>
+      </c>
+      <c r="E177" t="n">
+        <v>910</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4267.7634</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-20632.50150000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>809</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>925</v>
+      </c>
+      <c r="C178" t="n">
+        <v>955</v>
+      </c>
+      <c r="D178" t="n">
+        <v>955</v>
+      </c>
+      <c r="E178" t="n">
+        <v>925</v>
+      </c>
+      <c r="F178" t="n">
+        <v>11501.4706</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-9131.030900000012</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>809</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>959</v>
+      </c>
+      <c r="C179" t="n">
+        <v>960</v>
+      </c>
+      <c r="D179" t="n">
+        <v>960</v>
+      </c>
+      <c r="E179" t="n">
+        <v>955</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9502.975288958334</v>
+      </c>
+      <c r="G179" t="n">
+        <v>371.9443889583217</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>809</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>956</v>
+      </c>
+      <c r="C180" t="n">
+        <v>967</v>
+      </c>
+      <c r="D180" t="n">
+        <v>970</v>
+      </c>
+      <c r="E180" t="n">
+        <v>956</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4461.3497</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4833.294088958321</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>809</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1.097850061957869</v>
-      </c>
-      <c r="M171" t="n">
+      <c r="L180" t="n">
+        <v>1.190302843016069</v>
+      </c>
+      <c r="M180" t="n">
         <v>1.071339173967459</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>890</v>
-      </c>
-      <c r="C172" t="n">
-        <v>892</v>
-      </c>
-      <c r="D172" t="n">
-        <v>892</v>
-      </c>
-      <c r="E172" t="n">
-        <v>889</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5327.4365</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-34295.22110000001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>893</v>
-      </c>
-      <c r="C173" t="n">
-        <v>889</v>
-      </c>
-      <c r="D173" t="n">
-        <v>893</v>
-      </c>
-      <c r="E173" t="n">
-        <v>889</v>
-      </c>
-      <c r="F173" t="n">
-        <v>808.8404</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-35104.06150000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>890</v>
-      </c>
-      <c r="C174" t="n">
-        <v>894</v>
-      </c>
-      <c r="D174" t="n">
-        <v>894</v>
-      </c>
-      <c r="E174" t="n">
-        <v>890</v>
-      </c>
-      <c r="F174" t="n">
-        <v>114</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-34990.06150000001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>894</v>
-      </c>
-      <c r="C175" t="n">
-        <v>900</v>
-      </c>
-      <c r="D175" t="n">
-        <v>900</v>
-      </c>
-      <c r="E175" t="n">
-        <v>894</v>
-      </c>
-      <c r="F175" t="n">
-        <v>6239.8356</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-28750.22590000001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>900</v>
-      </c>
-      <c r="C176" t="n">
-        <v>908</v>
-      </c>
-      <c r="D176" t="n">
-        <v>908</v>
-      </c>
-      <c r="E176" t="n">
-        <v>899</v>
-      </c>
-      <c r="F176" t="n">
-        <v>3849.961</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-24900.26490000001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>910</v>
-      </c>
-      <c r="C177" t="n">
-        <v>922</v>
-      </c>
-      <c r="D177" t="n">
-        <v>922</v>
-      </c>
-      <c r="E177" t="n">
-        <v>910</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4267.7634</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-20632.50150000001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>925</v>
-      </c>
-      <c r="C178" t="n">
-        <v>955</v>
-      </c>
-      <c r="D178" t="n">
-        <v>955</v>
-      </c>
-      <c r="E178" t="n">
-        <v>925</v>
-      </c>
-      <c r="F178" t="n">
-        <v>11501.4706</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-9131.030900000012</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>959</v>
-      </c>
-      <c r="C179" t="n">
-        <v>960</v>
-      </c>
-      <c r="D179" t="n">
-        <v>960</v>
-      </c>
-      <c r="E179" t="n">
-        <v>955</v>
-      </c>
-      <c r="F179" t="n">
-        <v>9502.975288958334</v>
-      </c>
-      <c r="G179" t="n">
-        <v>371.9443889583217</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>956</v>
-      </c>
-      <c r="C180" t="n">
-        <v>967</v>
-      </c>
-      <c r="D180" t="n">
-        <v>970</v>
-      </c>
-      <c r="E180" t="n">
-        <v>956</v>
-      </c>
-      <c r="F180" t="n">
-        <v>4461.3497</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4833.294088958321</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6688,7 +6776,7 @@
         <v>4833.294088958321</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6721,7 +6809,7 @@
         <v>7000.834388958321</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6754,7 +6842,7 @@
         <v>-874.2634110416784</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6787,7 +6875,7 @@
         <v>-1119.139711041678</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6820,7 +6908,7 @@
         <v>179.2287889583217</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7447,7 +7535,7 @@
         <v>-17566.78210000001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7513,7 +7601,7 @@
         <v>-18692.52320000001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7546,7 +7634,7 @@
         <v>-18974.62880000001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7579,7 +7667,7 @@
         <v>-20059.82040000001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7645,7 +7733,7 @@
         <v>-22397.57760000001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>

--- a/BackTest/2019-10-11 BackTest WTC.xlsx
+++ b/BackTest/2019-10-11 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>28.3367</v>
       </c>
       <c r="G2" t="n">
-        <v>-6888.8655</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>23.0693</v>
       </c>
       <c r="G3" t="n">
-        <v>-6888.8655</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>284.29</v>
       </c>
       <c r="G4" t="n">
-        <v>-7173.1555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>130.96</v>
       </c>
       <c r="G5" t="n">
-        <v>-7042.1955</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>346.85</v>
       </c>
       <c r="G6" t="n">
-        <v>-6695.345499999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-6696.345499999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>542.9299</v>
       </c>
       <c r="G8" t="n">
-        <v>-6153.415599999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1909.9177</v>
       </c>
       <c r="G9" t="n">
-        <v>-8063.333299999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1774.1799</v>
       </c>
       <c r="G10" t="n">
-        <v>-6289.153399999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2283.5024</v>
       </c>
       <c r="G11" t="n">
-        <v>-4005.650999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>222.7615</v>
       </c>
       <c r="G12" t="n">
-        <v>-4005.650999999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>50.4987</v>
       </c>
       <c r="G13" t="n">
-        <v>-4056.149699999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>53.4522</v>
       </c>
       <c r="G14" t="n">
-        <v>-4109.6019</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>14315.4853</v>
       </c>
       <c r="G15" t="n">
-        <v>-18425.0872</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1462.5181</v>
       </c>
       <c r="G16" t="n">
-        <v>-16962.5691</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5.9101</v>
       </c>
       <c r="G17" t="n">
-        <v>-16956.659</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4006.8118</v>
       </c>
       <c r="G18" t="n">
-        <v>-20963.4708</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-20961.4708</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>-20973.4708</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-20971.4708</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>551.23</v>
       </c>
       <c r="G22" t="n">
-        <v>-21522.7008</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2053.4094</v>
       </c>
       <c r="G23" t="n">
-        <v>-23576.1102</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1427.1104</v>
       </c>
       <c r="G24" t="n">
-        <v>-23576.1102</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3735.9605</v>
       </c>
       <c r="G25" t="n">
-        <v>-23576.1102</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>196.2299</v>
       </c>
       <c r="G26" t="n">
-        <v>-23379.8803</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>54.2592</v>
       </c>
       <c r="G27" t="n">
-        <v>-23434.1395</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-23432.1395</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-23433.1395</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1020.414</v>
       </c>
       <c r="G30" t="n">
-        <v>-24453.5535</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>197.4992</v>
       </c>
       <c r="G31" t="n">
-        <v>-24256.0543</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>-24252.0543</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>221</v>
       </c>
       <c r="G33" t="n">
-        <v>-24473.0543</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2409.9048</v>
       </c>
       <c r="G34" t="n">
-        <v>-26882.9591</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1257.6705</v>
       </c>
       <c r="G35" t="n">
-        <v>-25625.2886</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>649.4779</v>
       </c>
       <c r="G36" t="n">
-        <v>-26274.76650000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>940</v>
       </c>
       <c r="G37" t="n">
-        <v>-26274.76650000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>8.525499999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>-26283.292</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>-26281.292</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>5802.7181</v>
       </c>
       <c r="G40" t="n">
-        <v>-20478.5739</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1457.4492</v>
       </c>
       <c r="G41" t="n">
-        <v>-20478.5739</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1662.8009</v>
       </c>
       <c r="G42" t="n">
-        <v>-22141.3748</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1252.4249</v>
       </c>
       <c r="G43" t="n">
-        <v>-20888.9499</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2674.4143</v>
       </c>
       <c r="G44" t="n">
-        <v>-23563.3642</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>-23560.3642</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>33.9417</v>
       </c>
       <c r="G46" t="n">
-        <v>-23560.3642</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>43</v>
       </c>
       <c r="G47" t="n">
-        <v>-23560.3642</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>235</v>
       </c>
       <c r="G48" t="n">
-        <v>-23795.3642</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>-23790.3642</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>302.8169</v>
       </c>
       <c r="G50" t="n">
-        <v>-24093.1811</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1249.9997</v>
       </c>
       <c r="G51" t="n">
-        <v>-25343.1808</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>45</v>
       </c>
       <c r="G52" t="n">
-        <v>-25298.1808</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>458</v>
       </c>
       <c r="G53" t="n">
-        <v>-25298.1808</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>448.32</v>
       </c>
       <c r="G54" t="n">
-        <v>-25298.1808</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1923.0663</v>
       </c>
       <c r="G55" t="n">
-        <v>-23375.1145</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>670.66</v>
       </c>
       <c r="G56" t="n">
-        <v>-24045.7745</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-25045.7745</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1253.2728</v>
       </c>
       <c r="G58" t="n">
-        <v>-23792.5017</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>22.9312</v>
       </c>
       <c r="G59" t="n">
-        <v>-23815.4329</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1954.0043</v>
       </c>
       <c r="G60" t="n">
-        <v>-25769.4372</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>108.12</v>
       </c>
       <c r="G61" t="n">
-        <v>-25661.3172</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>22.9302</v>
       </c>
       <c r="G62" t="n">
-        <v>-25638.38700000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>26.9305</v>
       </c>
       <c r="G63" t="n">
-        <v>-25665.3175</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1227.1752</v>
       </c>
       <c r="G64" t="n">
-        <v>-25665.3175</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1398.8845</v>
       </c>
       <c r="G65" t="n">
-        <v>-25665.3175</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1250.0007</v>
       </c>
       <c r="G66" t="n">
-        <v>-24415.3168</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-24416.3168</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-24415.3168</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>9864.5281</v>
       </c>
       <c r="G69" t="n">
-        <v>-34279.8449</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2136.9591</v>
       </c>
       <c r="G70" t="n">
-        <v>-36416.804</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>816.73</v>
       </c>
       <c r="G71" t="n">
-        <v>-37233.53400000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>88.4085</v>
       </c>
       <c r="G72" t="n">
-        <v>-37233.53400000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>120</v>
       </c>
       <c r="G73" t="n">
-        <v>-37233.53400000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2270</v>
       </c>
       <c r="G74" t="n">
-        <v>-37233.53400000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>301</v>
       </c>
       <c r="G75" t="n">
-        <v>-37233.53400000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>900</v>
       </c>
       <c r="G76" t="n">
-        <v>-37233.53400000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2234.5357</v>
       </c>
       <c r="G77" t="n">
-        <v>-39468.06970000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3241.6837</v>
       </c>
       <c r="G78" t="n">
-        <v>-39468.06970000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1431.9899</v>
       </c>
       <c r="G79" t="n">
-        <v>-40900.05960000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>3568.0101</v>
       </c>
       <c r="G80" t="n">
-        <v>-40900.05960000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>55.3301</v>
       </c>
       <c r="G81" t="n">
-        <v>-40955.38970000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1.6</v>
       </c>
       <c r="G82" t="n">
-        <v>-40953.78970000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>-40957.78970000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2167.3145</v>
       </c>
       <c r="G84" t="n">
-        <v>-43125.10420000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1778.0896</v>
       </c>
       <c r="G85" t="n">
-        <v>-44903.19380000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2641.0961</v>
       </c>
       <c r="G86" t="n">
-        <v>-47544.28990000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>546.0623000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-47544.28990000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>72.7713</v>
       </c>
       <c r="G88" t="n">
-        <v>-47544.28990000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>-47539.28990000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>-47542.28990000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>60</v>
       </c>
       <c r="G91" t="n">
-        <v>-47602.28990000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>500</v>
       </c>
       <c r="G92" t="n">
-        <v>-47102.28990000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-47103.28990000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-47104.28990000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>127.9925</v>
       </c>
       <c r="G95" t="n">
-        <v>-46976.29740000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>-46977.29740000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,21 @@
         <v>3000</v>
       </c>
       <c r="G97" t="n">
-        <v>-49977.29740000001</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3329,21 @@
         <v>164.5221</v>
       </c>
       <c r="G98" t="n">
-        <v>-49812.77530000001</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3365,21 @@
         <v>167.7426</v>
       </c>
       <c r="G99" t="n">
-        <v>-49645.03270000001</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3401,21 @@
         <v>1325.6244</v>
       </c>
       <c r="G100" t="n">
-        <v>-49645.03270000001</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3437,21 @@
         <v>7</v>
       </c>
       <c r="G101" t="n">
-        <v>-49638.03270000001</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3473,21 @@
         <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>-49635.03270000001</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3509,21 @@
         <v>6043.4981</v>
       </c>
       <c r="G103" t="n">
-        <v>-55678.53080000001</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3545,21 @@
         <v>236</v>
       </c>
       <c r="G104" t="n">
-        <v>-55442.53080000001</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3581,21 @@
         <v>1389.7236</v>
       </c>
       <c r="G105" t="n">
-        <v>-56832.25440000001</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3617,21 @@
         <v>36</v>
       </c>
       <c r="G106" t="n">
-        <v>-56796.25440000001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3653,21 @@
         <v>0.9872</v>
       </c>
       <c r="G107" t="n">
-        <v>-56796.25440000001</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3689,21 @@
         <v>281.2626</v>
       </c>
       <c r="G108" t="n">
-        <v>-56514.9918</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3725,21 @@
         <v>4.1479</v>
       </c>
       <c r="G109" t="n">
-        <v>-56514.9918</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3761,21 @@
         <v>77</v>
       </c>
       <c r="G110" t="n">
-        <v>-56437.9918</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3797,21 @@
         <v>1025.1076</v>
       </c>
       <c r="G111" t="n">
-        <v>-55412.8842</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3833,21 @@
         <v>15</v>
       </c>
       <c r="G112" t="n">
-        <v>-55427.8842</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3869,21 @@
         <v>40</v>
       </c>
       <c r="G113" t="n">
-        <v>-55387.8842</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3905,21 @@
         <v>20.2407</v>
       </c>
       <c r="G114" t="n">
-        <v>-55387.8842</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3941,21 @@
         <v>2.753</v>
       </c>
       <c r="G115" t="n">
-        <v>-55385.1312</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3977,19 @@
         <v>12.9937</v>
       </c>
       <c r="G116" t="n">
-        <v>-55398.1249</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,22 +4011,19 @@
         <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>-55418.1249</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>809</v>
-      </c>
-      <c r="J117" t="n">
-        <v>809</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4280,24 +4045,19 @@
         <v>2252.2321</v>
       </c>
       <c r="G118" t="n">
-        <v>-57670.357</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>809</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4319,24 +4079,19 @@
         <v>5547.2964</v>
       </c>
       <c r="G119" t="n">
-        <v>-63217.6534</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>809</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4358,24 +4113,19 @@
         <v>67.9999</v>
       </c>
       <c r="G120" t="n">
-        <v>-63149.6535</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>809</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4397,24 +4147,19 @@
         <v>191.3407</v>
       </c>
       <c r="G121" t="n">
-        <v>-63149.6535</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>809</v>
-      </c>
-      <c r="K121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4436,24 +4181,19 @@
         <v>65</v>
       </c>
       <c r="G122" t="n">
-        <v>-63214.6535</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>809</v>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4475,24 +4215,19 @@
         <v>10.476</v>
       </c>
       <c r="G123" t="n">
-        <v>-63225.1295</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>809</v>
-      </c>
-      <c r="K123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4514,26 +4249,19 @@
         <v>86.28</v>
       </c>
       <c r="G124" t="n">
-        <v>-63225.1295</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>802</v>
-      </c>
-      <c r="J124" t="n">
-        <v>809</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4555,26 +4283,19 @@
         <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>-63220.1295</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>802</v>
-      </c>
-      <c r="J125" t="n">
-        <v>809</v>
-      </c>
-      <c r="K125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4596,26 +4317,19 @@
         <v>929.6836</v>
       </c>
       <c r="G126" t="n">
-        <v>-64149.8131</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>808</v>
-      </c>
-      <c r="J126" t="n">
-        <v>809</v>
-      </c>
-      <c r="K126" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4637,26 +4351,19 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>-64144.8131</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>803</v>
-      </c>
-      <c r="J127" t="n">
-        <v>809</v>
-      </c>
-      <c r="K127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4678,26 +4385,19 @@
         <v>83.2199</v>
       </c>
       <c r="G128" t="n">
-        <v>-64144.8131</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>804</v>
-      </c>
-      <c r="J128" t="n">
-        <v>809</v>
-      </c>
-      <c r="K128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4719,26 +4419,19 @@
         <v>827.3977</v>
       </c>
       <c r="G129" t="n">
-        <v>-63317.4154</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>804</v>
-      </c>
-      <c r="J129" t="n">
-        <v>809</v>
-      </c>
-      <c r="K129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4760,26 +4453,19 @@
         <v>79.13</v>
       </c>
       <c r="G130" t="n">
-        <v>-63238.2854</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>807</v>
-      </c>
-      <c r="J130" t="n">
-        <v>809</v>
-      </c>
-      <c r="K130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4801,26 +4487,19 @@
         <v>195.9459</v>
       </c>
       <c r="G131" t="n">
-        <v>-63238.2854</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>810</v>
-      </c>
-      <c r="J131" t="n">
-        <v>809</v>
-      </c>
-      <c r="K131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4842,26 +4521,19 @@
         <v>755.0328</v>
       </c>
       <c r="G132" t="n">
-        <v>-63238.2854</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>810</v>
-      </c>
-      <c r="J132" t="n">
-        <v>809</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4883,26 +4555,19 @@
         <v>683.0804000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-63921.3658</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>810</v>
-      </c>
-      <c r="J133" t="n">
-        <v>809</v>
-      </c>
-      <c r="K133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4924,26 +4589,19 @@
         <v>48.682</v>
       </c>
       <c r="G134" t="n">
-        <v>-63872.6838</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>808</v>
-      </c>
-      <c r="J134" t="n">
-        <v>809</v>
-      </c>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4965,26 +4623,19 @@
         <v>354.7</v>
       </c>
       <c r="G135" t="n">
-        <v>-63517.9838</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>810</v>
-      </c>
-      <c r="J135" t="n">
-        <v>809</v>
-      </c>
-      <c r="K135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5006,26 +4657,19 @@
         <v>348.123</v>
       </c>
       <c r="G136" t="n">
-        <v>-63169.8608</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>812</v>
-      </c>
-      <c r="J136" t="n">
-        <v>809</v>
-      </c>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5047,26 +4691,19 @@
         <v>2049.0609</v>
       </c>
       <c r="G137" t="n">
-        <v>-61120.79990000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>815</v>
-      </c>
-      <c r="J137" t="n">
-        <v>809</v>
-      </c>
-      <c r="K137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5088,26 +4725,19 @@
         <v>1554</v>
       </c>
       <c r="G138" t="n">
-        <v>-61120.79990000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>825</v>
-      </c>
-      <c r="J138" t="n">
-        <v>809</v>
-      </c>
-      <c r="K138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5129,26 +4759,19 @@
         <v>2180</v>
       </c>
       <c r="G139" t="n">
-        <v>-58940.79990000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>825</v>
-      </c>
-      <c r="J139" t="n">
-        <v>809</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5170,24 +4793,19 @@
         <v>2509.0964</v>
       </c>
       <c r="G140" t="n">
-        <v>-56431.7035</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>809</v>
-      </c>
-      <c r="K140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5209,26 +4827,19 @@
         <v>326.74</v>
       </c>
       <c r="G141" t="n">
-        <v>-56104.96350000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>840</v>
-      </c>
-      <c r="J141" t="n">
-        <v>809</v>
-      </c>
-      <c r="K141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5250,24 +4861,19 @@
         <v>2171.3299</v>
       </c>
       <c r="G142" t="n">
-        <v>-53933.63360000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>809</v>
-      </c>
-      <c r="K142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5289,24 +4895,19 @@
         <v>3531.6848</v>
       </c>
       <c r="G143" t="n">
-        <v>-57465.31840000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>809</v>
-      </c>
-      <c r="K143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5328,24 +4929,19 @@
         <v>1560</v>
       </c>
       <c r="G144" t="n">
-        <v>-55905.31840000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>809</v>
-      </c>
-      <c r="K144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5367,24 +4963,19 @@
         <v>278.0236</v>
       </c>
       <c r="G145" t="n">
-        <v>-56183.34200000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>809</v>
-      </c>
-      <c r="K145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5406,24 +4997,19 @@
         <v>240</v>
       </c>
       <c r="G146" t="n">
-        <v>-56183.34200000001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>809</v>
-      </c>
-      <c r="K146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5445,24 +5031,19 @@
         <v>1940.8233</v>
       </c>
       <c r="G147" t="n">
-        <v>-54242.51870000002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>809</v>
-      </c>
-      <c r="K147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5484,24 +5065,19 @@
         <v>3523.1668</v>
       </c>
       <c r="G148" t="n">
-        <v>-57765.68550000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>809</v>
-      </c>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5523,24 +5099,19 @@
         <v>11496.2199</v>
       </c>
       <c r="G149" t="n">
-        <v>-46269.46560000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>809</v>
-      </c>
-      <c r="K149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5562,24 +5133,19 @@
         <v>175.07</v>
       </c>
       <c r="G150" t="n">
-        <v>-46444.53560000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>809</v>
-      </c>
-      <c r="K150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5601,24 +5167,19 @@
         <v>131</v>
       </c>
       <c r="G151" t="n">
-        <v>-46313.53560000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>809</v>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5640,24 +5201,19 @@
         <v>3153.81</v>
       </c>
       <c r="G152" t="n">
-        <v>-43159.72560000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>809</v>
-      </c>
-      <c r="K152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5679,24 +5235,19 @@
         <v>2883</v>
       </c>
       <c r="G153" t="n">
-        <v>-43159.72560000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>809</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5718,24 +5269,19 @@
         <v>1564.104797045454</v>
       </c>
       <c r="G154" t="n">
-        <v>-43159.72560000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>809</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5757,24 +5303,19 @@
         <v>2475.7803</v>
       </c>
       <c r="G155" t="n">
-        <v>-45635.50590000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>809</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5796,24 +5337,19 @@
         <v>297</v>
       </c>
       <c r="G156" t="n">
-        <v>-45338.50590000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>809</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5835,24 +5371,19 @@
         <v>2987.7516</v>
       </c>
       <c r="G157" t="n">
-        <v>-42350.75430000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>809</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5874,24 +5405,19 @@
         <v>860.7684</v>
       </c>
       <c r="G158" t="n">
-        <v>-42350.75430000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>809</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5913,24 +5439,19 @@
         <v>708.4751</v>
       </c>
       <c r="G159" t="n">
-        <v>-41642.2792</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>809</v>
-      </c>
-      <c r="K159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5952,24 +5473,19 @@
         <v>825.6129</v>
       </c>
       <c r="G160" t="n">
-        <v>-40816.6663</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>809</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5991,24 +5507,19 @@
         <v>1.995</v>
       </c>
       <c r="G161" t="n">
-        <v>-40818.66130000001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>809</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6030,24 +5541,19 @@
         <v>31.7761</v>
       </c>
       <c r="G162" t="n">
-        <v>-40786.8852</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>809</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6069,24 +5575,19 @@
         <v>512.4953</v>
       </c>
       <c r="G163" t="n">
-        <v>-41299.38050000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>809</v>
-      </c>
-      <c r="K163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6108,24 +5609,19 @@
         <v>116.2667</v>
       </c>
       <c r="G164" t="n">
-        <v>-41299.38050000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>809</v>
-      </c>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6147,24 +5643,19 @@
         <v>274.35</v>
       </c>
       <c r="G165" t="n">
-        <v>-41299.38050000001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>809</v>
-      </c>
-      <c r="K165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6186,24 +5677,19 @@
         <v>371.8756</v>
       </c>
       <c r="G166" t="n">
-        <v>-41671.25610000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>809</v>
-      </c>
-      <c r="K166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6225,24 +5711,19 @@
         <v>1283.1318</v>
       </c>
       <c r="G167" t="n">
-        <v>-42954.38790000001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>809</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6264,24 +5745,19 @@
         <v>1355.9489</v>
       </c>
       <c r="G168" t="n">
-        <v>-41598.43900000001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>809</v>
-      </c>
-      <c r="K168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6303,24 +5779,19 @@
         <v>628.9367</v>
       </c>
       <c r="G169" t="n">
-        <v>-40969.50230000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>809</v>
-      </c>
-      <c r="K169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6342,24 +5813,19 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>-40968.50230000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>809</v>
-      </c>
-      <c r="K170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6381,24 +5847,19 @@
         <v>1345.8447</v>
       </c>
       <c r="G171" t="n">
-        <v>-39622.65760000001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>809</v>
-      </c>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6420,24 +5881,19 @@
         <v>5327.4365</v>
       </c>
       <c r="G172" t="n">
-        <v>-34295.22110000001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>809</v>
-      </c>
-      <c r="K172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6459,24 +5915,19 @@
         <v>808.8404</v>
       </c>
       <c r="G173" t="n">
-        <v>-35104.06150000001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>809</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6498,24 +5949,19 @@
         <v>114</v>
       </c>
       <c r="G174" t="n">
-        <v>-34990.06150000001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>809</v>
-      </c>
-      <c r="K174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6537,24 +5983,19 @@
         <v>6239.8356</v>
       </c>
       <c r="G175" t="n">
-        <v>-28750.22590000001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>809</v>
-      </c>
-      <c r="K175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6576,24 +6017,19 @@
         <v>3849.961</v>
       </c>
       <c r="G176" t="n">
-        <v>-24900.26490000001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>809</v>
-      </c>
-      <c r="K176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6615,24 +6051,19 @@
         <v>4267.7634</v>
       </c>
       <c r="G177" t="n">
-        <v>-20632.50150000001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>809</v>
-      </c>
-      <c r="K177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6654,24 +6085,19 @@
         <v>11501.4706</v>
       </c>
       <c r="G178" t="n">
-        <v>-9131.030900000012</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>809</v>
-      </c>
-      <c r="K178" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6693,24 +6119,19 @@
         <v>9502.975288958334</v>
       </c>
       <c r="G179" t="n">
-        <v>371.9443889583217</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>809</v>
-      </c>
-      <c r="K179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6732,26 +6153,19 @@
         <v>4461.3497</v>
       </c>
       <c r="G180" t="n">
-        <v>4833.294088958321</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>809</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1.190302843016069</v>
-      </c>
-      <c r="M180" t="n">
-        <v>1.071339173967459</v>
-      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6773,18 +6187,19 @@
         <v>2953.263111041667</v>
       </c>
       <c r="G181" t="n">
-        <v>4833.294088958321</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6806,18 +6221,19 @@
         <v>2167.5403</v>
       </c>
       <c r="G182" t="n">
-        <v>7000.834388958321</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6839,18 +6255,17 @@
         <v>7875.0978</v>
       </c>
       <c r="G183" t="n">
-        <v>-874.2634110416784</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6872,18 +6287,15 @@
         <v>244.8763</v>
       </c>
       <c r="G184" t="n">
-        <v>-1119.139711041678</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6905,18 +6317,15 @@
         <v>1298.3685</v>
       </c>
       <c r="G185" t="n">
-        <v>179.2287889583217</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6938,18 +6347,15 @@
         <v>1351.5365</v>
       </c>
       <c r="G186" t="n">
-        <v>-1172.307711041678</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6971,18 +6377,15 @@
         <v>527.654</v>
       </c>
       <c r="G187" t="n">
-        <v>-1172.307711041678</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7004,18 +6407,15 @@
         <v>3111.995788958333</v>
       </c>
       <c r="G188" t="n">
-        <v>-4284.303500000011</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7037,18 +6437,15 @@
         <v>153.4559</v>
       </c>
       <c r="G189" t="n">
-        <v>-4130.847600000011</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7070,18 +6467,15 @@
         <v>4319.7179</v>
       </c>
       <c r="G190" t="n">
-        <v>-8450.565500000012</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7103,18 +6497,15 @@
         <v>2682.1515</v>
       </c>
       <c r="G191" t="n">
-        <v>-11132.71700000001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7136,18 +6527,15 @@
         <v>31.1588</v>
       </c>
       <c r="G192" t="n">
-        <v>-11132.71700000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7169,18 +6557,15 @@
         <v>581.6095</v>
       </c>
       <c r="G193" t="n">
-        <v>-11714.32650000001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7202,18 +6587,15 @@
         <v>77.0896</v>
       </c>
       <c r="G194" t="n">
-        <v>-11637.23690000001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7235,18 +6617,15 @@
         <v>2806.6197</v>
       </c>
       <c r="G195" t="n">
-        <v>-14443.85660000001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7268,18 +6647,15 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>-14442.85660000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7301,18 +6677,15 @@
         <v>220.7104</v>
       </c>
       <c r="G197" t="n">
-        <v>-14663.56700000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7334,18 +6707,15 @@
         <v>95.7038</v>
       </c>
       <c r="G198" t="n">
-        <v>-14663.56700000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7367,18 +6737,15 @@
         <v>102.9975</v>
       </c>
       <c r="G199" t="n">
-        <v>-14766.56450000001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7400,18 +6767,15 @@
         <v>285.4013</v>
       </c>
       <c r="G200" t="n">
-        <v>-14481.16320000001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7433,18 +6797,15 @@
         <v>122.8908</v>
       </c>
       <c r="G201" t="n">
-        <v>-14358.27240000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7466,18 +6827,15 @@
         <v>2092.6639</v>
       </c>
       <c r="G202" t="n">
-        <v>-16450.93630000002</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7499,18 +6857,15 @@
         <v>565.2654</v>
       </c>
       <c r="G203" t="n">
-        <v>-16450.93630000002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7532,18 +6887,15 @@
         <v>1115.8458</v>
       </c>
       <c r="G204" t="n">
-        <v>-17566.78210000001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7565,18 +6917,15 @@
         <v>6952.4902</v>
       </c>
       <c r="G205" t="n">
-        <v>-24519.27230000002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7598,18 +6947,15 @@
         <v>5826.7491</v>
       </c>
       <c r="G206" t="n">
-        <v>-18692.52320000001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7631,18 +6977,15 @@
         <v>282.1056</v>
       </c>
       <c r="G207" t="n">
-        <v>-18974.62880000001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7664,18 +7007,15 @@
         <v>1085.1916</v>
       </c>
       <c r="G208" t="n">
-        <v>-20059.82040000001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7697,18 +7037,15 @@
         <v>2429.1272</v>
       </c>
       <c r="G209" t="n">
-        <v>-22488.94760000001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7730,18 +7067,15 @@
         <v>91.37</v>
       </c>
       <c r="G210" t="n">
-        <v>-22397.57760000001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7763,18 +7097,15 @@
         <v>29.23</v>
       </c>
       <c r="G211" t="n">
-        <v>-22368.34760000001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7796,18 +7127,15 @@
         <v>14.1868</v>
       </c>
       <c r="G212" t="n">
-        <v>-22354.16080000001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7829,18 +7157,15 @@
         <v>820.2574</v>
       </c>
       <c r="G213" t="n">
-        <v>-21533.90340000001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7862,18 +7187,15 @@
         <v>2362.8356</v>
       </c>
       <c r="G214" t="n">
-        <v>-19171.06780000002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7895,18 +7217,15 @@
         <v>143</v>
       </c>
       <c r="G215" t="n">
-        <v>-19028.06780000002</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7928,18 +7247,15 @@
         <v>541.1265</v>
       </c>
       <c r="G216" t="n">
-        <v>-19569.19430000001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7961,18 +7277,15 @@
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>-19568.19430000001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7994,18 +7307,15 @@
         <v>1151.86</v>
       </c>
       <c r="G218" t="n">
-        <v>-18416.33430000001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8027,18 +7337,15 @@
         <v>1134.4993</v>
       </c>
       <c r="G219" t="n">
-        <v>-19550.83360000001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8060,18 +7367,15 @@
         <v>138.7</v>
       </c>
       <c r="G220" t="n">
-        <v>-19412.13360000001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8093,18 +7397,15 @@
         <v>700.9446</v>
       </c>
       <c r="G221" t="n">
-        <v>-20113.07820000001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8126,18 +7427,15 @@
         <v>1036.7008</v>
       </c>
       <c r="G222" t="n">
-        <v>-19076.37740000001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8159,18 +7457,15 @@
         <v>612.376</v>
       </c>
       <c r="G223" t="n">
-        <v>-19688.75340000001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8192,18 +7487,15 @@
         <v>541.0092</v>
       </c>
       <c r="G224" t="n">
-        <v>-20229.76260000001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8225,18 +7517,15 @@
         <v>197.4856</v>
       </c>
       <c r="G225" t="n">
-        <v>-20427.24820000001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8258,18 +7547,15 @@
         <v>228.2264</v>
       </c>
       <c r="G226" t="n">
-        <v>-20655.47460000001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8291,18 +7577,15 @@
         <v>641.5349</v>
       </c>
       <c r="G227" t="n">
-        <v>-21297.00950000001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8324,18 +7607,15 @@
         <v>928.3806</v>
       </c>
       <c r="G228" t="n">
-        <v>-22225.39010000001</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8357,18 +7637,15 @@
         <v>358.7631</v>
       </c>
       <c r="G229" t="n">
-        <v>-22225.39010000001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8390,18 +7667,15 @@
         <v>17195.1416</v>
       </c>
       <c r="G230" t="n">
-        <v>-39420.53170000001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8423,18 +7697,15 @@
         <v>6913.4091</v>
       </c>
       <c r="G231" t="n">
-        <v>-46333.9408</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8456,18 +7727,15 @@
         <v>284</v>
       </c>
       <c r="G232" t="n">
-        <v>-46333.9408</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8489,18 +7757,15 @@
         <v>7489.98</v>
       </c>
       <c r="G233" t="n">
-        <v>-53823.92080000001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8522,18 +7787,15 @@
         <v>4105.299</v>
       </c>
       <c r="G234" t="n">
-        <v>-49718.62180000001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8555,18 +7817,15 @@
         <v>150.3277</v>
       </c>
       <c r="G235" t="n">
-        <v>-49868.94950000001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8588,18 +7847,15 @@
         <v>1512.0973</v>
       </c>
       <c r="G236" t="n">
-        <v>-48356.85220000001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8621,18 +7877,15 @@
         <v>20.64</v>
       </c>
       <c r="G237" t="n">
-        <v>-48377.49220000001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8654,18 +7907,15 @@
         <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>-48376.49220000001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8687,18 +7937,15 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>-48377.49220000001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8720,18 +7967,15 @@
         <v>650.223</v>
       </c>
       <c r="G240" t="n">
-        <v>-47727.26920000001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8753,18 +7997,15 @@
         <v>812.3425</v>
       </c>
       <c r="G241" t="n">
-        <v>-46914.92670000001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8786,18 +8027,15 @@
         <v>192.0817</v>
       </c>
       <c r="G242" t="n">
-        <v>-47107.00840000001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8819,18 +8057,15 @@
         <v>562.0748</v>
       </c>
       <c r="G243" t="n">
-        <v>-47669.08320000002</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8852,18 +8087,15 @@
         <v>1669.4901</v>
       </c>
       <c r="G244" t="n">
-        <v>-49338.57330000002</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8885,18 +8117,15 @@
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>-49337.57330000002</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8918,18 +8147,15 @@
         <v>1090.3258</v>
       </c>
       <c r="G246" t="n">
-        <v>-50427.89910000002</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8951,18 +8177,15 @@
         <v>3598.4054</v>
       </c>
       <c r="G247" t="n">
-        <v>-54026.30450000002</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8984,18 +8207,15 @@
         <v>510.3825</v>
       </c>
       <c r="G248" t="n">
-        <v>-53515.92200000002</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9017,18 +8237,15 @@
         <v>181.1835</v>
       </c>
       <c r="G249" t="n">
-        <v>-53697.10550000002</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9050,18 +8267,15 @@
         <v>170.7912</v>
       </c>
       <c r="G250" t="n">
-        <v>-53867.89670000002</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9083,18 +8297,15 @@
         <v>283.9909</v>
       </c>
       <c r="G251" t="n">
-        <v>-54151.88760000002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9116,18 +8327,15 @@
         <v>1025.8389</v>
       </c>
       <c r="G252" t="n">
-        <v>-55177.72650000002</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9149,18 +8357,15 @@
         <v>16.1031</v>
       </c>
       <c r="G253" t="n">
-        <v>-55161.62340000002</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9182,18 +8387,15 @@
         <v>375.11</v>
       </c>
       <c r="G254" t="n">
-        <v>-55536.73340000002</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9215,18 +8417,15 @@
         <v>815.8371</v>
       </c>
       <c r="G255" t="n">
-        <v>-54720.89630000002</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9248,18 +8447,15 @@
         <v>482.6921</v>
       </c>
       <c r="G256" t="n">
-        <v>-54238.20420000002</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9281,18 +8477,15 @@
         <v>2073.8965</v>
       </c>
       <c r="G257" t="n">
-        <v>-56312.10070000002</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9314,18 +8507,15 @@
         <v>724.6998</v>
       </c>
       <c r="G258" t="n">
-        <v>-55587.40090000002</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9347,18 +8537,15 @@
         <v>1053.697</v>
       </c>
       <c r="G259" t="n">
-        <v>-55587.40090000002</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9380,18 +8567,15 @@
         <v>263.1696</v>
       </c>
       <c r="G260" t="n">
-        <v>-55587.40090000002</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9413,18 +8597,15 @@
         <v>943.6801</v>
       </c>
       <c r="G261" t="n">
-        <v>-56531.08100000002</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9446,18 +8627,15 @@
         <v>19.4482</v>
       </c>
       <c r="G262" t="n">
-        <v>-56511.63280000002</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9479,18 +8657,15 @@
         <v>12</v>
       </c>
       <c r="G263" t="n">
-        <v>-56511.63280000002</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9512,18 +8687,15 @@
         <v>924.9776000000001</v>
       </c>
       <c r="G264" t="n">
-        <v>-57436.61040000002</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
